--- a/Auctions EUA.xlsx
+++ b/Auctions EUA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC19B64E-0328-40C3-9B43-B7BCD40E836C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31D56F1-FC2D-4361-8599-8911FA4FCB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
@@ -905,7 +905,7 @@
         <tr r="I109" s="2"/>
       </tp>
       <tp t="s">
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
         <stp/>
         <stp>BDP|3943920066704382928|22</stp>
         <stp>UKATOBID Index</stp>
@@ -921,7 +921,7 @@
         <tr r="H101" s="2"/>
       </tp>
       <tp t="s">
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
         <stp/>
         <stp>BDP|5088816692015618598|22</stp>
         <stp>UKACORAT Index</stp>
@@ -953,7 +953,7 @@
         <tr r="P51" s="2"/>
       </tp>
       <tp>
-        <v>85</v>
+        <v>80</v>
         <stp/>
         <stp>BDP|10519417515402280991|22</stp>
         <stp>EEX3EPPM Index</stp>
@@ -968,6 +968,8 @@
         <stp>BID</stp>
         <tr r="H93" s="2"/>
       </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
       <tp t="s">
         <v>#N/A Real Time</v>
         <stp/>
@@ -984,6 +986,8 @@
         <stp>ASK</stp>
         <tr r="I101" s="2"/>
       </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
@@ -1057,7 +1061,7 @@
         <tr r="I59" s="2"/>
       </tp>
       <tp>
-        <v>68.05</v>
+        <v>64</v>
         <stp/>
         <stp>BDP|17420742517022627310|22</stp>
         <stp>EEX3X3PL Index</stp>
@@ -1073,7 +1077,7 @@
         <tr r="I113" s="2"/>
       </tp>
       <tp>
-        <v>65</v>
+        <v>73.2</v>
         <stp/>
         <stp>BDP|15420833856443191727|22</stp>
         <stp>EEX3PMDE Index</stp>
@@ -1113,7 +1117,7 @@
         <tr r="P97" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Real Time</v>
+        <v>03.09.2025</v>
         <stp/>
         <stp>BDP|4461466310551583618|22</stp>
         <stp>RGGIAAQS Index</stp>
@@ -1129,7 +1133,7 @@
         <tr r="H59" s="2"/>
       </tp>
       <tp t="s">
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
         <stp/>
         <stp>BDP|5161086271000779607|22</stp>
         <stp>EEX3X3PL Index</stp>
@@ -1177,25 +1181,25 @@
         <tr r="H70" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3663603769</v>
+        <v>#N/A Requesting Data...2663367911</v>
         <stp/>
         <stp>BDP|11269571729604204855</stp>
         <tr r="C145" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3405150084</v>
+        <v>#N/A Requesting Data...3647323740</v>
         <stp/>
         <stp>BDP|10943788378258769235</stp>
         <tr r="D109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1947112609</v>
+        <v>#N/A Requesting Data...4082360482</v>
         <stp/>
         <stp>BDP|13172746922254409863</stp>
         <tr r="O80" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1159917878</v>
+        <v>#N/A Requesting Data...3380412473</v>
         <stp/>
         <stp>BDP|14497910193647682945</stp>
         <tr r="D70" s="2"/>
@@ -1217,7 +1221,7 @@
         <tr r="P69" s="2"/>
       </tp>
       <tp t="s">
-        <v>29.08.2025</v>
+        <v>05.09.2025</v>
         <stp/>
         <stp>BDP|3193189600887063507|22</stp>
         <stp>EEX3CRDE Index</stp>
@@ -1225,7 +1229,7 @@
         <tr r="P59" s="2"/>
       </tp>
       <tp>
-        <v>85</v>
+        <v>80</v>
         <stp/>
         <stp>BDP|11258790351540468562|22</stp>
         <stp>EEX3PMEU Index</stp>
@@ -1241,25 +1245,25 @@
         <tr r="H83" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1187855719</v>
+        <v>#N/A Requesting Data...2769441933</v>
         <stp/>
         <stp>BDP|18008250999471656922</stp>
         <tr r="D91" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...765823443</v>
+        <v>#N/A Requesting Data...2816919568</v>
         <stp/>
         <stp>BDP|17732115207434946955</stp>
         <tr r="O35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1045603430</v>
+        <v>#N/A Requesting Data...3375213175</v>
         <stp/>
         <stp>BDP|17883504586526473761</stp>
         <tr r="D60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2771171952</v>
+        <v>#N/A Requesting Data...3976777675</v>
         <stp/>
         <stp>BDP|17453411474857561889</stp>
         <tr r="C51" s="2"/>
@@ -1273,25 +1277,25 @@
         <tr r="P123" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3922949328</v>
+        <v>#N/A Requesting Data...3620713657</v>
         <stp/>
         <stp>BDP|17440720740509750509</stp>
         <tr r="D131" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3156595163</v>
+        <v>#N/A Requesting Data...4136725882</v>
         <stp/>
         <stp>BDP|13137573291627110020</stp>
         <tr r="O122" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2725416745</v>
+        <v>#N/A Requesting Data...2448984138</v>
         <stp/>
         <stp>BDP|12589828556680285779</stp>
         <tr r="C131" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4141421577</v>
+        <v>#N/A Requesting Data...3284802481</v>
         <stp/>
         <stp>BDP|14677421799633940220</stp>
         <tr r="D135" s="2"/>
@@ -1313,25 +1317,25 @@
         <tr r="H60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2918703527</v>
+        <v>#N/A Requesting Data...3867057995</v>
         <stp/>
         <stp>BDP|13392001727258142092</stp>
         <tr r="O125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3922588643</v>
+        <v>#N/A Requesting Data...2871906050</v>
         <stp/>
         <stp>BDP|14017755899281818256</stp>
         <tr r="D39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3044361124</v>
+        <v>#N/A Requesting Data...2433242235</v>
         <stp/>
         <stp>BDP|15783964005736454339</stp>
         <tr r="D51" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3053920026</v>
+        <v>#N/A Requesting Data...3424353202</v>
         <stp/>
         <stp>BDP|15365985838177005150</stp>
         <tr r="O49" s="2"/>
@@ -1361,7 +1365,7 @@
         <tr r="I70" s="2"/>
       </tp>
       <tp t="s">
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
         <stp/>
         <stp>BDP|17032143300330279338|22</stp>
         <stp>UKAAUPR Index</stp>
@@ -1369,19 +1373,19 @@
         <tr r="P35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2901226881</v>
+        <v>#N/A Requesting Data...2618270724</v>
         <stp/>
         <stp>BDP|15339769723328136685</stp>
         <tr r="C63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4243433795</v>
+        <v>#N/A Requesting Data...2533842247</v>
         <stp/>
         <stp>BDP|18033101966751297072</stp>
         <tr r="C67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...555377106</v>
+        <v>#N/A Requesting Data...2509700895</v>
         <stp/>
         <stp>BDP|14450087638141730867</stp>
         <tr r="D59" s="2"/>
@@ -1419,85 +1423,85 @@
         <tr r="I41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3858241746</v>
+        <v>#N/A Requesting Data...4286009376</v>
         <stp/>
         <stp>BDP|18411307338470386767</stp>
         <tr r="D99" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2624166883</v>
+        <v>#N/A Requesting Data...3489676900</v>
         <stp/>
         <stp>BDP|10666662405090903935</stp>
         <tr r="C107" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2603101695</v>
+        <v>#N/A Requesting Data...2719305007</v>
         <stp/>
         <stp>BDP|14977427384300822780</stp>
         <tr r="O51" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2314933622</v>
+        <v>#N/A Requesting Data...3242892664</v>
         <stp/>
         <stp>BDP|16823031330433881965</stp>
         <tr r="C79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3891170071</v>
+        <v>#N/A Requesting Data...3675674282</v>
         <stp/>
         <stp>BDP|11920132482670808779</stp>
         <tr r="O121" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1841546203</v>
+        <v>#N/A Requesting Data...3400789991</v>
         <stp/>
         <stp>BDP|16946453695197801084</stp>
         <tr r="D71" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4234647573</v>
+        <v>#N/A Requesting Data...2996594825</v>
         <stp/>
         <stp>BDP|17933236663647161806</stp>
         <tr r="O142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2741471106</v>
+        <v>#N/A Requesting Data...3157724731</v>
         <stp/>
         <stp>BDP|16760592922515211860</stp>
         <tr r="C135" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...715812412</v>
+        <v>#N/A Requesting Data...2591279903</v>
         <stp/>
         <stp>BDP|17148762016524255989</stp>
         <tr r="C73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...476282568</v>
+        <v>#N/A Requesting Data...3511501019</v>
         <stp/>
         <stp>BDP|18309468170035994204</stp>
         <tr r="C129" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2357880472</v>
+        <v>#N/A Requesting Data...2759043607</v>
         <stp/>
         <stp>BDP|17271087938758253012</stp>
         <tr r="C57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1028539393</v>
+        <v>#N/A Requesting Data...2755152195</v>
         <stp/>
         <stp>BDP|12870303344301412882</stp>
         <tr r="C91" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...927394045</v>
+        <v>#N/A Requesting Data...2643477687</v>
         <stp/>
         <stp>BDP|11040138180590694408</stp>
         <tr r="C81" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2570834638</v>
+        <v>#N/A Requesting Data...3171661985</v>
         <stp/>
         <stp>BDP|11220363830214973997</stp>
         <tr r="C50" s="2"/>
@@ -1511,43 +1515,43 @@
         <tr r="I121" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3965657168</v>
+        <v>#N/A Requesting Data...2604302277</v>
         <stp/>
         <stp>BDP|10310929788149374579</stp>
         <tr r="C80" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1650432576</v>
+        <v>#N/A Requesting Data...3998192181</v>
         <stp/>
         <stp>BDP|17645551591513564590</stp>
         <tr r="C119" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2772408717</v>
+        <v>#N/A Requesting Data...3363774490</v>
         <stp/>
         <stp>BDP|11799929507266026330</stp>
         <tr r="C93" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2334827117</v>
+        <v>#N/A Requesting Data...2745243985</v>
         <stp/>
         <stp>BDP|12376569583387116556</stp>
         <tr r="D77" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3852525986</v>
+        <v>#N/A Requesting Data...3165591379</v>
         <stp/>
         <stp>BDP|12929767077087211884</stp>
         <tr r="C90" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4175245610</v>
+        <v>#N/A Requesting Data...2946302355</v>
         <stp/>
         <stp>BDP|12746681013678887006</stp>
         <tr r="C83" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...868216309</v>
+        <v>#N/A Requesting Data...3750072427</v>
         <stp/>
         <stp>BDP|12638693508540193928</stp>
         <tr r="O83" s="2"/>
@@ -1593,19 +1597,19 @@
         <tr r="P133" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...478910447</v>
+        <v>#N/A Requesting Data...3538349847</v>
         <stp/>
         <stp>BDP|17119275309777085060</stp>
         <tr r="D97" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3460763358</v>
+        <v>#N/A Requesting Data...3003669118</v>
         <stp/>
         <stp>BDP|16334400116593439221</stp>
         <tr r="D103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...694498985</v>
+        <v>#N/A Requesting Data...3222245042</v>
         <stp/>
         <stp>BDP|17261400698320790895</stp>
         <tr r="O123" s="2"/>
@@ -1619,7 +1623,7 @@
         <tr r="P100" s="2"/>
       </tp>
       <tp t="s">
-        <v>29.08.2025</v>
+        <v>05.09.2025</v>
         <stp/>
         <stp>BDP|4742737479639692576|22</stp>
         <stp>EEX3BDDE Index</stp>
@@ -1635,49 +1639,49 @@
         <tr r="P128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1700509852</v>
+        <v>#N/A Requesting Data...3656279741</v>
         <stp/>
         <stp>BDP|10231084159133314599</stp>
         <tr r="O63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1650628679</v>
+        <v>#N/A Requesting Data...3595582063</v>
         <stp/>
         <stp>BDP|10762113169831043550</stp>
         <tr r="C59" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2761107587</v>
+        <v>#N/A Requesting Data...3710226606</v>
         <stp/>
         <stp>BDP|16233839828067587813</stp>
         <tr r="O69" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...471397057</v>
+        <v>#N/A Requesting Data...4140414659</v>
         <stp/>
         <stp>BDP|18112152192717370493</stp>
         <tr r="D57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3261907817</v>
+        <v>#N/A Requesting Data...2427535219</v>
         <stp/>
         <stp>BDP|12631048552532555647</stp>
         <tr r="C45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4120198930</v>
+        <v>#N/A Requesting Data...3555150077</v>
         <stp/>
         <stp>BDP|16257536659004183193</stp>
         <tr r="D61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2211981438</v>
+        <v>#N/A Requesting Data...4280012389</v>
         <stp/>
         <stp>BDP|11773772447184358568</stp>
         <tr r="D67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1064173737</v>
+        <v>#N/A Requesting Data...3206967339</v>
         <stp/>
         <stp>BDP|11036023536593262247</stp>
         <tr r="D80" s="2"/>
@@ -1699,7 +1703,7 @@
         <tr r="I69" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1307544468</v>
+        <v>#N/A Requesting Data...3409038685</v>
         <stp/>
         <stp>BDP|10371740171936643690</stp>
         <tr r="C121" s="2"/>
@@ -1729,49 +1733,49 @@
         <tr r="P109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...603852976</v>
+        <v>#N/A Requesting Data...2848256174</v>
         <stp/>
         <stp>BDP|10450986407190051879</stp>
         <tr r="O113" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1079972701</v>
+        <v>#N/A Requesting Data...4011555900</v>
         <stp/>
         <stp>BDP|17345118041494135735</stp>
         <tr r="O39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1196633533</v>
+        <v>#N/A Requesting Data...3810880581</v>
         <stp/>
         <stp>BDP|12312559960178218854</stp>
         <tr r="O60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1049517688</v>
+        <v>#N/A Requesting Data...3049031587</v>
         <stp/>
         <stp>BDP|18235654050928285246</stp>
         <tr r="D118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...471439640</v>
+        <v>#N/A Requesting Data...3187605494</v>
         <stp/>
         <stp>BDP|11908180946526696355</stp>
         <tr r="O77" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2620354835</v>
+        <v>#N/A Requesting Data...3261991071</v>
         <stp/>
         <stp>BDP|16041498039241224153</stp>
         <tr r="D50" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2857853502</v>
+        <v>#N/A Requesting Data...3297073320</v>
         <stp/>
         <stp>BDP|15600557786638647149</stp>
         <tr r="O135" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1837822420</v>
+        <v>#N/A Requesting Data...4065582076</v>
         <stp/>
         <stp>BDP|17201301560995300668</stp>
         <tr r="C128" s="2"/>
@@ -1801,61 +1805,61 @@
         <tr r="I118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2101624386</v>
+        <v>#N/A Requesting Data...2799071673</v>
         <stp/>
         <stp>BDP|11964424655954108243</stp>
         <tr r="O152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3173903063</v>
+        <v>#N/A Requesting Data...4110705262</v>
         <stp/>
         <stp>BDP|15039250998841436929</stp>
         <tr r="C70" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2214083738</v>
+        <v>#N/A Requesting Data...3567892437</v>
         <stp/>
         <stp>BDP|12983476071071398635</stp>
         <tr r="D121" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1085362125</v>
+        <v>#N/A Requesting Data...3866378674</v>
         <stp/>
         <stp>BDP|13022728685482255840</stp>
         <tr r="D151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2947624395</v>
+        <v>#N/A Requesting Data...3708717750</v>
         <stp/>
         <stp>BDP|14787445835483775602</stp>
         <tr r="C49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1167837099</v>
+        <v>#N/A Requesting Data...3015514052</v>
         <stp/>
         <stp>BDP|13835889490117150311</stp>
         <tr r="C41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3905026370</v>
+        <v>#N/A Requesting Data...3375485063</v>
         <stp/>
         <stp>BDP|11777284828983264462</stp>
         <tr r="C152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4016581608</v>
+        <v>#N/A Requesting Data...3669244062</v>
         <stp/>
         <stp>BDP|16175526658473866307</stp>
         <tr r="O101" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2119254158</v>
+        <v>#N/A Requesting Data...3029214441</v>
         <stp/>
         <stp>BDP|17426017852985395138</stp>
         <tr r="D125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2677255154</v>
+        <v>#N/A Requesting Data...3766801939</v>
         <stp/>
         <stp>BDP|11679146174687658674</stp>
         <tr r="O61" s="2"/>
@@ -1877,49 +1881,49 @@
         <tr r="I73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3358321687</v>
+        <v>#N/A Requesting Data...3040314226</v>
         <stp/>
         <stp>BDP|11739412558546315165</stp>
         <tr r="O107" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2643484891</v>
+        <v>#N/A Requesting Data...3558702108</v>
         <stp/>
         <stp>BDP|17821757611616847099</stp>
         <tr r="D73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1626689338</v>
+        <v>#N/A Requesting Data...2976283069</v>
         <stp/>
         <stp>BDP|12363162891205314891</stp>
         <tr r="C132" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1543122766</v>
+        <v>#N/A Requesting Data...2866850187</v>
         <stp/>
         <stp>BDP|16498489714365827135</stp>
         <tr r="O38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1701137017</v>
+        <v>#N/A Requesting Data...3726111015</v>
         <stp/>
         <stp>BDP|17756265275154491129</stp>
         <tr r="D152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2848979254</v>
+        <v>#N/A Requesting Data...3955653838</v>
         <stp/>
         <stp>BDP|11973396237516626030</stp>
         <tr r="D122" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1443475757</v>
+        <v>#N/A Requesting Data...3154516701</v>
         <stp/>
         <stp>BDP|13226662244594317259</stp>
         <tr r="O141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3191832762</v>
+        <v>#N/A Requesting Data...2971653516</v>
         <stp/>
         <stp>BDP|17779836694136602703</stp>
         <tr r="D69" s="2"/>
@@ -1941,37 +1945,37 @@
         <tr r="H35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1171746447</v>
+        <v>#N/A Requesting Data...3921764219</v>
         <stp/>
         <stp>BDP|17702743798129095414</stp>
         <tr r="C109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3306395084</v>
+        <v>#N/A Requesting Data...3122026265</v>
         <stp/>
         <stp>BDP|14502996891943856393</stp>
         <tr r="D107" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...652957546</v>
+        <v>#N/A Requesting Data...3340040318</v>
         <stp/>
         <stp>BDP|14009510159603117373</stp>
         <tr r="C151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4262266132</v>
+        <v>#N/A Requesting Data...3775661625</v>
         <stp/>
         <stp>BDP|17433439855215748722</stp>
         <tr r="D63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3578518427</v>
+        <v>#N/A Requesting Data...3880576842</v>
         <stp/>
         <stp>BDP|15963953319790315909</stp>
         <tr r="O132" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1260431136</v>
+        <v>#N/A Requesting Data...3087713912</v>
         <stp/>
         <stp>BDP|10568242787378537653</stp>
         <tr r="O37" s="2"/>
@@ -1985,37 +1989,37 @@
         <tr r="I79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2959851987</v>
+        <v>#N/A Requesting Data...3151701354</v>
         <stp/>
         <stp>BDP|13291842058863532828</stp>
         <tr r="O70" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...504873358</v>
+        <v>#N/A Requesting Data...4172034269</v>
         <stp/>
         <stp>BDP|12418513149975378324</stp>
         <tr r="C97" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2556372507</v>
+        <v>#N/A Requesting Data...3274033329</v>
         <stp/>
         <stp>BDP|14876410132956204074</stp>
         <tr r="D89" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4180358670</v>
+        <v>#N/A Requesting Data...2803048854</v>
         <stp/>
         <stp>BDP|12662972772298021130</stp>
         <tr r="O41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3630380519</v>
+        <v>#N/A Requesting Data...3021312028</v>
         <stp/>
         <stp>BDP|15876548244805841436</stp>
         <tr r="O151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4106067445</v>
+        <v>#N/A Requesting Data...3435174195</v>
         <stp/>
         <stp>BDP|12436206503061465444</stp>
         <tr r="O89" s="2"/>
@@ -2031,7 +2035,7 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Real Time</v>
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BDP|677811009837369073|22</stp>
         <stp>RGGIAAQS Index</stp>
@@ -2039,7 +2043,7 @@
         <tr r="I145" s="2"/>
       </tp>
       <tp t="s">
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
         <stp/>
         <stp>BDP|14673752842554335912|22</stp>
         <stp>UKASBBID Index</stp>
@@ -2095,7 +2099,7 @@
         <tr r="H81" s="2"/>
       </tp>
       <tp>
-        <v>64</v>
+        <v>68</v>
         <stp/>
         <stp>BDP|8894173801250207596|22</stp>
         <stp>EEX3PMEU Index</stp>
@@ -2135,7 +2139,7 @@
         <tr r="P121" s="2"/>
       </tp>
       <tp t="s">
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
         <stp/>
         <stp>BDP|1983300863809941800|22</stp>
         <stp>UKABIDS Index</stp>
@@ -2151,7 +2155,7 @@
         <tr r="H132" s="2"/>
       </tp>
       <tp t="s">
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
         <stp/>
         <stp>BDP|558483427366924145|22</stp>
         <stp>EEX3MNPL Index</stp>
@@ -2159,7 +2163,7 @@
         <tr r="P90" s="2"/>
       </tp>
       <tp t="s">
-        <v>29.08.2025</v>
+        <v>05.09.2025</v>
         <stp/>
         <stp>BDP|14840393295774202550|22</stp>
         <stp>EEX3PMDE Index</stp>
@@ -2276,8 +2280,8 @@
         <stp>BDP|13384680936024714500|22</stp>
         <stp>ACCUABAP Index</stp>
         <stp>TIME</stp>
+        <tr r="P28" s="2"/>
         <tr r="P149" s="2"/>
-        <tr r="P28" s="2"/>
       </tp>
       <tp t="s">
         <v>11:00:00</v>
@@ -2320,7 +2324,7 @@
         <tr r="P152" s="2"/>
       </tp>
       <tp t="s">
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
         <stp/>
         <stp>BDP|15098924859057617101|22</stp>
         <stp>EEX3BDPL Index</stp>
@@ -2336,7 +2340,7 @@
         <tr r="P79" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:32</v>
+        <v>11:00:34</v>
         <stp/>
         <stp>BDP|15913837711201520928|22</stp>
         <stp>EEX3EPPM Index</stp>
@@ -2360,7 +2364,7 @@
         <tr r="P132" s="2"/>
       </tp>
       <tp t="s">
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
         <stp/>
         <stp>BDP|10360780237680756815|22</stp>
         <stp>EEX3MDPL Index</stp>
@@ -2424,7 +2428,7 @@
         <tr r="H110" s="2"/>
       </tp>
       <tp t="s">
-        <v>29.08.2025</v>
+        <v>05.09.2025</v>
         <stp/>
         <stp>BDP|12484327023668429337|22</stp>
         <stp>EEX3MNDE Index</stp>
@@ -2448,7 +2452,7 @@
         <tr r="H50" s="2"/>
       </tp>
       <tp>
-        <v>64</v>
+        <v>68</v>
         <stp/>
         <stp>BDP|4673945679228878777|22</stp>
         <stp>EEX3EPPM Index</stp>
@@ -2464,7 +2468,7 @@
         <tr r="P103" s="2"/>
       </tp>
       <tp t="s">
-        <v>29.08.2025</v>
+        <v>05.09.2025</v>
         <stp/>
         <stp>BDP|10597827675332248545|22</stp>
         <stp>EEX3MDDE Index</stp>
@@ -2472,49 +2476,49 @@
         <tr r="P61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...961189930</v>
+        <v>#N/A Requesting Data...3355053286</v>
         <stp/>
         <stp>BDP|4124903069222755554</stp>
         <tr r="O87" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2830793185</v>
+        <v>#N/A Requesting Data...3514438771</v>
         <stp/>
         <stp>BDP|8892146774205393713</stp>
         <tr r="D129" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4092154008</v>
+        <v>#N/A Requesting Data...2989595048</v>
         <stp/>
         <stp>BDP|2477959445181429293</stp>
         <tr r="O129" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1420091099</v>
+        <v>#N/A Requesting Data...4041781125</v>
         <stp/>
         <stp>BDP|9350291445254965784</stp>
         <tr r="D37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2436070617</v>
+        <v>#N/A Requesting Data...4292275806</v>
         <stp/>
         <stp>BDP|6891918115273664161</stp>
         <tr r="D139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3559965846</v>
+        <v>#N/A Requesting Data...2689734089</v>
         <stp/>
         <stp>BDP|3573415783287593449</stp>
         <tr r="C48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4096416158</v>
+        <v>#N/A Requesting Data...2954003455</v>
         <stp/>
         <stp>BDP|8619946037809089717</stp>
         <tr r="O73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4046934780</v>
+        <v>#N/A Requesting Data...2801376890</v>
         <stp/>
         <stp>BDP|8134701725687838685</stp>
         <tr r="D101" s="2"/>
@@ -2528,13 +2532,13 @@
         <tr r="H141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3677400983</v>
+        <v>#N/A Requesting Data...3439512723</v>
         <stp/>
         <stp>BDP|2337395976008307323</stp>
         <tr r="D133" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3105403371</v>
+        <v>#N/A Requesting Data...4149737066</v>
         <stp/>
         <stp>BDP|7346443724919908584</stp>
         <tr r="C143" s="2"/>
@@ -2548,55 +2552,55 @@
         <tr r="H47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3781980446</v>
+        <v>#N/A Requesting Data...3555388658</v>
         <stp/>
         <stp>BDP|2452480886172944101</stp>
         <tr r="D83" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3038613679</v>
+        <v>#N/A Requesting Data...3977867653</v>
         <stp/>
         <stp>BDP|3988758046487897994</stp>
         <tr r="O100" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3004794482</v>
+        <v>#N/A Requesting Data...2591800360</v>
         <stp/>
         <stp>BDP|8487968754382467898</stp>
         <tr r="O111" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...889200744</v>
+        <v>#N/A Requesting Data...3027489072</v>
         <stp/>
         <stp>BDP|3168197062443776948</stp>
         <tr r="O97" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1660020218</v>
+        <v>#N/A Requesting Data...3684597067</v>
         <stp/>
         <stp>BDP|3191294011039253743</stp>
         <tr r="C100" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2981780643</v>
+        <v>#N/A Requesting Data...3849436575</v>
         <stp/>
         <stp>BDP|8158190943367710418</stp>
         <tr r="D141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...770758056</v>
+        <v>#N/A Requesting Data...3201610832</v>
         <stp/>
         <stp>BDP|9753944506837726937</stp>
         <tr r="O139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4173061278</v>
+        <v>#N/A Requesting Data...3709456892</v>
         <stp/>
         <stp>BDP|2383970352993755307</stp>
         <tr r="D111" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1515005215</v>
+        <v>#N/A Requesting Data...4173101373</v>
         <stp/>
         <stp>BDP|8422754563225257254</stp>
         <tr r="D119" s="2"/>
@@ -2610,67 +2614,67 @@
         <tr r="I103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2123539436</v>
+        <v>#N/A Requesting Data...4067162888</v>
         <stp/>
         <stp>BDP|1905452132299753056</stp>
         <tr r="C39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3128061408</v>
+        <v>#N/A Requesting Data...3908531200</v>
         <stp/>
         <stp>BDP|9168179234227771399</stp>
         <tr r="O128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2597607997</v>
+        <v>#N/A Requesting Data...3740079716</v>
         <stp/>
         <stp>BDP|2740714101503839931</stp>
         <tr r="C141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2384642291</v>
+        <v>#N/A Requesting Data...3378885159</v>
         <stp/>
         <stp>BDP|7992263003279543384</stp>
         <tr r="D142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...630257197</v>
+        <v>#N/A Requesting Data...4060504464</v>
         <stp/>
         <stp>BDP|5477825144986453010</stp>
         <tr r="O59" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1903357743</v>
+        <v>#N/A Requesting Data...2661298930</v>
         <stp/>
         <stp>BDP|8165965388487479679</stp>
         <tr r="O81" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...780163365</v>
+        <v>#N/A Requesting Data...4000342018</v>
         <stp/>
         <stp>BDP|5675445137023195982</stp>
         <tr r="O143" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2651115773</v>
+        <v>#N/A Requesting Data...3547873559</v>
         <stp/>
         <stp>BDP|4173264548992531864</stp>
         <tr r="O109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1754892212</v>
+        <v>#N/A Requesting Data...4080102033</v>
         <stp/>
         <stp>BDP|6322017615579378624</stp>
         <tr r="O90" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1724489614</v>
+        <v>#N/A Requesting Data...4014114839</v>
         <stp/>
         <stp>BDP|7700706960287514955</stp>
         <tr r="O99" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3025297419</v>
+        <v>#N/A Requesting Data...3025488650</v>
         <stp/>
         <stp>BDP|2684958064503521663</stp>
         <tr r="C87" s="2"/>
@@ -2684,7 +2688,7 @@
         <tr r="I143" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2070620030</v>
+        <v>#N/A Requesting Data...3417020872</v>
         <stp/>
         <stp>BDP|2825895505117461495</stp>
         <tr r="O57" s="2"/>
@@ -2698,13 +2702,13 @@
         <tr r="I141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3030554880</v>
+        <v>#N/A Requesting Data...4264084157</v>
         <stp/>
         <stp>BDP|5555436835568594389</stp>
         <tr r="D145" s="2"/>
       </tp>
       <tp>
-        <v>80</v>
+        <v>120</v>
         <stp/>
         <stp>BDP|328381708441600475|22</stp>
         <stp>EEX3PMDE Index</stp>
@@ -2712,73 +2716,73 @@
         <tr r="I57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1741741936</v>
+        <v>#N/A Requesting Data...4206267014</v>
         <stp/>
         <stp>BDP|4279202299077950281</stp>
         <tr r="D41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2593765940</v>
+        <v>#N/A Requesting Data...2932312306</v>
         <stp/>
         <stp>BDP|6929810016462650737</stp>
         <tr r="D87" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3751561333</v>
+        <v>#N/A Requesting Data...3874833463</v>
         <stp/>
         <stp>BDP|1294936769142798640</stp>
         <tr r="C37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1760122265</v>
+        <v>#N/A Requesting Data...2640453350</v>
         <stp/>
         <stp>BDP|8268735055277832754</stp>
         <tr r="D100" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1338630644</v>
+        <v>#N/A Requesting Data...2600774164</v>
         <stp/>
         <stp>BDP|7997415316799901193</stp>
         <tr r="O53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2024293316</v>
+        <v>#N/A Requesting Data...4284854612</v>
         <stp/>
         <stp>BDP|6278897671657613432</stp>
         <tr r="O145" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1880982897</v>
+        <v>#N/A Requesting Data...2834725402</v>
         <stp/>
         <stp>BDP|8917206333941126276</stp>
         <tr r="O79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3766734351</v>
+        <v>#N/A Requesting Data...3897705898</v>
         <stp/>
         <stp>BDP|9488941276259397490</stp>
         <tr r="O67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1075630344</v>
+        <v>#N/A Requesting Data...3034077807</v>
         <stp/>
         <stp>BDP|5600386799382259784</stp>
         <tr r="C113" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...720912314</v>
+        <v>#N/A Requesting Data...2725841325</v>
         <stp/>
         <stp>BDP|9996435367631888077</stp>
         <tr r="C71" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1292773249</v>
+        <v>#N/A Requesting Data...3702604967</v>
         <stp/>
         <stp>BDP|3790921814431878090</stp>
         <tr r="D38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3046430396</v>
+        <v>#N/A Requesting Data...3986815825</v>
         <stp/>
         <stp>BDP|5023633295787322705</stp>
         <tr r="C101" s="2"/>
@@ -2801,37 +2805,37 @@
         <tr r="H151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2541017322</v>
+        <v>#N/A Requesting Data...4005354041</v>
         <stp/>
         <stp>BDP|2742897454442023636</stp>
         <tr r="D93" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1540514189</v>
+        <v>#N/A Requesting Data...3404185245</v>
         <stp/>
         <stp>BDP|1308380368217282806</stp>
         <tr r="C89" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4145025843</v>
+        <v>#N/A Requesting Data...3467202379</v>
         <stp/>
         <stp>BDP|2125519877263797874</stp>
         <tr r="D49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1199127923</v>
+        <v>#N/A Requesting Data...3617669863</v>
         <stp/>
         <stp>BDP|8187334089870399738</stp>
         <tr r="C142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1440353758</v>
+        <v>#N/A Requesting Data...3807226452</v>
         <stp/>
         <stp>BDP|8447705041427452887</stp>
         <tr r="O110" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1484393845</v>
+        <v>#N/A Requesting Data...4136202339</v>
         <stp/>
         <stp>BDP|9588220581862090554</stp>
         <tr r="D81" s="2"/>
@@ -2845,122 +2849,122 @@
         <tr r="H123" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3842863921</v>
+        <v>#N/A Requesting Data...3204592648</v>
         <stp/>
         <stp>BDP|6336981452218022714</stp>
         <tr r="D149" s="2"/>
         <tr r="D28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3062714944</v>
+        <v>#N/A Requesting Data...4097339109</v>
         <stp/>
         <stp>BDP|5144982884240236131</stp>
         <tr r="O119" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4276137287</v>
+        <v>#N/A Requesting Data...3233638642</v>
         <stp/>
         <stp>BDP|4912389578430923538</stp>
         <tr r="C125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2347478691</v>
+        <v>#N/A Requesting Data...3540704211</v>
         <stp/>
         <stp>BDP|4899183487030457834</stp>
         <tr r="D47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1650866535</v>
+        <v>#N/A Requesting Data...3972335805</v>
         <stp/>
         <stp>BDP|7406447711566288126</stp>
         <tr r="O91" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3836089196</v>
+        <v>#N/A Requesting Data...3378496413</v>
         <stp/>
         <stp>BDP|2318106224533271732</stp>
         <tr r="D123" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1973466894</v>
+        <v>#N/A Requesting Data...2996942444</v>
         <stp/>
         <stp>BDP|5397604398148966497</stp>
         <tr r="C118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2111870186</v>
+        <v>#N/A Requesting Data...2685948131</v>
         <stp/>
         <stp>BDP|5247213518087466774</stp>
         <tr r="D79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3895303711</v>
+        <v>#N/A Requesting Data...3545188553</v>
         <stp/>
         <stp>BDP|2268502188811293879</stp>
         <tr r="O45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1680162706</v>
+        <v>#N/A Requesting Data...3712260823</v>
         <stp/>
         <stp>BDP|2615106264042847162</stp>
         <tr r="C35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3671360790</v>
+        <v>#N/A Requesting Data...3154800385</v>
         <stp/>
         <stp>BDP|7242668637610389424</stp>
         <tr r="C38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3604749417</v>
+        <v>#N/A Requesting Data...2733665653</v>
         <stp/>
         <stp>BDP|3708410904060798168</stp>
         <tr r="D110" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2092639313</v>
+        <v>#N/A Requesting Data...3626484470</v>
         <stp/>
         <stp>BDP|5117711638166954114</stp>
         <tr r="O131" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2642314258</v>
+        <v>#N/A Requesting Data...4243454688</v>
         <stp/>
         <stp>BDP|3978038447362277279</stp>
         <tr r="O50" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2504881514</v>
+        <v>#N/A Requesting Data...4043975093</v>
         <stp/>
         <stp>BDP|4136828621258877131</stp>
         <tr r="C122" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2803971201</v>
+        <v>#N/A Requesting Data...3080849781</v>
         <stp/>
         <stp>BDP|2277297320794027172</stp>
         <tr r="O93" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3168409752</v>
+        <v>#N/A Requesting Data...4267652609</v>
         <stp/>
         <stp>BDP|8961196036758342506</stp>
         <tr r="D113" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2437484404</v>
+        <v>#N/A Requesting Data...3238207015</v>
         <stp/>
         <stp>BDP|1170165359530510519</stp>
         <tr r="C53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1306253138</v>
+        <v>#N/A Requesting Data...3027240554</v>
         <stp/>
         <stp>BDP|3942355915051567002</stp>
         <tr r="C133" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3045320032</v>
+        <v>#N/A Requesting Data...3443694904</v>
         <stp/>
         <stp>BDP|3535326747745052123</stp>
         <tr r="D53" s="2"/>
@@ -2982,68 +2986,68 @@
         <tr r="H48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3100514454</v>
+        <v>#N/A Requesting Data...2845089831</v>
         <stp/>
         <stp>BDP|9540225089557104556</stp>
         <tr r="O118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2711076765</v>
+        <v>#N/A Requesting Data...2950042427</v>
         <stp/>
         <stp>BDP|5062514338582227013</stp>
         <tr r="D128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3301257621</v>
+        <v>#N/A Requesting Data...3209131579</v>
         <stp/>
         <stp>BDP|2343600014653733789</stp>
         <tr r="O103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2767610594</v>
+        <v>#N/A Requesting Data...3173845947</v>
         <stp/>
         <stp>BDP|3242086975802090723</stp>
         <tr r="D90" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1207243106</v>
+        <v>#N/A Requesting Data...2768187142</v>
         <stp/>
         <stp>BDP|8360886275346359094</stp>
         <tr r="C103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1791019712</v>
+        <v>#N/A Requesting Data...2707859141</v>
         <stp/>
         <stp>BDP|6855110725440116773</stp>
         <tr r="C61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2324761117</v>
+        <v>#N/A Requesting Data...3486981765</v>
         <stp/>
         <stp>BDP|8675841477756696315</stp>
         <tr r="C139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1905174964</v>
+        <v>#N/A Requesting Data...3788455021</v>
         <stp/>
         <stp>BDP|4759583229459353843</stp>
         <tr r="O47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3962987167</v>
+        <v>#N/A Requesting Data...3966089322</v>
         <stp/>
         <stp>BDP|9839782485004760030</stp>
         <tr r="C149" s="2"/>
         <tr r="C28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2218783759</v>
+        <v>#N/A Requesting Data...3562887591</v>
         <stp/>
         <stp>BDP|3917864525078759387</stp>
         <tr r="C47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...939049199</v>
+        <v>#N/A Requesting Data...3479945100</v>
         <stp/>
         <stp>BDP|1874573773983759306</stp>
         <tr r="C60" s="2"/>
@@ -3057,25 +3061,25 @@
         <tr r="H53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4253445303</v>
+        <v>#N/A Requesting Data...3247486241</v>
         <stp/>
         <stp>BDP|4991441920223468278</stp>
         <tr r="C110" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1924948218</v>
+        <v>#N/A Requesting Data...2973918855</v>
         <stp/>
         <stp>BDP|4634330117701477447</stp>
         <tr r="D48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2266782625</v>
+        <v>#N/A Requesting Data...3051520837</v>
         <stp/>
         <stp>BDP|3206597226223845400</stp>
         <tr r="D35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4006369891</v>
+        <v>#N/A Requesting Data...3985688352</v>
         <stp/>
         <stp>BDP|7344440665766321042</stp>
         <tr r="D45" s="2"/>
@@ -3105,7 +3109,7 @@
         <tr r="I119" s="2"/>
       </tp>
       <tp>
-        <v>64</v>
+        <v>68</v>
         <stp/>
         <stp>BDP|5258715941910323221|22</stp>
         <stp>EEXXT3PA Index</stp>
@@ -3113,13 +3117,13 @@
         <tr r="H45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...874446314</v>
+        <v>#N/A Requesting Data...2697543767</v>
         <stp/>
         <stp>BDP|92010296815936747</stp>
         <tr r="D132" s="2"/>
       </tp>
       <tp>
-        <v>85</v>
+        <v>80</v>
         <stp/>
         <stp>BDP|1716388539457443821|22</stp>
         <stp>EEXXT3PA Index</stp>
@@ -3199,7 +3203,7 @@
         <tr r="H129" s="2"/>
       </tp>
       <tp t="s">
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
         <stp/>
         <stp>BDP|3638041331352720978|22</stp>
         <stp>EEX33XPL Index</stp>
@@ -3207,7 +3211,7 @@
         <tr r="P89" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...722653750</v>
+        <v>#N/A Requesting Data...2918368134</v>
         <stp/>
         <stp>BDP|141486019989176878</stp>
         <tr r="C77" s="2"/>
@@ -3229,13 +3233,13 @@
         <tr r="I142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...725845606</v>
+        <v>#N/A Requesting Data...3682123804</v>
         <stp/>
         <stp>BDP|498236031780937674</stp>
         <tr r="O71" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3940544965</v>
+        <v>#N/A Requesting Data...2872576755</v>
         <stp/>
         <stp>BDP|626474072446054250</stp>
         <tr r="O48" s="2"/>
@@ -3249,7 +3253,7 @@
         <tr r="I128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1819657025</v>
+        <v>#N/A Requesting Data...3788168275</v>
         <stp/>
         <stp>BDP|949597951093820562</stp>
         <tr r="C69" s="2"/>
@@ -3271,7 +3275,7 @@
         <tr r="I139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2905691962</v>
+        <v>#N/A Requesting Data...3941630953</v>
         <stp/>
         <stp>BDP|527374345414391240</stp>
         <tr r="C99" s="2"/>
@@ -3285,13 +3289,13 @@
         <tr r="I38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3521986730</v>
+        <v>#N/A Requesting Data...4067730845</v>
         <stp/>
         <stp>BDP|445371574551055651</stp>
         <tr r="C111" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Real Time</v>
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BDP|17587492918187176311|22</stp>
         <stp>RGGIAAQS Index</stp>
@@ -3315,7 +3319,7 @@
         <tr r="H125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3784117788</v>
+        <v>#N/A Requesting Data...3124867555</v>
         <stp/>
         <stp>BDP|411030222906237860</stp>
         <tr r="O133" s="2"/>
@@ -3385,7 +3389,7 @@
         <tr r="H39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2206784597</v>
+        <v>#N/A Requesting Data...3226658399</v>
         <stp/>
         <stp>BDP|112394073414420858</stp>
         <tr r="C123" s="2"/>
@@ -3399,7 +3403,7 @@
         <tr r="I152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3546987157</v>
+        <v>#N/A Requesting Data...3383355480</v>
         <stp/>
         <stp>BDP|280997264327962398</stp>
         <tr r="O149" s="2"/>
@@ -3471,7 +3475,7 @@
         <tr r="H49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2539283502</v>
+        <v>#N/A Requesting Data...3175611080</v>
         <stp/>
         <stp>BDP|599652034392309</stp>
         <tr r="D143" s="2"/>
@@ -3779,7 +3783,7 @@
   <dimension ref="A1:P152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:P24"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4506,7 +4510,7 @@
       </c>
       <c r="C35">
         <f>_xll.BDP("UKAAUPR Index","PX_LAST")</f>
-        <v>49.95</v>
+        <v>53.55</v>
       </c>
       <c r="D35">
         <f>_xll.BDP("UKAAUPR Index","PX_VOLUME")</f>
@@ -4525,11 +4529,11 @@
       </c>
       <c r="O35" t="str">
         <f>_xll.BDP("UKAAUPR Index","LAST_UPDATE_DT")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
       <c r="P35" t="str">
         <f>_xll.BDP("UKAAUPR Index","TIME")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -4549,7 +4553,7 @@
       </c>
       <c r="C37">
         <f>_xll.BDP("UKACORAT Index","PX_LAST")</f>
-        <v>1.5320527138708999</v>
+        <v>1.68215322760777</v>
       </c>
       <c r="D37" t="str">
         <f>_xll.BDP("UKACORAT Index","PX_VOLUME")</f>
@@ -4568,11 +4572,11 @@
       </c>
       <c r="O37" t="str">
         <f>_xll.BDP("UKACORAT Index","LAST_UPDATE_DT")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
       <c r="P37" t="str">
         <f>_xll.BDP("UKACORAT Index","TIME")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -4584,7 +4588,7 @@
       </c>
       <c r="C38">
         <f>_xll.BDP("UKASBBID Index","PX_LAST")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38">
         <f>_xll.BDP("UKASBBID Index","PX_VOLUME")</f>
@@ -4603,11 +4607,11 @@
       </c>
       <c r="O38" t="str">
         <f>_xll.BDP("UKASBBID Index","LAST_UPDATE_DT")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
       <c r="P38" t="str">
         <f>_xll.BDP("UKASBBID Index","TIME")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -4619,7 +4623,7 @@
       </c>
       <c r="C39">
         <f>_xll.BDP("UKATOBID Index","PX_LAST")</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39">
         <f>_xll.BDP("UKATOBID Index","PX_VOLUME")</f>
@@ -4638,11 +4642,11 @@
       </c>
       <c r="O39" t="str">
         <f>_xll.BDP("UKATOBID Index","LAST_UPDATE_DT")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
       <c r="P39" t="str">
         <f>_xll.BDP("UKATOBID Index","TIME")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -4662,7 +4666,7 @@
       </c>
       <c r="C41">
         <f>_xll.BDP("UKABIDS Index","PX_LAST")</f>
-        <v>3429500</v>
+        <v>3765500</v>
       </c>
       <c r="D41">
         <f>_xll.BDP("UKABIDS Index","PX_VOLUME")</f>
@@ -4681,11 +4685,11 @@
       </c>
       <c r="O41" t="str">
         <f>_xll.BDP("UKABIDS Index","LAST_UPDATE_DT")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
       <c r="P41" t="str">
         <f>_xll.BDP("UKABIDS Index","TIME")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -4734,7 +4738,7 @@
       </c>
       <c r="C45">
         <f>_xll.BDP("EEXXT3PA Index","PX_LAST")</f>
-        <v>73.14</v>
+        <v>75.209999999999994</v>
       </c>
       <c r="D45">
         <f>_xll.BDP("EEXXT3PA Index","PX_VOLUME")</f>
@@ -4742,18 +4746,18 @@
       </c>
       <c r="H45">
         <f>_xll.BDP("EEXXT3PA Index","BID")</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I45">
         <f>_xll.BDP("EEXXT3PA Index","ASK")</f>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N45" t="s">
         <v>58</v>
       </c>
       <c r="O45" t="str">
         <f>_xll.BDP("EEXXT3PA Index","LAST_UPDATE_DT")</f>
-        <v>01.09.2025</v>
+        <v>08.09.2025</v>
       </c>
       <c r="P45" t="str">
         <f>_xll.BDP("EEXXT3PA Index","TIME")</f>
@@ -4777,7 +4781,7 @@
       </c>
       <c r="C47">
         <f>_xll.BDP("EEX3CRT3 Index","PX_LAST")</f>
-        <v>1.34</v>
+        <v>1.69</v>
       </c>
       <c r="D47">
         <f>_xll.BDP("EEX3CRT3 Index","PX_VOLUME")</f>
@@ -4796,7 +4800,7 @@
       </c>
       <c r="O47" t="str">
         <f>_xll.BDP("EEX3CRT3 Index","LAST_UPDATE_DT")</f>
-        <v>01.09.2025</v>
+        <v>08.09.2025</v>
       </c>
       <c r="P47" t="str">
         <f>_xll.BDP("EEX3CRT3 Index","TIME")</f>
@@ -4812,7 +4816,7 @@
       </c>
       <c r="C48">
         <f>_xll.BDP("EEX3MNT3 Index","PX_LAST")</f>
-        <v>73.239999999999995</v>
+        <v>75</v>
       </c>
       <c r="D48">
         <f>_xll.BDP("EEX3MNT3 Index","PX_VOLUME")</f>
@@ -4831,7 +4835,7 @@
       </c>
       <c r="O48" t="str">
         <f>_xll.BDP("EEX3MNT3 Index","LAST_UPDATE_DT")</f>
-        <v>01.09.2025</v>
+        <v>08.09.2025</v>
       </c>
       <c r="P48" t="str">
         <f>_xll.BDP("EEX3MNT3 Index","TIME")</f>
@@ -4847,7 +4851,7 @@
       </c>
       <c r="C49">
         <f>_xll.BDP("EEX3MDT3 Index","PX_LAST")</f>
-        <v>73.010000000000005</v>
+        <v>74.959999999999994</v>
       </c>
       <c r="D49">
         <f>_xll.BDP("EEX3MDT3 Index","PX_VOLUME")</f>
@@ -4866,7 +4870,7 @@
       </c>
       <c r="O49" t="str">
         <f>_xll.BDP("EEX3MDT3 Index","LAST_UPDATE_DT")</f>
-        <v>01.09.2025</v>
+        <v>08.09.2025</v>
       </c>
       <c r="P49" t="str">
         <f>_xll.BDP("EEX3MDT3 Index","TIME")</f>
@@ -4882,7 +4886,7 @@
       </c>
       <c r="C50">
         <f>_xll.BDP("EEX3SCCB Index","PX_LAST")</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D50">
         <f>_xll.BDP("EEX3SCCB Index","PX_VOLUME")</f>
@@ -4901,7 +4905,7 @@
       </c>
       <c r="O50" t="str">
         <f>_xll.BDP("EEX3SCCB Index","LAST_UPDATE_DT")</f>
-        <v>01.09.2025</v>
+        <v>08.09.2025</v>
       </c>
       <c r="P50" t="str">
         <f>_xll.BDP("EEX3SCCB Index","TIME")</f>
@@ -4936,7 +4940,7 @@
       </c>
       <c r="O51" t="str">
         <f>_xll.BDP("EEX3TOTB Index","LAST_UPDATE_DT")</f>
-        <v>01.09.2025</v>
+        <v>08.09.2025</v>
       </c>
       <c r="P51" t="str">
         <f>_xll.BDP("EEX3TOTB Index","TIME")</f>
@@ -4963,7 +4967,7 @@
       </c>
       <c r="C53">
         <f>_xll.BDP("EEX3BDT3 Index","PX_LAST")</f>
-        <v>4365500</v>
+        <v>5514500</v>
       </c>
       <c r="D53">
         <f>_xll.BDP("EEX3BDT3 Index","PX_VOLUME")</f>
@@ -4982,7 +4986,7 @@
       </c>
       <c r="O53" t="str">
         <f>_xll.BDP("EEX3BDT3 Index","LAST_UPDATE_DT")</f>
-        <v>01.09.2025</v>
+        <v>08.09.2025</v>
       </c>
       <c r="P53" t="str">
         <f>_xll.BDP("EEX3BDT3 Index","TIME")</f>
@@ -5035,30 +5039,30 @@
       </c>
       <c r="C57">
         <f>_xll.BDP("EEX3PMDE Index","PX_LAST")</f>
-        <v>71.3</v>
+        <v>75.44</v>
       </c>
       <c r="D57">
         <f>_xll.BDP("EEX3PMDE Index","PX_VOLUME")</f>
-        <v>1614500</v>
+        <v>1691000</v>
       </c>
       <c r="H57">
         <f>_xll.BDP("EEX3PMDE Index","BID")</f>
-        <v>65</v>
+        <v>73.2</v>
       </c>
       <c r="I57">
         <f>_xll.BDP("EEX3PMDE Index","ASK")</f>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N57" t="s">
         <v>61</v>
       </c>
       <c r="O57" t="str">
         <f>_xll.BDP("EEX3PMDE Index","LAST_UPDATE_DT")</f>
-        <v>29.08.2025</v>
+        <v>05.09.2025</v>
       </c>
       <c r="P57" t="str">
         <f>_xll.BDP("EEX3PMDE Index","TIME")</f>
-        <v>29.08.2025</v>
+        <v>05.09.2025</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -5078,7 +5082,7 @@
       </c>
       <c r="C59">
         <f>_xll.BDP("EEX3CRDE Index","PX_LAST")</f>
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="D59">
         <f>_xll.BDP("EEX3CRDE Index","PX_VOLUME")</f>
@@ -5097,11 +5101,11 @@
       </c>
       <c r="O59" t="str">
         <f>_xll.BDP("EEX3CRDE Index","LAST_UPDATE_DT")</f>
-        <v>29.08.2025</v>
+        <v>05.09.2025</v>
       </c>
       <c r="P59" t="str">
         <f>_xll.BDP("EEX3CRDE Index","TIME")</f>
-        <v>29.08.2025</v>
+        <v>05.09.2025</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -5113,7 +5117,7 @@
       </c>
       <c r="C60">
         <f>_xll.BDP("EEX3MNDE Index","PX_LAST")</f>
-        <v>71.73</v>
+        <v>75.97</v>
       </c>
       <c r="D60">
         <f>_xll.BDP("EEX3MNDE Index","PX_VOLUME")</f>
@@ -5132,11 +5136,11 @@
       </c>
       <c r="O60" t="str">
         <f>_xll.BDP("EEX3MNDE Index","LAST_UPDATE_DT")</f>
-        <v>29.08.2025</v>
+        <v>05.09.2025</v>
       </c>
       <c r="P60" t="str">
         <f>_xll.BDP("EEX3MNDE Index","TIME")</f>
-        <v>29.08.2025</v>
+        <v>05.09.2025</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -5148,7 +5152,7 @@
       </c>
       <c r="C61">
         <f>_xll.BDP("EEX3MDDE Index","PX_LAST")</f>
-        <v>71.17</v>
+        <v>75.31</v>
       </c>
       <c r="D61">
         <f>_xll.BDP("EEX3MDDE Index","PX_VOLUME")</f>
@@ -5167,11 +5171,11 @@
       </c>
       <c r="O61" t="str">
         <f>_xll.BDP("EEX3MDDE Index","LAST_UPDATE_DT")</f>
-        <v>29.08.2025</v>
+        <v>05.09.2025</v>
       </c>
       <c r="P61" t="str">
         <f>_xll.BDP("EEX3MDDE Index","TIME")</f>
-        <v>29.08.2025</v>
+        <v>05.09.2025</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -5194,7 +5198,7 @@
       </c>
       <c r="C63">
         <f>_xll.BDP("EEX3BDDE Index","PX_LAST")</f>
-        <v>2932500</v>
+        <v>2964000</v>
       </c>
       <c r="D63">
         <f>_xll.BDP("EEX3BDDE Index","PX_VOLUME")</f>
@@ -5213,11 +5217,11 @@
       </c>
       <c r="O63" t="str">
         <f>_xll.BDP("EEX3BDDE Index","LAST_UPDATE_DT")</f>
-        <v>29.08.2025</v>
+        <v>05.09.2025</v>
       </c>
       <c r="P63" t="str">
         <f>_xll.BDP("EEX3BDDE Index","TIME")</f>
-        <v>29.08.2025</v>
+        <v>05.09.2025</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -5266,7 +5270,7 @@
       </c>
       <c r="C67">
         <f>_xll.BDP("EEX3EPPM Index","PX_LAST")</f>
-        <v>73.14</v>
+        <v>75.209999999999994</v>
       </c>
       <c r="D67">
         <f>_xll.BDP("EEX3EPPM Index","PX_VOLUME")</f>
@@ -5274,22 +5278,22 @@
       </c>
       <c r="H67">
         <f>_xll.BDP("EEX3EPPM Index","BID")</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I67">
         <f>_xll.BDP("EEX3EPPM Index","ASK")</f>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N67" t="s">
         <v>63</v>
       </c>
       <c r="O67" t="str">
         <f>_xll.BDP("EEX3EPPM Index","LAST_UPDATE_DT")</f>
-        <v>01.09.2025</v>
+        <v>08.09.2025</v>
       </c>
       <c r="P67" t="str">
         <f>_xll.BDP("EEX3EPPM Index","TIME")</f>
-        <v>11:00:32</v>
+        <v>11:00:34</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -5309,7 +5313,7 @@
       </c>
       <c r="C69">
         <f>_xll.BDP("EEX3EPCR Index","PX_LAST")</f>
-        <v>1.34</v>
+        <v>1.69</v>
       </c>
       <c r="D69">
         <f>_xll.BDP("EEX3EPCR Index","PX_VOLUME")</f>
@@ -5328,7 +5332,7 @@
       </c>
       <c r="O69" t="str">
         <f>_xll.BDP("EEX3EPCR Index","LAST_UPDATE_DT")</f>
-        <v>01.09.2025</v>
+        <v>08.09.2025</v>
       </c>
       <c r="P69" t="str">
         <f>_xll.BDP("EEX3EPCR Index","TIME")</f>
@@ -5344,7 +5348,7 @@
       </c>
       <c r="C70">
         <f>_xll.BDP("EEX3MNEP Index","PX_LAST")</f>
-        <v>73.239999999999995</v>
+        <v>75</v>
       </c>
       <c r="D70">
         <f>_xll.BDP("EEX3MNEP Index","PX_VOLUME")</f>
@@ -5363,7 +5367,7 @@
       </c>
       <c r="O70" t="str">
         <f>_xll.BDP("EEX3MNEP Index","LAST_UPDATE_DT")</f>
-        <v>01.09.2025</v>
+        <v>08.09.2025</v>
       </c>
       <c r="P70" t="str">
         <f>_xll.BDP("EEX3MNEP Index","TIME")</f>
@@ -5379,7 +5383,7 @@
       </c>
       <c r="C71">
         <f>_xll.BDP("EEX3MDEP Index","PX_LAST")</f>
-        <v>73.010000000000005</v>
+        <v>74.959999999999994</v>
       </c>
       <c r="D71">
         <f>_xll.BDP("EEX3MDEP Index","PX_VOLUME")</f>
@@ -5398,7 +5402,7 @@
       </c>
       <c r="O71" t="str">
         <f>_xll.BDP("EEX3MDEP Index","LAST_UPDATE_DT")</f>
-        <v>01.09.2025</v>
+        <v>08.09.2025</v>
       </c>
       <c r="P71" t="str">
         <f>_xll.BDP("EEX3MDEP Index","TIME")</f>
@@ -5425,7 +5429,7 @@
       </c>
       <c r="C73">
         <f>_xll.BDP("EEX3BDEP Index","PX_LAST")</f>
-        <v>4365500</v>
+        <v>5514500</v>
       </c>
       <c r="D73">
         <f>_xll.BDP("EEX3BDEP Index","PX_VOLUME")</f>
@@ -5444,7 +5448,7 @@
       </c>
       <c r="O73" t="str">
         <f>_xll.BDP("EEX3BDEP Index","LAST_UPDATE_DT")</f>
-        <v>01.09.2025</v>
+        <v>08.09.2025</v>
       </c>
       <c r="P73" t="str">
         <f>_xll.BDP("EEX3BDEP Index","TIME")</f>
@@ -5497,7 +5501,7 @@
       </c>
       <c r="C77">
         <f>_xll.BDP("EEX3PMEU Index","PX_LAST")</f>
-        <v>73.14</v>
+        <v>75.209999999999994</v>
       </c>
       <c r="D77">
         <f>_xll.BDP("EEX3PMEU Index","PX_VOLUME")</f>
@@ -5505,18 +5509,18 @@
       </c>
       <c r="H77">
         <f>_xll.BDP("EEX3PMEU Index","BID")</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I77">
         <f>_xll.BDP("EEX3PMEU Index","ASK")</f>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N77" t="s">
         <v>65</v>
       </c>
       <c r="O77" t="str">
         <f>_xll.BDP("EEX3PMEU Index","LAST_UPDATE_DT")</f>
-        <v>01.09.2025</v>
+        <v>08.09.2025</v>
       </c>
       <c r="P77" t="str">
         <f>_xll.BDP("EEX3PMEU Index","TIME")</f>
@@ -5540,7 +5544,7 @@
       </c>
       <c r="C79">
         <f>_xll.BDP("EEX3CREU Index","PX_LAST")</f>
-        <v>1.34</v>
+        <v>1.69</v>
       </c>
       <c r="D79">
         <f>_xll.BDP("EEX3CREU Index","PX_VOLUME")</f>
@@ -5559,7 +5563,7 @@
       </c>
       <c r="O79" t="str">
         <f>_xll.BDP("EEX3CREU Index","LAST_UPDATE_DT")</f>
-        <v>01.09.2025</v>
+        <v>08.09.2025</v>
       </c>
       <c r="P79" t="str">
         <f>_xll.BDP("EEX3CREU Index","TIME")</f>
@@ -5575,7 +5579,7 @@
       </c>
       <c r="C80">
         <f>_xll.BDP("EEX3MNEU Index","PX_LAST")</f>
-        <v>73.239999999999995</v>
+        <v>75</v>
       </c>
       <c r="D80">
         <f>_xll.BDP("EEX3MNEU Index","PX_VOLUME")</f>
@@ -5594,7 +5598,7 @@
       </c>
       <c r="O80" t="str">
         <f>_xll.BDP("EEX3MNEU Index","LAST_UPDATE_DT")</f>
-        <v>01.09.2025</v>
+        <v>08.09.2025</v>
       </c>
       <c r="P80" t="str">
         <f>_xll.BDP("EEX3MNEU Index","TIME")</f>
@@ -5610,7 +5614,7 @@
       </c>
       <c r="C81">
         <f>_xll.BDP("EEX3MDEU Index","PX_LAST")</f>
-        <v>73.010000000000005</v>
+        <v>74.959999999999994</v>
       </c>
       <c r="D81">
         <f>_xll.BDP("EEX3MDEU Index","PX_VOLUME")</f>
@@ -5629,7 +5633,7 @@
       </c>
       <c r="O81" t="str">
         <f>_xll.BDP("EEX3MDEU Index","LAST_UPDATE_DT")</f>
-        <v>01.09.2025</v>
+        <v>08.09.2025</v>
       </c>
       <c r="P81" t="str">
         <f>_xll.BDP("EEX3MDEU Index","TIME")</f>
@@ -5656,7 +5660,7 @@
       </c>
       <c r="C83">
         <f>_xll.BDP("EEX3BDEU Index","PX_LAST")</f>
-        <v>4365500</v>
+        <v>5514500</v>
       </c>
       <c r="D83">
         <f>_xll.BDP("EEX3BDEU Index","PX_VOLUME")</f>
@@ -5675,7 +5679,7 @@
       </c>
       <c r="O83" t="str">
         <f>_xll.BDP("EEX3BDEU Index","LAST_UPDATE_DT")</f>
-        <v>01.09.2025</v>
+        <v>08.09.2025</v>
       </c>
       <c r="P83" t="str">
         <f>_xll.BDP("EEX3BDEU Index","TIME")</f>
@@ -5728,15 +5732,15 @@
       </c>
       <c r="C87">
         <f>_xll.BDP("EEX3X3PL Index","PX_LAST")</f>
-        <v>70.47</v>
+        <v>73.27</v>
       </c>
       <c r="D87">
         <f>_xll.BDP("EEX3X3PL Index","PX_VOLUME")</f>
-        <v>2069000</v>
+        <v>2162500</v>
       </c>
       <c r="H87">
         <f>_xll.BDP("EEX3X3PL Index","BID")</f>
-        <v>68.05</v>
+        <v>64</v>
       </c>
       <c r="I87">
         <f>_xll.BDP("EEX3X3PL Index","ASK")</f>
@@ -5747,11 +5751,11 @@
       </c>
       <c r="O87" t="str">
         <f>_xll.BDP("EEX3X3PL Index","LAST_UPDATE_DT")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
       <c r="P87" t="str">
         <f>_xll.BDP("EEX3X3PL Index","TIME")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -5771,7 +5775,7 @@
       </c>
       <c r="C89">
         <f>_xll.BDP("EEX33XPL Index","PX_LAST")</f>
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="D89">
         <f>_xll.BDP("EEX33XPL Index","PX_VOLUME")</f>
@@ -5790,11 +5794,11 @@
       </c>
       <c r="O89" t="str">
         <f>_xll.BDP("EEX33XPL Index","LAST_UPDATE_DT")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
       <c r="P89" t="str">
         <f>_xll.BDP("EEX33XPL Index","TIME")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -5806,7 +5810,7 @@
       </c>
       <c r="C90">
         <f>_xll.BDP("EEX3MNPL Index","PX_LAST")</f>
-        <v>70.540000000000006</v>
+        <v>73.239999999999995</v>
       </c>
       <c r="D90">
         <f>_xll.BDP("EEX3MNPL Index","PX_VOLUME")</f>
@@ -5825,11 +5829,11 @@
       </c>
       <c r="O90" t="str">
         <f>_xll.BDP("EEX3MNPL Index","LAST_UPDATE_DT")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
       <c r="P90" t="str">
         <f>_xll.BDP("EEX3MNPL Index","TIME")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -5841,7 +5845,7 @@
       </c>
       <c r="C91">
         <f>_xll.BDP("EEX3MDPL Index","PX_LAST")</f>
-        <v>70.150000000000006</v>
+        <v>73.17</v>
       </c>
       <c r="D91">
         <f>_xll.BDP("EEX3MDPL Index","PX_VOLUME")</f>
@@ -5860,11 +5864,11 @@
       </c>
       <c r="O91" t="str">
         <f>_xll.BDP("EEX3MDPL Index","LAST_UPDATE_DT")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
       <c r="P91" t="str">
         <f>_xll.BDP("EEX3MDPL Index","TIME")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -5887,7 +5891,7 @@
       </c>
       <c r="C93">
         <f>_xll.BDP("EEX3BDPL Index","PX_LAST")</f>
-        <v>3428000</v>
+        <v>3118500</v>
       </c>
       <c r="D93">
         <f>_xll.BDP("EEX3BDPL Index","PX_VOLUME")</f>
@@ -5906,11 +5910,11 @@
       </c>
       <c r="O93" t="str">
         <f>_xll.BDP("EEX3BDPL Index","LAST_UPDATE_DT")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
       <c r="P93" t="str">
         <f>_xll.BDP("EEX3BDPL Index","TIME")</f>
-        <v>20.08.2025</v>
+        <v>03.09.2025</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -6995,7 +6999,7 @@
       </c>
       <c r="C141">
         <f>_xll.BDP("RGGIAROB Index","PX_LAST")</f>
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D141" t="str">
         <f>_xll.BDP("RGGIAROB Index","PX_VOLUME")</f>
@@ -7014,7 +7018,7 @@
       </c>
       <c r="O141" t="str">
         <f>_xll.BDP("RGGIAROB Index","LAST_UPDATE_DT")</f>
-        <v>04.06.2025</v>
+        <v>03.09.2025</v>
       </c>
       <c r="P141" t="str">
         <f>_xll.BDP("RGGIAROB Index","TIME")</f>
@@ -7108,7 +7112,7 @@
       </c>
       <c r="C145">
         <f>_xll.BDP("RGGIAAQS Index","PX_LAST")</f>
-        <v>15244480</v>
+        <v>15177780</v>
       </c>
       <c r="D145" t="str">
         <f>_xll.BDP("RGGIAAQS Index","PX_VOLUME")</f>
@@ -7116,22 +7120,22 @@
       </c>
       <c r="H145" t="str">
         <f>_xll.BDP("RGGIAAQS Index","BID")</f>
-        <v>#N/A Real Time</v>
+        <v>#N/A N/A</v>
       </c>
       <c r="I145" t="str">
         <f>_xll.BDP("RGGIAAQS Index","ASK")</f>
-        <v>#N/A Real Time</v>
+        <v>#N/A N/A</v>
       </c>
       <c r="N145" t="s">
         <v>80</v>
       </c>
       <c r="O145" t="str">
         <f>_xll.BDP("RGGIAAQS Index","LAST_UPDATE_DT")</f>
-        <v>04.06.2025</v>
+        <v>03.09.2025</v>
       </c>
       <c r="P145" t="str">
         <f>_xll.BDP("RGGIAAQS Index","TIME")</f>
-        <v>#N/A Real Time</v>
+        <v>03.09.2025</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
@@ -7262,26 +7266,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A115:P115"/>
+    <mergeCell ref="A116:P116"/>
+    <mergeCell ref="A126:P126"/>
+    <mergeCell ref="A137:P137"/>
+    <mergeCell ref="A147:P147"/>
+    <mergeCell ref="A65:P65"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A95:P95"/>
+    <mergeCell ref="A105:P105"/>
+    <mergeCell ref="A30:P30"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="A33:P33"/>
+    <mergeCell ref="A43:P43"/>
+    <mergeCell ref="A55:P55"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A19:P19"/>
     <mergeCell ref="A24:P24"/>
     <mergeCell ref="A27:P27"/>
-    <mergeCell ref="A30:P30"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="A33:P33"/>
-    <mergeCell ref="A43:P43"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A65:P65"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A95:P95"/>
-    <mergeCell ref="A105:P105"/>
-    <mergeCell ref="A115:P115"/>
-    <mergeCell ref="A116:P116"/>
-    <mergeCell ref="A126:P126"/>
-    <mergeCell ref="A137:P137"/>
-    <mergeCell ref="A147:P147"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Auctions EUA.xlsx
+++ b/Auctions EUA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31D56F1-FC2D-4361-8599-8911FA4FCB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730126E1-7086-4097-A5BC-E8196E1B1E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -873,7 +873,7 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
         <stp/>
         <stp>BDP|3018607617448695053|22</stp>
         <stp>EEX3SCCB Index</stp>
@@ -945,7 +945,7 @@
         <tr r="H103" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
         <stp/>
         <stp>BDP|4191428704799251462|22</stp>
         <stp>EEX3TOTB Index</stp>
@@ -986,8 +986,6 @@
         <stp>ASK</stp>
         <tr r="I101" s="2"/>
       </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
@@ -1077,7 +1075,7 @@
         <tr r="I113" s="2"/>
       </tp>
       <tp>
-        <v>73.2</v>
+        <v>73.010000000000005</v>
         <stp/>
         <stp>BDP|15420833856443191727|22</stp>
         <stp>EEX3PMDE Index</stp>
@@ -1141,7 +1139,7 @@
         <tr r="P87" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
         <stp/>
         <stp>BDP|1494356953421449542|22</stp>
         <stp>EEXXT3PA Index</stp>
@@ -1181,25 +1179,25 @@
         <tr r="H70" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2663367911</v>
+        <v>#N/A Requesting Data...4015443499</v>
         <stp/>
         <stp>BDP|11269571729604204855</stp>
         <tr r="C145" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3647323740</v>
+        <v>#N/A Requesting Data...4177232085</v>
         <stp/>
         <stp>BDP|10943788378258769235</stp>
         <tr r="D109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4082360482</v>
+        <v>#N/A Requesting Data...3672765954</v>
         <stp/>
         <stp>BDP|13172746922254409863</stp>
         <tr r="O80" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3380412473</v>
+        <v>#N/A Requesting Data...3670024658</v>
         <stp/>
         <stp>BDP|14497910193647682945</stp>
         <tr r="D70" s="2"/>
@@ -1213,7 +1211,7 @@
         <tr r="P111" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
         <stp/>
         <stp>BDP|9541173970769276266|22</stp>
         <stp>EEX3EPCR Index</stp>
@@ -1221,7 +1219,7 @@
         <tr r="P69" s="2"/>
       </tp>
       <tp t="s">
-        <v>05.09.2025</v>
+        <v>12.09.2025</v>
         <stp/>
         <stp>BDP|3193189600887063507|22</stp>
         <stp>EEX3CRDE Index</stp>
@@ -1245,25 +1243,25 @@
         <tr r="H83" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2769441933</v>
+        <v>#N/A Requesting Data...3964882600</v>
         <stp/>
         <stp>BDP|18008250999471656922</stp>
         <tr r="D91" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2816919568</v>
+        <v>#N/A Requesting Data...3289744916</v>
         <stp/>
         <stp>BDP|17732115207434946955</stp>
         <tr r="O35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3375213175</v>
+        <v>#N/A Requesting Data...3516614438</v>
         <stp/>
         <stp>BDP|17883504586526473761</stp>
         <tr r="D60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3976777675</v>
+        <v>#N/A Requesting Data...3421024677</v>
         <stp/>
         <stp>BDP|17453411474857561889</stp>
         <tr r="C51" s="2"/>
@@ -1277,25 +1275,25 @@
         <tr r="P123" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3620713657</v>
+        <v>#N/A Requesting Data...4115973122</v>
         <stp/>
         <stp>BDP|17440720740509750509</stp>
         <tr r="D131" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4136725882</v>
+        <v>#N/A Requesting Data...3285411880</v>
         <stp/>
         <stp>BDP|13137573291627110020</stp>
         <tr r="O122" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2448984138</v>
+        <v>#N/A Requesting Data...3586391974</v>
         <stp/>
         <stp>BDP|12589828556680285779</stp>
         <tr r="C131" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3284802481</v>
+        <v>#N/A Requesting Data...3305872981</v>
         <stp/>
         <stp>BDP|14677421799633940220</stp>
         <tr r="D135" s="2"/>
@@ -1317,25 +1315,25 @@
         <tr r="H60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3867057995</v>
+        <v>#N/A Requesting Data...3997759264</v>
         <stp/>
         <stp>BDP|13392001727258142092</stp>
         <tr r="O125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2871906050</v>
+        <v>#N/A Requesting Data...4109560418</v>
         <stp/>
         <stp>BDP|14017755899281818256</stp>
         <tr r="D39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2433242235</v>
+        <v>#N/A Requesting Data...2969785147</v>
         <stp/>
         <stp>BDP|15783964005736454339</stp>
         <tr r="D51" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3424353202</v>
+        <v>#N/A Requesting Data...3977131866</v>
         <stp/>
         <stp>BDP|15365985838177005150</stp>
         <tr r="O49" s="2"/>
@@ -1373,25 +1371,25 @@
         <tr r="P35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2618270724</v>
+        <v>#N/A Requesting Data...2847622950</v>
         <stp/>
         <stp>BDP|15339769723328136685</stp>
         <tr r="C63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2533842247</v>
+        <v>#N/A Requesting Data...3769226780</v>
         <stp/>
         <stp>BDP|18033101966751297072</stp>
         <tr r="C67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2509700895</v>
+        <v>#N/A Requesting Data...3580892047</v>
         <stp/>
         <stp>BDP|14450087638141730867</stp>
         <tr r="D59" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
         <stp/>
         <stp>BDP|6821914525563686864|22</stp>
         <stp>EEX3MDT3 Index</stp>
@@ -1423,85 +1421,85 @@
         <tr r="I41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4286009376</v>
+        <v>#N/A Requesting Data...3724259517</v>
         <stp/>
         <stp>BDP|18411307338470386767</stp>
         <tr r="D99" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3489676900</v>
+        <v>#N/A Requesting Data...3269616314</v>
         <stp/>
         <stp>BDP|10666662405090903935</stp>
         <tr r="C107" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2719305007</v>
+        <v>#N/A Requesting Data...4000454239</v>
         <stp/>
         <stp>BDP|14977427384300822780</stp>
         <tr r="O51" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3242892664</v>
+        <v>#N/A Requesting Data...3886509497</v>
         <stp/>
         <stp>BDP|16823031330433881965</stp>
         <tr r="C79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3675674282</v>
+        <v>#N/A Requesting Data...3963059646</v>
         <stp/>
         <stp>BDP|11920132482670808779</stp>
         <tr r="O121" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3400789991</v>
+        <v>#N/A Requesting Data...3826561772</v>
         <stp/>
         <stp>BDP|16946453695197801084</stp>
         <tr r="D71" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2996594825</v>
+        <v>#N/A Requesting Data...3224873639</v>
         <stp/>
         <stp>BDP|17933236663647161806</stp>
         <tr r="O142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3157724731</v>
+        <v>#N/A Requesting Data...3383474557</v>
         <stp/>
         <stp>BDP|16760592922515211860</stp>
         <tr r="C135" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2591279903</v>
+        <v>#N/A Requesting Data...3877342036</v>
         <stp/>
         <stp>BDP|17148762016524255989</stp>
         <tr r="C73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3511501019</v>
+        <v>#N/A Requesting Data...3006781348</v>
         <stp/>
         <stp>BDP|18309468170035994204</stp>
         <tr r="C129" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2759043607</v>
+        <v>#N/A Requesting Data...4001191359</v>
         <stp/>
         <stp>BDP|17271087938758253012</stp>
         <tr r="C57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2755152195</v>
+        <v>#N/A Requesting Data...3876443203</v>
         <stp/>
         <stp>BDP|12870303344301412882</stp>
         <tr r="C91" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2643477687</v>
+        <v>#N/A Requesting Data...3102195089</v>
         <stp/>
         <stp>BDP|11040138180590694408</stp>
         <tr r="C81" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3171661985</v>
+        <v>#N/A Requesting Data...3456781981</v>
         <stp/>
         <stp>BDP|11220363830214973997</stp>
         <tr r="C50" s="2"/>
@@ -1515,49 +1513,49 @@
         <tr r="I121" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2604302277</v>
+        <v>#N/A Requesting Data...3534737128</v>
         <stp/>
         <stp>BDP|10310929788149374579</stp>
         <tr r="C80" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3998192181</v>
+        <v>#N/A Requesting Data...4117892515</v>
         <stp/>
         <stp>BDP|17645551591513564590</stp>
         <tr r="C119" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3363774490</v>
+        <v>#N/A Requesting Data...4247453697</v>
         <stp/>
         <stp>BDP|11799929507266026330</stp>
         <tr r="C93" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2745243985</v>
+        <v>#N/A Requesting Data...3752988151</v>
         <stp/>
         <stp>BDP|12376569583387116556</stp>
         <tr r="D77" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3165591379</v>
+        <v>#N/A Requesting Data...3950835226</v>
         <stp/>
         <stp>BDP|12929767077087211884</stp>
         <tr r="C90" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2946302355</v>
+        <v>#N/A Requesting Data...3862252770</v>
         <stp/>
         <stp>BDP|12746681013678887006</stp>
         <tr r="C83" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3750072427</v>
+        <v>#N/A Requesting Data...3703004036</v>
         <stp/>
         <stp>BDP|12638693508540193928</stp>
         <tr r="O83" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
         <stp/>
         <stp>BDP|6553737273572010062|22</stp>
         <stp>EEX3BDEP Index</stp>
@@ -1597,19 +1595,19 @@
         <tr r="P133" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3538349847</v>
+        <v>#N/A Requesting Data...3519250584</v>
         <stp/>
         <stp>BDP|17119275309777085060</stp>
         <tr r="D97" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3003669118</v>
+        <v>#N/A Requesting Data...4040920114</v>
         <stp/>
         <stp>BDP|16334400116593439221</stp>
         <tr r="D103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3222245042</v>
+        <v>#N/A Requesting Data...3588822046</v>
         <stp/>
         <stp>BDP|17261400698320790895</stp>
         <tr r="O123" s="2"/>
@@ -1623,7 +1621,7 @@
         <tr r="P100" s="2"/>
       </tp>
       <tp t="s">
-        <v>05.09.2025</v>
+        <v>12.09.2025</v>
         <stp/>
         <stp>BDP|4742737479639692576|22</stp>
         <stp>EEX3BDDE Index</stp>
@@ -1639,55 +1637,55 @@
         <tr r="P128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3656279741</v>
+        <v>#N/A Requesting Data...3965881026</v>
         <stp/>
         <stp>BDP|10231084159133314599</stp>
         <tr r="O63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3595582063</v>
+        <v>#N/A Requesting Data...4046162472</v>
         <stp/>
         <stp>BDP|10762113169831043550</stp>
         <tr r="C59" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3710226606</v>
+        <v>#N/A Requesting Data...3153180574</v>
         <stp/>
         <stp>BDP|16233839828067587813</stp>
         <tr r="O69" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4140414659</v>
+        <v>#N/A Requesting Data...4222430442</v>
         <stp/>
         <stp>BDP|18112152192717370493</stp>
         <tr r="D57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2427535219</v>
+        <v>#N/A Requesting Data...3090092305</v>
         <stp/>
         <stp>BDP|12631048552532555647</stp>
         <tr r="C45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3555150077</v>
+        <v>#N/A Requesting Data...3991222635</v>
         <stp/>
         <stp>BDP|16257536659004183193</stp>
         <tr r="D61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4280012389</v>
+        <v>#N/A Requesting Data...3971761048</v>
         <stp/>
         <stp>BDP|11773772447184358568</stp>
         <tr r="D67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3206967339</v>
+        <v>#N/A Requesting Data...3839314749</v>
         <stp/>
         <stp>BDP|11036023536593262247</stp>
         <tr r="D80" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
         <stp/>
         <stp>BDP|4789583064645529089|22</stp>
         <stp>EEX3BDEU Index</stp>
@@ -1703,13 +1701,13 @@
         <tr r="I69" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3409038685</v>
+        <v>#N/A Requesting Data...3027428478</v>
         <stp/>
         <stp>BDP|10371740171936643690</stp>
         <tr r="C121" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
         <stp/>
         <stp>BDP|7806871558314808470|22</stp>
         <stp>EEX3MNT3 Index</stp>
@@ -1733,49 +1731,49 @@
         <tr r="P109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2848256174</v>
+        <v>#N/A Requesting Data...3815977665</v>
         <stp/>
         <stp>BDP|10450986407190051879</stp>
         <tr r="O113" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4011555900</v>
+        <v>#N/A Requesting Data...3477158551</v>
         <stp/>
         <stp>BDP|17345118041494135735</stp>
         <tr r="O39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3810880581</v>
+        <v>#N/A Requesting Data...3614682800</v>
         <stp/>
         <stp>BDP|12312559960178218854</stp>
         <tr r="O60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3049031587</v>
+        <v>#N/A Requesting Data...3381301791</v>
         <stp/>
         <stp>BDP|18235654050928285246</stp>
         <tr r="D118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3187605494</v>
+        <v>#N/A Requesting Data...4059836602</v>
         <stp/>
         <stp>BDP|11908180946526696355</stp>
         <tr r="O77" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3261991071</v>
+        <v>#N/A Requesting Data...4231431289</v>
         <stp/>
         <stp>BDP|16041498039241224153</stp>
         <tr r="D50" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3297073320</v>
+        <v>#N/A Requesting Data...4185551433</v>
         <stp/>
         <stp>BDP|15600557786638647149</stp>
         <tr r="O135" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4065582076</v>
+        <v>#N/A Requesting Data...3906811404</v>
         <stp/>
         <stp>BDP|17201301560995300668</stp>
         <tr r="C128" s="2"/>
@@ -1805,61 +1803,61 @@
         <tr r="I118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2799071673</v>
+        <v>#N/A Requesting Data...3784494913</v>
         <stp/>
         <stp>BDP|11964424655954108243</stp>
         <tr r="O152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4110705262</v>
+        <v>#N/A Requesting Data...3886025861</v>
         <stp/>
         <stp>BDP|15039250998841436929</stp>
         <tr r="C70" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3567892437</v>
+        <v>#N/A Requesting Data...3315840107</v>
         <stp/>
         <stp>BDP|12983476071071398635</stp>
         <tr r="D121" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3866378674</v>
+        <v>#N/A Requesting Data...3199023420</v>
         <stp/>
         <stp>BDP|13022728685482255840</stp>
         <tr r="D151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3708717750</v>
+        <v>#N/A Requesting Data...3766466485</v>
         <stp/>
         <stp>BDP|14787445835483775602</stp>
         <tr r="C49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3015514052</v>
+        <v>#N/A Requesting Data...3018252738</v>
         <stp/>
         <stp>BDP|13835889490117150311</stp>
         <tr r="C41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3375485063</v>
+        <v>#N/A Requesting Data...3958345970</v>
         <stp/>
         <stp>BDP|11777284828983264462</stp>
         <tr r="C152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3669244062</v>
+        <v>#N/A Requesting Data...3486987924</v>
         <stp/>
         <stp>BDP|16175526658473866307</stp>
         <tr r="O101" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3029214441</v>
+        <v>#N/A Requesting Data...4026513815</v>
         <stp/>
         <stp>BDP|17426017852985395138</stp>
         <tr r="D125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3766801939</v>
+        <v>#N/A Requesting Data...4056197307</v>
         <stp/>
         <stp>BDP|11679146174687658674</stp>
         <tr r="O61" s="2"/>
@@ -1881,49 +1879,49 @@
         <tr r="I73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3040314226</v>
+        <v>#N/A Requesting Data...4119953105</v>
         <stp/>
         <stp>BDP|11739412558546315165</stp>
         <tr r="O107" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3558702108</v>
+        <v>#N/A Requesting Data...4208012587</v>
         <stp/>
         <stp>BDP|17821757611616847099</stp>
         <tr r="D73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2976283069</v>
+        <v>#N/A Requesting Data...3198485611</v>
         <stp/>
         <stp>BDP|12363162891205314891</stp>
         <tr r="C132" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2866850187</v>
+        <v>#N/A Requesting Data...4125168767</v>
         <stp/>
         <stp>BDP|16498489714365827135</stp>
         <tr r="O38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3726111015</v>
+        <v>#N/A Requesting Data...3525188698</v>
         <stp/>
         <stp>BDP|17756265275154491129</stp>
         <tr r="D152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3955653838</v>
+        <v>#N/A Requesting Data...3487589243</v>
         <stp/>
         <stp>BDP|11973396237516626030</stp>
         <tr r="D122" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3154516701</v>
+        <v>#N/A Requesting Data...3078664100</v>
         <stp/>
         <stp>BDP|13226662244594317259</stp>
         <tr r="O141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2971653516</v>
+        <v>#N/A Requesting Data...3491101339</v>
         <stp/>
         <stp>BDP|17779836694136602703</stp>
         <tr r="D69" s="2"/>
@@ -1945,37 +1943,37 @@
         <tr r="H35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3921764219</v>
+        <v>#N/A Requesting Data...4053148960</v>
         <stp/>
         <stp>BDP|17702743798129095414</stp>
         <tr r="C109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3122026265</v>
+        <v>#N/A Requesting Data...4120215347</v>
         <stp/>
         <stp>BDP|14502996891943856393</stp>
         <tr r="D107" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3340040318</v>
+        <v>#N/A Requesting Data...4244726100</v>
         <stp/>
         <stp>BDP|14009510159603117373</stp>
         <tr r="C151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3775661625</v>
+        <v>#N/A Requesting Data...3586778415</v>
         <stp/>
         <stp>BDP|17433439855215748722</stp>
         <tr r="D63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3880576842</v>
+        <v>#N/A Requesting Data...4120101594</v>
         <stp/>
         <stp>BDP|15963953319790315909</stp>
         <tr r="O132" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3087713912</v>
+        <v>#N/A Requesting Data...3054489628</v>
         <stp/>
         <stp>BDP|10568242787378537653</stp>
         <tr r="O37" s="2"/>
@@ -1989,37 +1987,37 @@
         <tr r="I79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3151701354</v>
+        <v>#N/A Requesting Data...3849411146</v>
         <stp/>
         <stp>BDP|13291842058863532828</stp>
         <tr r="O70" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4172034269</v>
+        <v>#N/A Requesting Data...4003228977</v>
         <stp/>
         <stp>BDP|12418513149975378324</stp>
         <tr r="C97" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3274033329</v>
+        <v>#N/A Requesting Data...3481410763</v>
         <stp/>
         <stp>BDP|14876410132956204074</stp>
         <tr r="D89" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2803048854</v>
+        <v>#N/A Requesting Data...3308766736</v>
         <stp/>
         <stp>BDP|12662972772298021130</stp>
         <tr r="O41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3021312028</v>
+        <v>#N/A Requesting Data...4153795322</v>
         <stp/>
         <stp>BDP|15876548244805841436</stp>
         <tr r="O151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3435174195</v>
+        <v>#N/A Requesting Data...3011127904</v>
         <stp/>
         <stp>BDP|12436206503061465444</stp>
         <tr r="O89" s="2"/>
@@ -2099,7 +2097,7 @@
         <tr r="H81" s="2"/>
       </tp>
       <tp>
-        <v>68</v>
+        <v>64</v>
         <stp/>
         <stp>BDP|8894173801250207596|22</stp>
         <stp>EEX3PMEU Index</stp>
@@ -2107,7 +2105,7 @@
         <tr r="H77" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
         <stp/>
         <stp>BDP|14914340425937262400|22</stp>
         <stp>EEX3PMEU Index</stp>
@@ -2163,7 +2161,7 @@
         <tr r="P90" s="2"/>
       </tp>
       <tp t="s">
-        <v>05.09.2025</v>
+        <v>12.09.2025</v>
         <stp/>
         <stp>BDP|14840393295774202550|22</stp>
         <stp>EEX3PMDE Index</stp>
@@ -2187,7 +2185,7 @@
         <tr r="H113" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
         <stp/>
         <stp>BDP|16469111007550779531|22</stp>
         <stp>EEX3MNEU Index</stp>
@@ -2235,7 +2233,7 @@
         <tr r="P110" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
         <stp/>
         <stp>BDP|12982193450868361324|22</stp>
         <stp>EEX3MDEP Index</stp>
@@ -2284,7 +2282,7 @@
         <tr r="P149" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
         <stp/>
         <stp>BDP|14229205055830819259|22</stp>
         <stp>EEX3MDEU Index</stp>
@@ -2292,7 +2290,7 @@
         <tr r="P81" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
         <stp/>
         <stp>BDP|16855049126625485315|22</stp>
         <stp>EEX3MNEP Index</stp>
@@ -2332,7 +2330,7 @@
         <tr r="P93" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
         <stp/>
         <stp>BDP|16380762434944732614|22</stp>
         <stp>EEX3CREU Index</stp>
@@ -2340,7 +2338,7 @@
         <tr r="P79" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:34</v>
+        <v>15.09.2025</v>
         <stp/>
         <stp>BDP|15913837711201520928|22</stp>
         <stp>EEX3EPPM Index</stp>
@@ -2372,7 +2370,7 @@
         <tr r="P91" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
         <stp/>
         <stp>BDP|15694925664041655440|22</stp>
         <stp>EEX3BDT3 Index</stp>
@@ -2412,7 +2410,7 @@
         <tr r="H63" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
         <stp/>
         <stp>BDP|14809909160782766798|22</stp>
         <stp>EEX3CRT3 Index</stp>
@@ -2428,7 +2426,7 @@
         <tr r="H110" s="2"/>
       </tp>
       <tp t="s">
-        <v>05.09.2025</v>
+        <v>12.09.2025</v>
         <stp/>
         <stp>BDP|12484327023668429337|22</stp>
         <stp>EEX3MNDE Index</stp>
@@ -2452,7 +2450,7 @@
         <tr r="H50" s="2"/>
       </tp>
       <tp>
-        <v>68</v>
+        <v>64</v>
         <stp/>
         <stp>BDP|4673945679228878777|22</stp>
         <stp>EEX3EPPM Index</stp>
@@ -2468,7 +2466,7 @@
         <tr r="P103" s="2"/>
       </tp>
       <tp t="s">
-        <v>05.09.2025</v>
+        <v>12.09.2025</v>
         <stp/>
         <stp>BDP|10597827675332248545|22</stp>
         <stp>EEX3MDDE Index</stp>
@@ -2476,49 +2474,49 @@
         <tr r="P61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3355053286</v>
+        <v>#N/A Requesting Data...3841871189</v>
         <stp/>
         <stp>BDP|4124903069222755554</stp>
         <tr r="O87" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3514438771</v>
+        <v>#N/A Requesting Data...3277273700</v>
         <stp/>
         <stp>BDP|8892146774205393713</stp>
         <tr r="D129" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2989595048</v>
+        <v>#N/A Requesting Data...4247446367</v>
         <stp/>
         <stp>BDP|2477959445181429293</stp>
         <tr r="O129" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4041781125</v>
+        <v>#N/A Requesting Data...3700629884</v>
         <stp/>
         <stp>BDP|9350291445254965784</stp>
         <tr r="D37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4292275806</v>
+        <v>#N/A Requesting Data...4274708041</v>
         <stp/>
         <stp>BDP|6891918115273664161</stp>
         <tr r="D139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2689734089</v>
+        <v>#N/A Requesting Data...4056532981</v>
         <stp/>
         <stp>BDP|3573415783287593449</stp>
         <tr r="C48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2954003455</v>
+        <v>#N/A Requesting Data...4250433085</v>
         <stp/>
         <stp>BDP|8619946037809089717</stp>
         <tr r="O73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2801376890</v>
+        <v>#N/A Requesting Data...4029871239</v>
         <stp/>
         <stp>BDP|8134701725687838685</stp>
         <tr r="D101" s="2"/>
@@ -2532,13 +2530,13 @@
         <tr r="H141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3439512723</v>
+        <v>#N/A Requesting Data...3815722211</v>
         <stp/>
         <stp>BDP|2337395976008307323</stp>
         <tr r="D133" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4149737066</v>
+        <v>#N/A Requesting Data...3637006495</v>
         <stp/>
         <stp>BDP|7346443724919908584</stp>
         <tr r="C143" s="2"/>
@@ -2552,55 +2550,55 @@
         <tr r="H47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3555388658</v>
+        <v>#N/A Requesting Data...4082717680</v>
         <stp/>
         <stp>BDP|2452480886172944101</stp>
         <tr r="D83" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3977867653</v>
+        <v>#N/A Requesting Data...3729932994</v>
         <stp/>
         <stp>BDP|3988758046487897994</stp>
         <tr r="O100" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2591800360</v>
+        <v>#N/A Requesting Data...3521369795</v>
         <stp/>
         <stp>BDP|8487968754382467898</stp>
         <tr r="O111" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3027489072</v>
+        <v>#N/A Requesting Data...4054312561</v>
         <stp/>
         <stp>BDP|3168197062443776948</stp>
         <tr r="O97" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3684597067</v>
+        <v>#N/A Requesting Data...3245337772</v>
         <stp/>
         <stp>BDP|3191294011039253743</stp>
         <tr r="C100" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3849436575</v>
+        <v>#N/A Requesting Data...4082034285</v>
         <stp/>
         <stp>BDP|8158190943367710418</stp>
         <tr r="D141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3201610832</v>
+        <v>#N/A Requesting Data...3493545172</v>
         <stp/>
         <stp>BDP|9753944506837726937</stp>
         <tr r="O139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3709456892</v>
+        <v>#N/A Requesting Data...3078346322</v>
         <stp/>
         <stp>BDP|2383970352993755307</stp>
         <tr r="D111" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4173101373</v>
+        <v>#N/A Requesting Data...3967888254</v>
         <stp/>
         <stp>BDP|8422754563225257254</stp>
         <tr r="D119" s="2"/>
@@ -2614,67 +2612,67 @@
         <tr r="I103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4067162888</v>
+        <v>#N/A Requesting Data...3217156229</v>
         <stp/>
         <stp>BDP|1905452132299753056</stp>
         <tr r="C39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3908531200</v>
+        <v>#N/A Requesting Data...3266019020</v>
         <stp/>
         <stp>BDP|9168179234227771399</stp>
         <tr r="O128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3740079716</v>
+        <v>#N/A Requesting Data...4270017994</v>
         <stp/>
         <stp>BDP|2740714101503839931</stp>
         <tr r="C141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3378885159</v>
+        <v>#N/A Requesting Data...3668924683</v>
         <stp/>
         <stp>BDP|7992263003279543384</stp>
         <tr r="D142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4060504464</v>
+        <v>#N/A Requesting Data...3788760904</v>
         <stp/>
         <stp>BDP|5477825144986453010</stp>
         <tr r="O59" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2661298930</v>
+        <v>#N/A Requesting Data...3467204943</v>
         <stp/>
         <stp>BDP|8165965388487479679</stp>
         <tr r="O81" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4000342018</v>
+        <v>#N/A Requesting Data...3487679625</v>
         <stp/>
         <stp>BDP|5675445137023195982</stp>
         <tr r="O143" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3547873559</v>
+        <v>#N/A Requesting Data...3587465326</v>
         <stp/>
         <stp>BDP|4173264548992531864</stp>
         <tr r="O109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4080102033</v>
+        <v>#N/A Requesting Data...3747197307</v>
         <stp/>
         <stp>BDP|6322017615579378624</stp>
         <tr r="O90" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4014114839</v>
+        <v>#N/A Requesting Data...3819986705</v>
         <stp/>
         <stp>BDP|7700706960287514955</stp>
         <tr r="O99" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3025488650</v>
+        <v>#N/A Requesting Data...3761102564</v>
         <stp/>
         <stp>BDP|2684958064503521663</stp>
         <tr r="C87" s="2"/>
@@ -2688,7 +2686,7 @@
         <tr r="I143" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3417020872</v>
+        <v>#N/A Requesting Data...4045283842</v>
         <stp/>
         <stp>BDP|2825895505117461495</stp>
         <tr r="O57" s="2"/>
@@ -2702,13 +2700,13 @@
         <tr r="I141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4264084157</v>
+        <v>#N/A Requesting Data...3616998471</v>
         <stp/>
         <stp>BDP|5555436835568594389</stp>
         <tr r="D145" s="2"/>
       </tp>
       <tp>
-        <v>120</v>
+        <v>80</v>
         <stp/>
         <stp>BDP|328381708441600475|22</stp>
         <stp>EEX3PMDE Index</stp>
@@ -2716,73 +2714,73 @@
         <tr r="I57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4206267014</v>
+        <v>#N/A Requesting Data...3465549496</v>
         <stp/>
         <stp>BDP|4279202299077950281</stp>
         <tr r="D41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2932312306</v>
+        <v>#N/A Requesting Data...4272381730</v>
         <stp/>
         <stp>BDP|6929810016462650737</stp>
         <tr r="D87" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3874833463</v>
+        <v>#N/A Requesting Data...3931792541</v>
         <stp/>
         <stp>BDP|1294936769142798640</stp>
         <tr r="C37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2640453350</v>
+        <v>#N/A Requesting Data...3357718208</v>
         <stp/>
         <stp>BDP|8268735055277832754</stp>
         <tr r="D100" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2600774164</v>
+        <v>#N/A Requesting Data...3684431805</v>
         <stp/>
         <stp>BDP|7997415316799901193</stp>
         <tr r="O53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4284854612</v>
+        <v>#N/A Requesting Data...3492981189</v>
         <stp/>
         <stp>BDP|6278897671657613432</stp>
         <tr r="O145" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2834725402</v>
+        <v>#N/A Requesting Data...4233247754</v>
         <stp/>
         <stp>BDP|8917206333941126276</stp>
         <tr r="O79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3897705898</v>
+        <v>#N/A Requesting Data...3836495660</v>
         <stp/>
         <stp>BDP|9488941276259397490</stp>
         <tr r="O67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3034077807</v>
+        <v>#N/A Requesting Data...3713373889</v>
         <stp/>
         <stp>BDP|5600386799382259784</stp>
         <tr r="C113" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2725841325</v>
+        <v>#N/A Requesting Data...3915611534</v>
         <stp/>
         <stp>BDP|9996435367631888077</stp>
         <tr r="C71" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3702604967</v>
+        <v>#N/A Requesting Data...3215550171</v>
         <stp/>
         <stp>BDP|3790921814431878090</stp>
         <tr r="D38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3986815825</v>
+        <v>#N/A Requesting Data...3311157578</v>
         <stp/>
         <stp>BDP|5023633295787322705</stp>
         <tr r="C101" s="2"/>
@@ -2805,37 +2803,37 @@
         <tr r="H151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4005354041</v>
+        <v>#N/A Requesting Data...3748943415</v>
         <stp/>
         <stp>BDP|2742897454442023636</stp>
         <tr r="D93" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3404185245</v>
+        <v>#N/A Requesting Data...3837409411</v>
         <stp/>
         <stp>BDP|1308380368217282806</stp>
         <tr r="C89" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3467202379</v>
+        <v>#N/A Requesting Data...3827048899</v>
         <stp/>
         <stp>BDP|2125519877263797874</stp>
         <tr r="D49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3617669863</v>
+        <v>#N/A Requesting Data...3128098911</v>
         <stp/>
         <stp>BDP|8187334089870399738</stp>
         <tr r="C142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3807226452</v>
+        <v>#N/A Requesting Data...3379740635</v>
         <stp/>
         <stp>BDP|8447705041427452887</stp>
         <tr r="O110" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4136202339</v>
+        <v>#N/A Requesting Data...3671040582</v>
         <stp/>
         <stp>BDP|9588220581862090554</stp>
         <tr r="D81" s="2"/>
@@ -2849,122 +2847,122 @@
         <tr r="H123" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3204592648</v>
+        <v>#N/A Requesting Data...3947816778</v>
         <stp/>
         <stp>BDP|6336981452218022714</stp>
         <tr r="D149" s="2"/>
         <tr r="D28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4097339109</v>
+        <v>#N/A Requesting Data...4193095315</v>
         <stp/>
         <stp>BDP|5144982884240236131</stp>
         <tr r="O119" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3233638642</v>
+        <v>#N/A Requesting Data...3662501610</v>
         <stp/>
         <stp>BDP|4912389578430923538</stp>
         <tr r="C125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3540704211</v>
+        <v>#N/A Requesting Data...3149508582</v>
         <stp/>
         <stp>BDP|4899183487030457834</stp>
         <tr r="D47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3972335805</v>
+        <v>#N/A Requesting Data...3963167581</v>
         <stp/>
         <stp>BDP|7406447711566288126</stp>
         <tr r="O91" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3378496413</v>
+        <v>#N/A Requesting Data...3587125528</v>
         <stp/>
         <stp>BDP|2318106224533271732</stp>
         <tr r="D123" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2996942444</v>
+        <v>#N/A Requesting Data...3956951601</v>
         <stp/>
         <stp>BDP|5397604398148966497</stp>
         <tr r="C118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2685948131</v>
+        <v>#N/A Requesting Data...3751014679</v>
         <stp/>
         <stp>BDP|5247213518087466774</stp>
         <tr r="D79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3545188553</v>
+        <v>#N/A Requesting Data...3937602045</v>
         <stp/>
         <stp>BDP|2268502188811293879</stp>
         <tr r="O45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3712260823</v>
+        <v>#N/A Requesting Data...3976026012</v>
         <stp/>
         <stp>BDP|2615106264042847162</stp>
         <tr r="C35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3154800385</v>
+        <v>#N/A Requesting Data...3930503658</v>
         <stp/>
         <stp>BDP|7242668637610389424</stp>
         <tr r="C38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2733665653</v>
+        <v>#N/A Requesting Data...3919905480</v>
         <stp/>
         <stp>BDP|3708410904060798168</stp>
         <tr r="D110" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3626484470</v>
+        <v>#N/A Requesting Data...3733887106</v>
         <stp/>
         <stp>BDP|5117711638166954114</stp>
         <tr r="O131" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4243454688</v>
+        <v>#N/A Requesting Data...3083033115</v>
         <stp/>
         <stp>BDP|3978038447362277279</stp>
         <tr r="O50" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4043975093</v>
+        <v>#N/A Requesting Data...4263428212</v>
         <stp/>
         <stp>BDP|4136828621258877131</stp>
         <tr r="C122" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3080849781</v>
+        <v>#N/A Requesting Data...4033750776</v>
         <stp/>
         <stp>BDP|2277297320794027172</stp>
         <tr r="O93" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4267652609</v>
+        <v>#N/A Requesting Data...3141386207</v>
         <stp/>
         <stp>BDP|8961196036758342506</stp>
         <tr r="D113" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3238207015</v>
+        <v>#N/A Requesting Data...3265167974</v>
         <stp/>
         <stp>BDP|1170165359530510519</stp>
         <tr r="C53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3027240554</v>
+        <v>#N/A Requesting Data...4039758189</v>
         <stp/>
         <stp>BDP|3942355915051567002</stp>
         <tr r="C133" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3443694904</v>
+        <v>#N/A Requesting Data...4021222532</v>
         <stp/>
         <stp>BDP|3535326747745052123</stp>
         <tr r="D53" s="2"/>
@@ -2986,68 +2984,68 @@
         <tr r="H48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2845089831</v>
+        <v>#N/A Requesting Data...3758802603</v>
         <stp/>
         <stp>BDP|9540225089557104556</stp>
         <tr r="O118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2950042427</v>
+        <v>#N/A Requesting Data...3226375852</v>
         <stp/>
         <stp>BDP|5062514338582227013</stp>
         <tr r="D128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3209131579</v>
+        <v>#N/A Requesting Data...3518511209</v>
         <stp/>
         <stp>BDP|2343600014653733789</stp>
         <tr r="O103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3173845947</v>
+        <v>#N/A Requesting Data...4113327980</v>
         <stp/>
         <stp>BDP|3242086975802090723</stp>
         <tr r="D90" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2768187142</v>
+        <v>#N/A Requesting Data...3289684847</v>
         <stp/>
         <stp>BDP|8360886275346359094</stp>
         <tr r="C103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2707859141</v>
+        <v>#N/A Requesting Data...3707695092</v>
         <stp/>
         <stp>BDP|6855110725440116773</stp>
         <tr r="C61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3486981765</v>
+        <v>#N/A Requesting Data...3084022086</v>
         <stp/>
         <stp>BDP|8675841477756696315</stp>
         <tr r="C139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3788455021</v>
+        <v>#N/A Requesting Data...4092879510</v>
         <stp/>
         <stp>BDP|4759583229459353843</stp>
         <tr r="O47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3966089322</v>
+        <v>#N/A Requesting Data...4251679011</v>
         <stp/>
         <stp>BDP|9839782485004760030</stp>
         <tr r="C149" s="2"/>
         <tr r="C28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3562887591</v>
+        <v>#N/A Requesting Data...4283901699</v>
         <stp/>
         <stp>BDP|3917864525078759387</stp>
         <tr r="C47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3479945100</v>
+        <v>#N/A Requesting Data...3211499620</v>
         <stp/>
         <stp>BDP|1874573773983759306</stp>
         <tr r="C60" s="2"/>
@@ -3061,25 +3059,25 @@
         <tr r="H53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3247486241</v>
+        <v>#N/A Requesting Data...3252691316</v>
         <stp/>
         <stp>BDP|4991441920223468278</stp>
         <tr r="C110" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2973918855</v>
+        <v>#N/A Requesting Data...4052831941</v>
         <stp/>
         <stp>BDP|4634330117701477447</stp>
         <tr r="D48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3051520837</v>
+        <v>#N/A Requesting Data...3483785341</v>
         <stp/>
         <stp>BDP|3206597226223845400</stp>
         <tr r="D35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3985688352</v>
+        <v>#N/A Requesting Data...4000959575</v>
         <stp/>
         <stp>BDP|7344440665766321042</stp>
         <tr r="D45" s="2"/>
@@ -3109,7 +3107,7 @@
         <tr r="I119" s="2"/>
       </tp>
       <tp>
-        <v>68</v>
+        <v>64</v>
         <stp/>
         <stp>BDP|5258715941910323221|22</stp>
         <stp>EEXXT3PA Index</stp>
@@ -3117,7 +3115,7 @@
         <tr r="H45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2697543767</v>
+        <v>#N/A Requesting Data...3158187505</v>
         <stp/>
         <stp>BDP|92010296815936747</stp>
         <tr r="D132" s="2"/>
@@ -3211,7 +3209,7 @@
         <tr r="P89" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2918368134</v>
+        <v>#N/A Requesting Data...3725213108</v>
         <stp/>
         <stp>BDP|141486019989176878</stp>
         <tr r="C77" s="2"/>
@@ -3233,13 +3231,13 @@
         <tr r="I142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3682123804</v>
+        <v>#N/A Requesting Data...4294962466</v>
         <stp/>
         <stp>BDP|498236031780937674</stp>
         <tr r="O71" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2872576755</v>
+        <v>#N/A Requesting Data...3343259289</v>
         <stp/>
         <stp>BDP|626474072446054250</stp>
         <tr r="O48" s="2"/>
@@ -3253,7 +3251,7 @@
         <tr r="I128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3788168275</v>
+        <v>#N/A Requesting Data...4150666919</v>
         <stp/>
         <stp>BDP|949597951093820562</stp>
         <tr r="C69" s="2"/>
@@ -3275,7 +3273,7 @@
         <tr r="I139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3941630953</v>
+        <v>#N/A Requesting Data...4175167541</v>
         <stp/>
         <stp>BDP|527374345414391240</stp>
         <tr r="C99" s="2"/>
@@ -3289,7 +3287,7 @@
         <tr r="I38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4067730845</v>
+        <v>#N/A Requesting Data...3281788588</v>
         <stp/>
         <stp>BDP|445371574551055651</stp>
         <tr r="C111" s="2"/>
@@ -3319,7 +3317,7 @@
         <tr r="H125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3124867555</v>
+        <v>#N/A Requesting Data...3381292892</v>
         <stp/>
         <stp>BDP|411030222906237860</stp>
         <tr r="O133" s="2"/>
@@ -3389,7 +3387,7 @@
         <tr r="H39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3226658399</v>
+        <v>#N/A Requesting Data...3849363944</v>
         <stp/>
         <stp>BDP|112394073414420858</stp>
         <tr r="C123" s="2"/>
@@ -3403,7 +3401,7 @@
         <tr r="I152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3383355480</v>
+        <v>#N/A Requesting Data...3638823654</v>
         <stp/>
         <stp>BDP|280997264327962398</stp>
         <tr r="O149" s="2"/>
@@ -3475,7 +3473,7 @@
         <tr r="H49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3175611080</v>
+        <v>#N/A Requesting Data...3484691662</v>
         <stp/>
         <stp>BDP|599652034392309</stp>
         <tr r="D143" s="2"/>
@@ -3783,7 +3781,7 @@
   <dimension ref="A1:P152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4738,7 +4736,7 @@
       </c>
       <c r="C45">
         <f>_xll.BDP("EEXXT3PA Index","PX_LAST")</f>
-        <v>75.209999999999994</v>
+        <v>75.02</v>
       </c>
       <c r="D45">
         <f>_xll.BDP("EEXXT3PA Index","PX_VOLUME")</f>
@@ -4746,7 +4744,7 @@
       </c>
       <c r="H45">
         <f>_xll.BDP("EEXXT3PA Index","BID")</f>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I45">
         <f>_xll.BDP("EEXXT3PA Index","ASK")</f>
@@ -4757,11 +4755,11 @@
       </c>
       <c r="O45" t="str">
         <f>_xll.BDP("EEXXT3PA Index","LAST_UPDATE_DT")</f>
-        <v>08.09.2025</v>
+        <v>15.09.2025</v>
       </c>
       <c r="P45" t="str">
         <f>_xll.BDP("EEXXT3PA Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -4781,7 +4779,7 @@
       </c>
       <c r="C47">
         <f>_xll.BDP("EEX3CRT3 Index","PX_LAST")</f>
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="D47">
         <f>_xll.BDP("EEX3CRT3 Index","PX_VOLUME")</f>
@@ -4800,11 +4798,11 @@
       </c>
       <c r="O47" t="str">
         <f>_xll.BDP("EEX3CRT3 Index","LAST_UPDATE_DT")</f>
-        <v>08.09.2025</v>
+        <v>15.09.2025</v>
       </c>
       <c r="P47" t="str">
         <f>_xll.BDP("EEX3CRT3 Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -4816,7 +4814,7 @@
       </c>
       <c r="C48">
         <f>_xll.BDP("EEX3MNT3 Index","PX_LAST")</f>
-        <v>75</v>
+        <v>74.83</v>
       </c>
       <c r="D48">
         <f>_xll.BDP("EEX3MNT3 Index","PX_VOLUME")</f>
@@ -4835,11 +4833,11 @@
       </c>
       <c r="O48" t="str">
         <f>_xll.BDP("EEX3MNT3 Index","LAST_UPDATE_DT")</f>
-        <v>08.09.2025</v>
+        <v>15.09.2025</v>
       </c>
       <c r="P48" t="str">
         <f>_xll.BDP("EEX3MNT3 Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -4851,7 +4849,7 @@
       </c>
       <c r="C49">
         <f>_xll.BDP("EEX3MDT3 Index","PX_LAST")</f>
-        <v>74.959999999999994</v>
+        <v>74.84</v>
       </c>
       <c r="D49">
         <f>_xll.BDP("EEX3MDT3 Index","PX_VOLUME")</f>
@@ -4870,11 +4868,11 @@
       </c>
       <c r="O49" t="str">
         <f>_xll.BDP("EEX3MDT3 Index","LAST_UPDATE_DT")</f>
-        <v>08.09.2025</v>
+        <v>15.09.2025</v>
       </c>
       <c r="P49" t="str">
         <f>_xll.BDP("EEX3MDT3 Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -4886,7 +4884,7 @@
       </c>
       <c r="C50">
         <f>_xll.BDP("EEX3SCCB Index","PX_LAST")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D50">
         <f>_xll.BDP("EEX3SCCB Index","PX_VOLUME")</f>
@@ -4905,11 +4903,11 @@
       </c>
       <c r="O50" t="str">
         <f>_xll.BDP("EEX3SCCB Index","LAST_UPDATE_DT")</f>
-        <v>08.09.2025</v>
+        <v>15.09.2025</v>
       </c>
       <c r="P50" t="str">
         <f>_xll.BDP("EEX3SCCB Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -4921,7 +4919,7 @@
       </c>
       <c r="C51">
         <f>_xll.BDP("EEX3TOTB Index","PX_LAST")</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D51">
         <f>_xll.BDP("EEX3TOTB Index","PX_VOLUME")</f>
@@ -4940,11 +4938,11 @@
       </c>
       <c r="O51" t="str">
         <f>_xll.BDP("EEX3TOTB Index","LAST_UPDATE_DT")</f>
-        <v>08.09.2025</v>
+        <v>15.09.2025</v>
       </c>
       <c r="P51" t="str">
         <f>_xll.BDP("EEX3TOTB Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -4967,7 +4965,7 @@
       </c>
       <c r="C53">
         <f>_xll.BDP("EEX3BDT3 Index","PX_LAST")</f>
-        <v>5514500</v>
+        <v>5812000</v>
       </c>
       <c r="D53">
         <f>_xll.BDP("EEX3BDT3 Index","PX_VOLUME")</f>
@@ -4986,11 +4984,11 @@
       </c>
       <c r="O53" t="str">
         <f>_xll.BDP("EEX3BDT3 Index","LAST_UPDATE_DT")</f>
-        <v>08.09.2025</v>
+        <v>15.09.2025</v>
       </c>
       <c r="P53" t="str">
         <f>_xll.BDP("EEX3BDT3 Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -5039,7 +5037,7 @@
       </c>
       <c r="C57">
         <f>_xll.BDP("EEX3PMDE Index","PX_LAST")</f>
-        <v>75.44</v>
+        <v>75.02</v>
       </c>
       <c r="D57">
         <f>_xll.BDP("EEX3PMDE Index","PX_VOLUME")</f>
@@ -5047,22 +5045,22 @@
       </c>
       <c r="H57">
         <f>_xll.BDP("EEX3PMDE Index","BID")</f>
-        <v>73.2</v>
+        <v>73.010000000000005</v>
       </c>
       <c r="I57">
         <f>_xll.BDP("EEX3PMDE Index","ASK")</f>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N57" t="s">
         <v>61</v>
       </c>
       <c r="O57" t="str">
         <f>_xll.BDP("EEX3PMDE Index","LAST_UPDATE_DT")</f>
-        <v>05.09.2025</v>
+        <v>12.09.2025</v>
       </c>
       <c r="P57" t="str">
         <f>_xll.BDP("EEX3PMDE Index","TIME")</f>
-        <v>05.09.2025</v>
+        <v>12.09.2025</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -5082,7 +5080,7 @@
       </c>
       <c r="C59">
         <f>_xll.BDP("EEX3CRDE Index","PX_LAST")</f>
-        <v>1.75</v>
+        <v>2.08</v>
       </c>
       <c r="D59">
         <f>_xll.BDP("EEX3CRDE Index","PX_VOLUME")</f>
@@ -5101,11 +5099,11 @@
       </c>
       <c r="O59" t="str">
         <f>_xll.BDP("EEX3CRDE Index","LAST_UPDATE_DT")</f>
-        <v>05.09.2025</v>
+        <v>12.09.2025</v>
       </c>
       <c r="P59" t="str">
         <f>_xll.BDP("EEX3CRDE Index","TIME")</f>
-        <v>05.09.2025</v>
+        <v>12.09.2025</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -5117,7 +5115,7 @@
       </c>
       <c r="C60">
         <f>_xll.BDP("EEX3MNDE Index","PX_LAST")</f>
-        <v>75.97</v>
+        <v>74.88</v>
       </c>
       <c r="D60">
         <f>_xll.BDP("EEX3MNDE Index","PX_VOLUME")</f>
@@ -5136,11 +5134,11 @@
       </c>
       <c r="O60" t="str">
         <f>_xll.BDP("EEX3MNDE Index","LAST_UPDATE_DT")</f>
-        <v>05.09.2025</v>
+        <v>12.09.2025</v>
       </c>
       <c r="P60" t="str">
         <f>_xll.BDP("EEX3MNDE Index","TIME")</f>
-        <v>05.09.2025</v>
+        <v>12.09.2025</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -5152,7 +5150,7 @@
       </c>
       <c r="C61">
         <f>_xll.BDP("EEX3MDDE Index","PX_LAST")</f>
-        <v>75.31</v>
+        <v>74.8</v>
       </c>
       <c r="D61">
         <f>_xll.BDP("EEX3MDDE Index","PX_VOLUME")</f>
@@ -5171,11 +5169,11 @@
       </c>
       <c r="O61" t="str">
         <f>_xll.BDP("EEX3MDDE Index","LAST_UPDATE_DT")</f>
-        <v>05.09.2025</v>
+        <v>12.09.2025</v>
       </c>
       <c r="P61" t="str">
         <f>_xll.BDP("EEX3MDDE Index","TIME")</f>
-        <v>05.09.2025</v>
+        <v>12.09.2025</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -5198,7 +5196,7 @@
       </c>
       <c r="C63">
         <f>_xll.BDP("EEX3BDDE Index","PX_LAST")</f>
-        <v>2964000</v>
+        <v>3524000</v>
       </c>
       <c r="D63">
         <f>_xll.BDP("EEX3BDDE Index","PX_VOLUME")</f>
@@ -5217,11 +5215,11 @@
       </c>
       <c r="O63" t="str">
         <f>_xll.BDP("EEX3BDDE Index","LAST_UPDATE_DT")</f>
-        <v>05.09.2025</v>
+        <v>12.09.2025</v>
       </c>
       <c r="P63" t="str">
         <f>_xll.BDP("EEX3BDDE Index","TIME")</f>
-        <v>05.09.2025</v>
+        <v>12.09.2025</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -5270,7 +5268,7 @@
       </c>
       <c r="C67">
         <f>_xll.BDP("EEX3EPPM Index","PX_LAST")</f>
-        <v>75.209999999999994</v>
+        <v>75.02</v>
       </c>
       <c r="D67">
         <f>_xll.BDP("EEX3EPPM Index","PX_VOLUME")</f>
@@ -5278,7 +5276,7 @@
       </c>
       <c r="H67">
         <f>_xll.BDP("EEX3EPPM Index","BID")</f>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I67">
         <f>_xll.BDP("EEX3EPPM Index","ASK")</f>
@@ -5289,11 +5287,11 @@
       </c>
       <c r="O67" t="str">
         <f>_xll.BDP("EEX3EPPM Index","LAST_UPDATE_DT")</f>
-        <v>08.09.2025</v>
+        <v>15.09.2025</v>
       </c>
       <c r="P67" t="str">
         <f>_xll.BDP("EEX3EPPM Index","TIME")</f>
-        <v>11:00:34</v>
+        <v>15.09.2025</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -5313,7 +5311,7 @@
       </c>
       <c r="C69">
         <f>_xll.BDP("EEX3EPCR Index","PX_LAST")</f>
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="D69">
         <f>_xll.BDP("EEX3EPCR Index","PX_VOLUME")</f>
@@ -5332,11 +5330,11 @@
       </c>
       <c r="O69" t="str">
         <f>_xll.BDP("EEX3EPCR Index","LAST_UPDATE_DT")</f>
-        <v>08.09.2025</v>
+        <v>15.09.2025</v>
       </c>
       <c r="P69" t="str">
         <f>_xll.BDP("EEX3EPCR Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -5348,7 +5346,7 @@
       </c>
       <c r="C70">
         <f>_xll.BDP("EEX3MNEP Index","PX_LAST")</f>
-        <v>75</v>
+        <v>74.83</v>
       </c>
       <c r="D70">
         <f>_xll.BDP("EEX3MNEP Index","PX_VOLUME")</f>
@@ -5367,11 +5365,11 @@
       </c>
       <c r="O70" t="str">
         <f>_xll.BDP("EEX3MNEP Index","LAST_UPDATE_DT")</f>
-        <v>08.09.2025</v>
+        <v>15.09.2025</v>
       </c>
       <c r="P70" t="str">
         <f>_xll.BDP("EEX3MNEP Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -5383,7 +5381,7 @@
       </c>
       <c r="C71">
         <f>_xll.BDP("EEX3MDEP Index","PX_LAST")</f>
-        <v>74.959999999999994</v>
+        <v>74.84</v>
       </c>
       <c r="D71">
         <f>_xll.BDP("EEX3MDEP Index","PX_VOLUME")</f>
@@ -5402,11 +5400,11 @@
       </c>
       <c r="O71" t="str">
         <f>_xll.BDP("EEX3MDEP Index","LAST_UPDATE_DT")</f>
-        <v>08.09.2025</v>
+        <v>15.09.2025</v>
       </c>
       <c r="P71" t="str">
         <f>_xll.BDP("EEX3MDEP Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -5429,7 +5427,7 @@
       </c>
       <c r="C73">
         <f>_xll.BDP("EEX3BDEP Index","PX_LAST")</f>
-        <v>5514500</v>
+        <v>5812000</v>
       </c>
       <c r="D73">
         <f>_xll.BDP("EEX3BDEP Index","PX_VOLUME")</f>
@@ -5448,11 +5446,11 @@
       </c>
       <c r="O73" t="str">
         <f>_xll.BDP("EEX3BDEP Index","LAST_UPDATE_DT")</f>
-        <v>08.09.2025</v>
+        <v>15.09.2025</v>
       </c>
       <c r="P73" t="str">
         <f>_xll.BDP("EEX3BDEP Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -5501,7 +5499,7 @@
       </c>
       <c r="C77">
         <f>_xll.BDP("EEX3PMEU Index","PX_LAST")</f>
-        <v>75.209999999999994</v>
+        <v>75.02</v>
       </c>
       <c r="D77">
         <f>_xll.BDP("EEX3PMEU Index","PX_VOLUME")</f>
@@ -5509,7 +5507,7 @@
       </c>
       <c r="H77">
         <f>_xll.BDP("EEX3PMEU Index","BID")</f>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I77">
         <f>_xll.BDP("EEX3PMEU Index","ASK")</f>
@@ -5520,11 +5518,11 @@
       </c>
       <c r="O77" t="str">
         <f>_xll.BDP("EEX3PMEU Index","LAST_UPDATE_DT")</f>
-        <v>08.09.2025</v>
+        <v>15.09.2025</v>
       </c>
       <c r="P77" t="str">
         <f>_xll.BDP("EEX3PMEU Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -5544,7 +5542,7 @@
       </c>
       <c r="C79">
         <f>_xll.BDP("EEX3CREU Index","PX_LAST")</f>
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="D79">
         <f>_xll.BDP("EEX3CREU Index","PX_VOLUME")</f>
@@ -5563,11 +5561,11 @@
       </c>
       <c r="O79" t="str">
         <f>_xll.BDP("EEX3CREU Index","LAST_UPDATE_DT")</f>
-        <v>08.09.2025</v>
+        <v>15.09.2025</v>
       </c>
       <c r="P79" t="str">
         <f>_xll.BDP("EEX3CREU Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -5579,7 +5577,7 @@
       </c>
       <c r="C80">
         <f>_xll.BDP("EEX3MNEU Index","PX_LAST")</f>
-        <v>75</v>
+        <v>74.83</v>
       </c>
       <c r="D80">
         <f>_xll.BDP("EEX3MNEU Index","PX_VOLUME")</f>
@@ -5598,11 +5596,11 @@
       </c>
       <c r="O80" t="str">
         <f>_xll.BDP("EEX3MNEU Index","LAST_UPDATE_DT")</f>
-        <v>08.09.2025</v>
+        <v>15.09.2025</v>
       </c>
       <c r="P80" t="str">
         <f>_xll.BDP("EEX3MNEU Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -5614,7 +5612,7 @@
       </c>
       <c r="C81">
         <f>_xll.BDP("EEX3MDEU Index","PX_LAST")</f>
-        <v>74.959999999999994</v>
+        <v>74.84</v>
       </c>
       <c r="D81">
         <f>_xll.BDP("EEX3MDEU Index","PX_VOLUME")</f>
@@ -5633,11 +5631,11 @@
       </c>
       <c r="O81" t="str">
         <f>_xll.BDP("EEX3MDEU Index","LAST_UPDATE_DT")</f>
-        <v>08.09.2025</v>
+        <v>15.09.2025</v>
       </c>
       <c r="P81" t="str">
         <f>_xll.BDP("EEX3MDEU Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -5660,7 +5658,7 @@
       </c>
       <c r="C83">
         <f>_xll.BDP("EEX3BDEU Index","PX_LAST")</f>
-        <v>5514500</v>
+        <v>5812000</v>
       </c>
       <c r="D83">
         <f>_xll.BDP("EEX3BDEU Index","PX_VOLUME")</f>
@@ -5679,11 +5677,11 @@
       </c>
       <c r="O83" t="str">
         <f>_xll.BDP("EEX3BDEU Index","LAST_UPDATE_DT")</f>
-        <v>08.09.2025</v>
+        <v>15.09.2025</v>
       </c>
       <c r="P83" t="str">
         <f>_xll.BDP("EEX3BDEU Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>15.09.2025</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -7266,26 +7264,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A30:P30"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="A33:P33"/>
+    <mergeCell ref="A43:P43"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="A65:P65"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A95:P95"/>
+    <mergeCell ref="A105:P105"/>
     <mergeCell ref="A115:P115"/>
     <mergeCell ref="A116:P116"/>
     <mergeCell ref="A126:P126"/>
     <mergeCell ref="A137:P137"/>
     <mergeCell ref="A147:P147"/>
-    <mergeCell ref="A65:P65"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A95:P95"/>
-    <mergeCell ref="A105:P105"/>
-    <mergeCell ref="A30:P30"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="A33:P33"/>
-    <mergeCell ref="A43:P43"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A27:P27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Auctions EUA.xlsx
+++ b/Auctions EUA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730126E1-7086-4097-A5BC-E8196E1B1E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84CC300-89D5-4145-A42F-4B7DD0FD0585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -873,7 +873,7 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
         <stp/>
         <stp>BDP|3018607617448695053|22</stp>
         <stp>EEX3SCCB Index</stp>
@@ -905,7 +905,7 @@
         <tr r="I109" s="2"/>
       </tp>
       <tp t="s">
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
         <stp/>
         <stp>BDP|3943920066704382928|22</stp>
         <stp>UKATOBID Index</stp>
@@ -921,7 +921,7 @@
         <tr r="H101" s="2"/>
       </tp>
       <tp t="s">
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
         <stp/>
         <stp>BDP|5088816692015618598|22</stp>
         <stp>UKACORAT Index</stp>
@@ -945,7 +945,7 @@
         <tr r="H103" s="2"/>
       </tp>
       <tp t="s">
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
         <stp/>
         <stp>BDP|4191428704799251462|22</stp>
         <stp>EEX3TOTB Index</stp>
@@ -953,7 +953,7 @@
         <tr r="P51" s="2"/>
       </tp>
       <tp>
-        <v>80</v>
+        <v>85</v>
         <stp/>
         <stp>BDP|10519417515402280991|22</stp>
         <stp>EEX3EPPM Index</stp>
@@ -986,6 +986,8 @@
         <stp>ASK</stp>
         <tr r="I101" s="2"/>
       </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
@@ -995,7 +997,7 @@
         <tr r="I60" s="2"/>
       </tp>
       <tp>
-        <v>80</v>
+        <v>85</v>
         <stp/>
         <stp>BDP|10342386707909489377|22</stp>
         <stp>EEX3X3PL Index</stp>
@@ -1075,7 +1077,7 @@
         <tr r="I113" s="2"/>
       </tp>
       <tp>
-        <v>73.010000000000005</v>
+        <v>68</v>
         <stp/>
         <stp>BDP|15420833856443191727|22</stp>
         <stp>EEX3PMDE Index</stp>
@@ -1115,7 +1117,7 @@
         <tr r="P97" s="2"/>
       </tp>
       <tp t="s">
-        <v>03.09.2025</v>
+        <v>#N/A Real Time</v>
         <stp/>
         <stp>BDP|4461466310551583618|22</stp>
         <stp>RGGIAAQS Index</stp>
@@ -1131,7 +1133,7 @@
         <tr r="H59" s="2"/>
       </tp>
       <tp t="s">
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
         <stp/>
         <stp>BDP|5161086271000779607|22</stp>
         <stp>EEX3X3PL Index</stp>
@@ -1139,7 +1141,7 @@
         <tr r="P87" s="2"/>
       </tp>
       <tp t="s">
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
         <stp/>
         <stp>BDP|1494356953421449542|22</stp>
         <stp>EEXXT3PA Index</stp>
@@ -1179,25 +1181,25 @@
         <tr r="H70" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4015443499</v>
+        <v>#N/A Requesting Data...3250351049</v>
         <stp/>
         <stp>BDP|11269571729604204855</stp>
         <tr r="C145" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4177232085</v>
+        <v>#N/A Requesting Data...3890682305</v>
         <stp/>
         <stp>BDP|10943788378258769235</stp>
         <tr r="D109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3672765954</v>
+        <v>#N/A Requesting Data...3738810328</v>
         <stp/>
         <stp>BDP|13172746922254409863</stp>
         <tr r="O80" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3670024658</v>
+        <v>#N/A Requesting Data...2457863161</v>
         <stp/>
         <stp>BDP|14497910193647682945</stp>
         <tr r="D70" s="2"/>
@@ -1211,7 +1213,7 @@
         <tr r="P111" s="2"/>
       </tp>
       <tp t="s">
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
         <stp/>
         <stp>BDP|9541173970769276266|22</stp>
         <stp>EEX3EPCR Index</stp>
@@ -1219,7 +1221,7 @@
         <tr r="P69" s="2"/>
       </tp>
       <tp t="s">
-        <v>12.09.2025</v>
+        <v>19.09.2025</v>
         <stp/>
         <stp>BDP|3193189600887063507|22</stp>
         <stp>EEX3CRDE Index</stp>
@@ -1227,7 +1229,7 @@
         <tr r="P59" s="2"/>
       </tp>
       <tp>
-        <v>80</v>
+        <v>85</v>
         <stp/>
         <stp>BDP|11258790351540468562|22</stp>
         <stp>EEX3PMEU Index</stp>
@@ -1243,25 +1245,25 @@
         <tr r="H83" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3964882600</v>
+        <v>#N/A Requesting Data...3427312236</v>
         <stp/>
         <stp>BDP|18008250999471656922</stp>
         <tr r="D91" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3289744916</v>
+        <v>#N/A Requesting Data...3561360516</v>
         <stp/>
         <stp>BDP|17732115207434946955</stp>
         <tr r="O35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3516614438</v>
+        <v>#N/A Requesting Data...1806885009</v>
         <stp/>
         <stp>BDP|17883504586526473761</stp>
         <tr r="D60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3421024677</v>
+        <v>#N/A Requesting Data...2236938383</v>
         <stp/>
         <stp>BDP|17453411474857561889</stp>
         <tr r="C51" s="2"/>
@@ -1275,25 +1277,25 @@
         <tr r="P123" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4115973122</v>
+        <v>#N/A Requesting Data...2251854390</v>
         <stp/>
         <stp>BDP|17440720740509750509</stp>
         <tr r="D131" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3285411880</v>
+        <v>#N/A Requesting Data...3336907889</v>
         <stp/>
         <stp>BDP|13137573291627110020</stp>
         <tr r="O122" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3586391974</v>
+        <v>#N/A Requesting Data...2501588925</v>
         <stp/>
         <stp>BDP|12589828556680285779</stp>
         <tr r="C131" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3305872981</v>
+        <v>#N/A Requesting Data...4290737813</v>
         <stp/>
         <stp>BDP|14677421799633940220</stp>
         <tr r="D135" s="2"/>
@@ -1315,25 +1317,25 @@
         <tr r="H60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3997759264</v>
+        <v>#N/A Requesting Data...2748103035</v>
         <stp/>
         <stp>BDP|13392001727258142092</stp>
         <tr r="O125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4109560418</v>
+        <v>#N/A Requesting Data...1847363566</v>
         <stp/>
         <stp>BDP|14017755899281818256</stp>
         <tr r="D39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2969785147</v>
+        <v>#N/A Requesting Data...4149201957</v>
         <stp/>
         <stp>BDP|15783964005736454339</stp>
         <tr r="D51" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3977131866</v>
+        <v>#N/A Requesting Data...4070806589</v>
         <stp/>
         <stp>BDP|15365985838177005150</stp>
         <tr r="O49" s="2"/>
@@ -1363,7 +1365,7 @@
         <tr r="I70" s="2"/>
       </tp>
       <tp t="s">
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
         <stp/>
         <stp>BDP|17032143300330279338|22</stp>
         <stp>UKAAUPR Index</stp>
@@ -1371,25 +1373,25 @@
         <tr r="P35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2847622950</v>
+        <v>#N/A Requesting Data...3611021845</v>
         <stp/>
         <stp>BDP|15339769723328136685</stp>
         <tr r="C63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3769226780</v>
+        <v>#N/A Requesting Data...3643830513</v>
         <stp/>
         <stp>BDP|18033101966751297072</stp>
         <tr r="C67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3580892047</v>
+        <v>#N/A Requesting Data...1963470229</v>
         <stp/>
         <stp>BDP|14450087638141730867</stp>
         <tr r="D59" s="2"/>
       </tp>
       <tp t="s">
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
         <stp/>
         <stp>BDP|6821914525563686864|22</stp>
         <stp>EEX3MDT3 Index</stp>
@@ -1421,85 +1423,85 @@
         <tr r="I41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3724259517</v>
+        <v>#N/A Requesting Data...3995451885</v>
         <stp/>
         <stp>BDP|18411307338470386767</stp>
         <tr r="D99" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3269616314</v>
+        <v>#N/A Requesting Data...4288024917</v>
         <stp/>
         <stp>BDP|10666662405090903935</stp>
         <tr r="C107" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4000454239</v>
+        <v>#N/A Requesting Data...2514004578</v>
         <stp/>
         <stp>BDP|14977427384300822780</stp>
         <tr r="O51" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3886509497</v>
+        <v>#N/A Requesting Data...2565067949</v>
         <stp/>
         <stp>BDP|16823031330433881965</stp>
         <tr r="C79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3963059646</v>
+        <v>#N/A Requesting Data...3943395630</v>
         <stp/>
         <stp>BDP|11920132482670808779</stp>
         <tr r="O121" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3826561772</v>
+        <v>#N/A Requesting Data...1917848317</v>
         <stp/>
         <stp>BDP|16946453695197801084</stp>
         <tr r="D71" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3224873639</v>
+        <v>#N/A Requesting Data...3459984338</v>
         <stp/>
         <stp>BDP|17933236663647161806</stp>
         <tr r="O142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3383474557</v>
+        <v>#N/A Requesting Data...3922017721</v>
         <stp/>
         <stp>BDP|16760592922515211860</stp>
         <tr r="C135" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3877342036</v>
+        <v>#N/A Requesting Data...3285113112</v>
         <stp/>
         <stp>BDP|17148762016524255989</stp>
         <tr r="C73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3006781348</v>
+        <v>#N/A Requesting Data...3107016420</v>
         <stp/>
         <stp>BDP|18309468170035994204</stp>
         <tr r="C129" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4001191359</v>
+        <v>#N/A Requesting Data...2681065295</v>
         <stp/>
         <stp>BDP|17271087938758253012</stp>
         <tr r="C57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3876443203</v>
+        <v>#N/A Requesting Data...2777364293</v>
         <stp/>
         <stp>BDP|12870303344301412882</stp>
         <tr r="C91" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3102195089</v>
+        <v>#N/A Requesting Data...2687312394</v>
         <stp/>
         <stp>BDP|11040138180590694408</stp>
         <tr r="C81" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3456781981</v>
+        <v>#N/A Requesting Data...2311934040</v>
         <stp/>
         <stp>BDP|11220363830214973997</stp>
         <tr r="C50" s="2"/>
@@ -1513,49 +1515,49 @@
         <tr r="I121" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3534737128</v>
+        <v>#N/A Requesting Data...2592647839</v>
         <stp/>
         <stp>BDP|10310929788149374579</stp>
         <tr r="C80" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4117892515</v>
+        <v>#N/A Requesting Data...2384707741</v>
         <stp/>
         <stp>BDP|17645551591513564590</stp>
         <tr r="C119" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4247453697</v>
+        <v>#N/A Requesting Data...2841145237</v>
         <stp/>
         <stp>BDP|11799929507266026330</stp>
         <tr r="C93" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3752988151</v>
+        <v>#N/A Requesting Data...4211723526</v>
         <stp/>
         <stp>BDP|12376569583387116556</stp>
         <tr r="D77" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3950835226</v>
+        <v>#N/A Requesting Data...2078804963</v>
         <stp/>
         <stp>BDP|12929767077087211884</stp>
         <tr r="C90" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3862252770</v>
+        <v>#N/A Requesting Data...2893365474</v>
         <stp/>
         <stp>BDP|12746681013678887006</stp>
         <tr r="C83" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3703004036</v>
+        <v>#N/A Requesting Data...2059962829</v>
         <stp/>
         <stp>BDP|12638693508540193928</stp>
         <tr r="O83" s="2"/>
       </tp>
       <tp t="s">
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
         <stp/>
         <stp>BDP|6553737273572010062|22</stp>
         <stp>EEX3BDEP Index</stp>
@@ -1595,19 +1597,19 @@
         <tr r="P133" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3519250584</v>
+        <v>#N/A Requesting Data...3596181223</v>
         <stp/>
         <stp>BDP|17119275309777085060</stp>
         <tr r="D97" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4040920114</v>
+        <v>#N/A Requesting Data...3881300558</v>
         <stp/>
         <stp>BDP|16334400116593439221</stp>
         <tr r="D103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3588822046</v>
+        <v>#N/A Requesting Data...3018110977</v>
         <stp/>
         <stp>BDP|17261400698320790895</stp>
         <tr r="O123" s="2"/>
@@ -1621,7 +1623,7 @@
         <tr r="P100" s="2"/>
       </tp>
       <tp t="s">
-        <v>12.09.2025</v>
+        <v>19.09.2025</v>
         <stp/>
         <stp>BDP|4742737479639692576|22</stp>
         <stp>EEX3BDDE Index</stp>
@@ -1637,55 +1639,55 @@
         <tr r="P128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3965881026</v>
+        <v>#N/A Requesting Data...4106010718</v>
         <stp/>
         <stp>BDP|10231084159133314599</stp>
         <tr r="O63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4046162472</v>
+        <v>#N/A Requesting Data...3982265701</v>
         <stp/>
         <stp>BDP|10762113169831043550</stp>
         <tr r="C59" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3153180574</v>
+        <v>#N/A Requesting Data...1864030556</v>
         <stp/>
         <stp>BDP|16233839828067587813</stp>
         <tr r="O69" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4222430442</v>
+        <v>#N/A Requesting Data...2851178988</v>
         <stp/>
         <stp>BDP|18112152192717370493</stp>
         <tr r="D57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3090092305</v>
+        <v>#N/A Requesting Data...3504221341</v>
         <stp/>
         <stp>BDP|12631048552532555647</stp>
         <tr r="C45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3991222635</v>
+        <v>#N/A Requesting Data...3890383162</v>
         <stp/>
         <stp>BDP|16257536659004183193</stp>
         <tr r="D61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3971761048</v>
+        <v>#N/A Requesting Data...4170548905</v>
         <stp/>
         <stp>BDP|11773772447184358568</stp>
         <tr r="D67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3839314749</v>
+        <v>#N/A Requesting Data...3459423573</v>
         <stp/>
         <stp>BDP|11036023536593262247</stp>
         <tr r="D80" s="2"/>
       </tp>
       <tp t="s">
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
         <stp/>
         <stp>BDP|4789583064645529089|22</stp>
         <stp>EEX3BDEU Index</stp>
@@ -1701,13 +1703,13 @@
         <tr r="I69" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3027428478</v>
+        <v>#N/A Requesting Data...2602515740</v>
         <stp/>
         <stp>BDP|10371740171936643690</stp>
         <tr r="C121" s="2"/>
       </tp>
       <tp t="s">
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
         <stp/>
         <stp>BDP|7806871558314808470|22</stp>
         <stp>EEX3MNT3 Index</stp>
@@ -1731,49 +1733,49 @@
         <tr r="P109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3815977665</v>
+        <v>#N/A Requesting Data...4251662777</v>
         <stp/>
         <stp>BDP|10450986407190051879</stp>
         <tr r="O113" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3477158551</v>
+        <v>#N/A Requesting Data...3791592779</v>
         <stp/>
         <stp>BDP|17345118041494135735</stp>
         <tr r="O39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3614682800</v>
+        <v>#N/A Requesting Data...1935214957</v>
         <stp/>
         <stp>BDP|12312559960178218854</stp>
         <tr r="O60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3381301791</v>
+        <v>#N/A Requesting Data...3230421608</v>
         <stp/>
         <stp>BDP|18235654050928285246</stp>
         <tr r="D118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4059836602</v>
+        <v>#N/A Requesting Data...2737188729</v>
         <stp/>
         <stp>BDP|11908180946526696355</stp>
         <tr r="O77" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4231431289</v>
+        <v>#N/A Requesting Data...4281309751</v>
         <stp/>
         <stp>BDP|16041498039241224153</stp>
         <tr r="D50" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4185551433</v>
+        <v>#N/A Requesting Data...2209825871</v>
         <stp/>
         <stp>BDP|15600557786638647149</stp>
         <tr r="O135" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3906811404</v>
+        <v>#N/A Requesting Data...2790566871</v>
         <stp/>
         <stp>BDP|17201301560995300668</stp>
         <tr r="C128" s="2"/>
@@ -1803,61 +1805,61 @@
         <tr r="I118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3784494913</v>
+        <v>#N/A Requesting Data...2706101037</v>
         <stp/>
         <stp>BDP|11964424655954108243</stp>
         <tr r="O152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3886025861</v>
+        <v>#N/A Requesting Data...3391047742</v>
         <stp/>
         <stp>BDP|15039250998841436929</stp>
         <tr r="C70" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3315840107</v>
+        <v>#N/A Requesting Data...3083416061</v>
         <stp/>
         <stp>BDP|12983476071071398635</stp>
         <tr r="D121" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3199023420</v>
+        <v>#N/A Requesting Data...2289970885</v>
         <stp/>
         <stp>BDP|13022728685482255840</stp>
         <tr r="D151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3766466485</v>
+        <v>#N/A Requesting Data...2054624788</v>
         <stp/>
         <stp>BDP|14787445835483775602</stp>
         <tr r="C49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3018252738</v>
+        <v>#N/A Requesting Data...3642960576</v>
         <stp/>
         <stp>BDP|13835889490117150311</stp>
         <tr r="C41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3958345970</v>
+        <v>#N/A Requesting Data...3269636898</v>
         <stp/>
         <stp>BDP|11777284828983264462</stp>
         <tr r="C152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3486987924</v>
+        <v>#N/A Requesting Data...2497927002</v>
         <stp/>
         <stp>BDP|16175526658473866307</stp>
         <tr r="O101" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4026513815</v>
+        <v>#N/A Requesting Data...2123098325</v>
         <stp/>
         <stp>BDP|17426017852985395138</stp>
         <tr r="D125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4056197307</v>
+        <v>#N/A Requesting Data...3407620163</v>
         <stp/>
         <stp>BDP|11679146174687658674</stp>
         <tr r="O61" s="2"/>
@@ -1879,49 +1881,49 @@
         <tr r="I73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4119953105</v>
+        <v>#N/A Requesting Data...2869209014</v>
         <stp/>
         <stp>BDP|11739412558546315165</stp>
         <tr r="O107" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4208012587</v>
+        <v>#N/A Requesting Data...4120578157</v>
         <stp/>
         <stp>BDP|17821757611616847099</stp>
         <tr r="D73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3198485611</v>
+        <v>#N/A Requesting Data...2957870687</v>
         <stp/>
         <stp>BDP|12363162891205314891</stp>
         <tr r="C132" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4125168767</v>
+        <v>#N/A Requesting Data...2636773935</v>
         <stp/>
         <stp>BDP|16498489714365827135</stp>
         <tr r="O38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3525188698</v>
+        <v>#N/A Requesting Data...1917955056</v>
         <stp/>
         <stp>BDP|17756265275154491129</stp>
         <tr r="D152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3487589243</v>
+        <v>#N/A Requesting Data...2247837263</v>
         <stp/>
         <stp>BDP|11973396237516626030</stp>
         <tr r="D122" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3078664100</v>
+        <v>#N/A Requesting Data...3400120643</v>
         <stp/>
         <stp>BDP|13226662244594317259</stp>
         <tr r="O141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3491101339</v>
+        <v>#N/A Requesting Data...2219022147</v>
         <stp/>
         <stp>BDP|17779836694136602703</stp>
         <tr r="D69" s="2"/>
@@ -1943,37 +1945,37 @@
         <tr r="H35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4053148960</v>
+        <v>#N/A Requesting Data...3791314564</v>
         <stp/>
         <stp>BDP|17702743798129095414</stp>
         <tr r="C109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4120215347</v>
+        <v>#N/A Requesting Data...3086672099</v>
         <stp/>
         <stp>BDP|14502996891943856393</stp>
         <tr r="D107" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4244726100</v>
+        <v>#N/A Requesting Data...3925648921</v>
         <stp/>
         <stp>BDP|14009510159603117373</stp>
         <tr r="C151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3586778415</v>
+        <v>#N/A Requesting Data...3645066545</v>
         <stp/>
         <stp>BDP|17433439855215748722</stp>
         <tr r="D63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4120101594</v>
+        <v>#N/A Requesting Data...4120653582</v>
         <stp/>
         <stp>BDP|15963953319790315909</stp>
         <tr r="O132" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3054489628</v>
+        <v>#N/A Requesting Data...2879726361</v>
         <stp/>
         <stp>BDP|10568242787378537653</stp>
         <tr r="O37" s="2"/>
@@ -1987,37 +1989,37 @@
         <tr r="I79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3849411146</v>
+        <v>#N/A Requesting Data...3565528278</v>
         <stp/>
         <stp>BDP|13291842058863532828</stp>
         <tr r="O70" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4003228977</v>
+        <v>#N/A Requesting Data...4136531630</v>
         <stp/>
         <stp>BDP|12418513149975378324</stp>
         <tr r="C97" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3481410763</v>
+        <v>#N/A Requesting Data...3693669302</v>
         <stp/>
         <stp>BDP|14876410132956204074</stp>
         <tr r="D89" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3308766736</v>
+        <v>#N/A Requesting Data...2199037899</v>
         <stp/>
         <stp>BDP|12662972772298021130</stp>
         <tr r="O41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4153795322</v>
+        <v>#N/A Requesting Data...3386333179</v>
         <stp/>
         <stp>BDP|15876548244805841436</stp>
         <tr r="O151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3011127904</v>
+        <v>#N/A Requesting Data...2222004901</v>
         <stp/>
         <stp>BDP|12436206503061465444</stp>
         <tr r="O89" s="2"/>
@@ -2033,7 +2035,7 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Real Time</v>
         <stp/>
         <stp>BDP|677811009837369073|22</stp>
         <stp>RGGIAAQS Index</stp>
@@ -2041,7 +2043,7 @@
         <tr r="I145" s="2"/>
       </tp>
       <tp t="s">
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
         <stp/>
         <stp>BDP|14673752842554335912|22</stp>
         <stp>UKASBBID Index</stp>
@@ -2097,7 +2099,7 @@
         <tr r="H81" s="2"/>
       </tp>
       <tp>
-        <v>64</v>
+        <v>70</v>
         <stp/>
         <stp>BDP|8894173801250207596|22</stp>
         <stp>EEX3PMEU Index</stp>
@@ -2105,7 +2107,7 @@
         <tr r="H77" s="2"/>
       </tp>
       <tp t="s">
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
         <stp/>
         <stp>BDP|14914340425937262400|22</stp>
         <stp>EEX3PMEU Index</stp>
@@ -2137,7 +2139,7 @@
         <tr r="P121" s="2"/>
       </tp>
       <tp t="s">
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
         <stp/>
         <stp>BDP|1983300863809941800|22</stp>
         <stp>UKABIDS Index</stp>
@@ -2153,7 +2155,7 @@
         <tr r="H132" s="2"/>
       </tp>
       <tp t="s">
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
         <stp/>
         <stp>BDP|558483427366924145|22</stp>
         <stp>EEX3MNPL Index</stp>
@@ -2161,7 +2163,7 @@
         <tr r="P90" s="2"/>
       </tp>
       <tp t="s">
-        <v>12.09.2025</v>
+        <v>19.09.2025</v>
         <stp/>
         <stp>BDP|14840393295774202550|22</stp>
         <stp>EEX3PMDE Index</stp>
@@ -2185,7 +2187,7 @@
         <tr r="H113" s="2"/>
       </tp>
       <tp t="s">
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
         <stp/>
         <stp>BDP|16469111007550779531|22</stp>
         <stp>EEX3MNEU Index</stp>
@@ -2233,7 +2235,7 @@
         <tr r="P110" s="2"/>
       </tp>
       <tp t="s">
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
         <stp/>
         <stp>BDP|12982193450868361324|22</stp>
         <stp>EEX3MDEP Index</stp>
@@ -2282,7 +2284,7 @@
         <tr r="P149" s="2"/>
       </tp>
       <tp t="s">
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
         <stp/>
         <stp>BDP|14229205055830819259|22</stp>
         <stp>EEX3MDEU Index</stp>
@@ -2290,7 +2292,7 @@
         <tr r="P81" s="2"/>
       </tp>
       <tp t="s">
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
         <stp/>
         <stp>BDP|16855049126625485315|22</stp>
         <stp>EEX3MNEP Index</stp>
@@ -2322,7 +2324,7 @@
         <tr r="P152" s="2"/>
       </tp>
       <tp t="s">
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
         <stp/>
         <stp>BDP|15098924859057617101|22</stp>
         <stp>EEX3BDPL Index</stp>
@@ -2330,7 +2332,7 @@
         <tr r="P93" s="2"/>
       </tp>
       <tp t="s">
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
         <stp/>
         <stp>BDP|16380762434944732614|22</stp>
         <stp>EEX3CREU Index</stp>
@@ -2338,7 +2340,7 @@
         <tr r="P79" s="2"/>
       </tp>
       <tp t="s">
-        <v>15.09.2025</v>
+        <v>11:00:28</v>
         <stp/>
         <stp>BDP|15913837711201520928|22</stp>
         <stp>EEX3EPPM Index</stp>
@@ -2362,7 +2364,7 @@
         <tr r="P132" s="2"/>
       </tp>
       <tp t="s">
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
         <stp/>
         <stp>BDP|10360780237680756815|22</stp>
         <stp>EEX3MDPL Index</stp>
@@ -2370,7 +2372,7 @@
         <tr r="P91" s="2"/>
       </tp>
       <tp t="s">
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
         <stp/>
         <stp>BDP|15694925664041655440|22</stp>
         <stp>EEX3BDT3 Index</stp>
@@ -2410,7 +2412,7 @@
         <tr r="H63" s="2"/>
       </tp>
       <tp t="s">
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
         <stp/>
         <stp>BDP|14809909160782766798|22</stp>
         <stp>EEX3CRT3 Index</stp>
@@ -2426,7 +2428,7 @@
         <tr r="H110" s="2"/>
       </tp>
       <tp t="s">
-        <v>12.09.2025</v>
+        <v>19.09.2025</v>
         <stp/>
         <stp>BDP|12484327023668429337|22</stp>
         <stp>EEX3MNDE Index</stp>
@@ -2450,7 +2452,7 @@
         <tr r="H50" s="2"/>
       </tp>
       <tp>
-        <v>64</v>
+        <v>70</v>
         <stp/>
         <stp>BDP|4673945679228878777|22</stp>
         <stp>EEX3EPPM Index</stp>
@@ -2466,7 +2468,7 @@
         <tr r="P103" s="2"/>
       </tp>
       <tp t="s">
-        <v>12.09.2025</v>
+        <v>19.09.2025</v>
         <stp/>
         <stp>BDP|10597827675332248545|22</stp>
         <stp>EEX3MDDE Index</stp>
@@ -2474,49 +2476,49 @@
         <tr r="P61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3841871189</v>
+        <v>#N/A Requesting Data...3180838044</v>
         <stp/>
         <stp>BDP|4124903069222755554</stp>
         <tr r="O87" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3277273700</v>
+        <v>#N/A Requesting Data...2271976617</v>
         <stp/>
         <stp>BDP|8892146774205393713</stp>
         <tr r="D129" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4247446367</v>
+        <v>#N/A Requesting Data...3312639738</v>
         <stp/>
         <stp>BDP|2477959445181429293</stp>
         <tr r="O129" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3700629884</v>
+        <v>#N/A Requesting Data...3468738610</v>
         <stp/>
         <stp>BDP|9350291445254965784</stp>
         <tr r="D37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4274708041</v>
+        <v>#N/A Requesting Data...2258087727</v>
         <stp/>
         <stp>BDP|6891918115273664161</stp>
         <tr r="D139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4056532981</v>
+        <v>#N/A Requesting Data...3847081052</v>
         <stp/>
         <stp>BDP|3573415783287593449</stp>
         <tr r="C48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4250433085</v>
+        <v>#N/A Requesting Data...2384382038</v>
         <stp/>
         <stp>BDP|8619946037809089717</stp>
         <tr r="O73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4029871239</v>
+        <v>#N/A Requesting Data...3511214717</v>
         <stp/>
         <stp>BDP|8134701725687838685</stp>
         <tr r="D101" s="2"/>
@@ -2530,13 +2532,13 @@
         <tr r="H141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3815722211</v>
+        <v>#N/A Requesting Data...4213229489</v>
         <stp/>
         <stp>BDP|2337395976008307323</stp>
         <tr r="D133" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3637006495</v>
+        <v>#N/A Requesting Data...2343850864</v>
         <stp/>
         <stp>BDP|7346443724919908584</stp>
         <tr r="C143" s="2"/>
@@ -2550,55 +2552,55 @@
         <tr r="H47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4082717680</v>
+        <v>#N/A Requesting Data...2704687649</v>
         <stp/>
         <stp>BDP|2452480886172944101</stp>
         <tr r="D83" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3729932994</v>
+        <v>#N/A Requesting Data...3596885998</v>
         <stp/>
         <stp>BDP|3988758046487897994</stp>
         <tr r="O100" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3521369795</v>
+        <v>#N/A Requesting Data...3907779496</v>
         <stp/>
         <stp>BDP|8487968754382467898</stp>
         <tr r="O111" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4054312561</v>
+        <v>#N/A Requesting Data...2348516373</v>
         <stp/>
         <stp>BDP|3168197062443776948</stp>
         <tr r="O97" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3245337772</v>
+        <v>#N/A Requesting Data...2503298807</v>
         <stp/>
         <stp>BDP|3191294011039253743</stp>
         <tr r="C100" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4082034285</v>
+        <v>#N/A Requesting Data...1895286610</v>
         <stp/>
         <stp>BDP|8158190943367710418</stp>
         <tr r="D141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3493545172</v>
+        <v>#N/A Requesting Data...4057800672</v>
         <stp/>
         <stp>BDP|9753944506837726937</stp>
         <tr r="O139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3078346322</v>
+        <v>#N/A Requesting Data...3539646415</v>
         <stp/>
         <stp>BDP|2383970352993755307</stp>
         <tr r="D111" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3967888254</v>
+        <v>#N/A Requesting Data...3327878349</v>
         <stp/>
         <stp>BDP|8422754563225257254</stp>
         <tr r="D119" s="2"/>
@@ -2612,67 +2614,67 @@
         <tr r="I103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3217156229</v>
+        <v>#N/A Requesting Data...1918514260</v>
         <stp/>
         <stp>BDP|1905452132299753056</stp>
         <tr r="C39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3266019020</v>
+        <v>#N/A Requesting Data...2061164887</v>
         <stp/>
         <stp>BDP|9168179234227771399</stp>
         <tr r="O128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4270017994</v>
+        <v>#N/A Requesting Data...3282688730</v>
         <stp/>
         <stp>BDP|2740714101503839931</stp>
         <tr r="C141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3668924683</v>
+        <v>#N/A Requesting Data...4099122996</v>
         <stp/>
         <stp>BDP|7992263003279543384</stp>
         <tr r="D142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3788760904</v>
+        <v>#N/A Requesting Data...2883420745</v>
         <stp/>
         <stp>BDP|5477825144986453010</stp>
         <tr r="O59" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3467204943</v>
+        <v>#N/A Requesting Data...1981112941</v>
         <stp/>
         <stp>BDP|8165965388487479679</stp>
         <tr r="O81" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3487679625</v>
+        <v>#N/A Requesting Data...3804800462</v>
         <stp/>
         <stp>BDP|5675445137023195982</stp>
         <tr r="O143" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3587465326</v>
+        <v>#N/A Requesting Data...3921749312</v>
         <stp/>
         <stp>BDP|4173264548992531864</stp>
         <tr r="O109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3747197307</v>
+        <v>#N/A Requesting Data...2993262965</v>
         <stp/>
         <stp>BDP|6322017615579378624</stp>
         <tr r="O90" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3819986705</v>
+        <v>#N/A Requesting Data...3641971996</v>
         <stp/>
         <stp>BDP|7700706960287514955</stp>
         <tr r="O99" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3761102564</v>
+        <v>#N/A Requesting Data...3062497195</v>
         <stp/>
         <stp>BDP|2684958064503521663</stp>
         <tr r="C87" s="2"/>
@@ -2686,7 +2688,7 @@
         <tr r="I143" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4045283842</v>
+        <v>#N/A Requesting Data...2697217946</v>
         <stp/>
         <stp>BDP|2825895505117461495</stp>
         <tr r="O57" s="2"/>
@@ -2700,13 +2702,13 @@
         <tr r="I141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3616998471</v>
+        <v>#N/A Requesting Data...2266099368</v>
         <stp/>
         <stp>BDP|5555436835568594389</stp>
         <tr r="D145" s="2"/>
       </tp>
       <tp>
-        <v>80</v>
+        <v>120</v>
         <stp/>
         <stp>BDP|328381708441600475|22</stp>
         <stp>EEX3PMDE Index</stp>
@@ -2714,73 +2716,73 @@
         <tr r="I57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3465549496</v>
+        <v>#N/A Requesting Data...2755989317</v>
         <stp/>
         <stp>BDP|4279202299077950281</stp>
         <tr r="D41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4272381730</v>
+        <v>#N/A Requesting Data...3608216194</v>
         <stp/>
         <stp>BDP|6929810016462650737</stp>
         <tr r="D87" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3931792541</v>
+        <v>#N/A Requesting Data...3126369205</v>
         <stp/>
         <stp>BDP|1294936769142798640</stp>
         <tr r="C37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3357718208</v>
+        <v>#N/A Requesting Data...2380880244</v>
         <stp/>
         <stp>BDP|8268735055277832754</stp>
         <tr r="D100" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3684431805</v>
+        <v>#N/A Requesting Data...3511989263</v>
         <stp/>
         <stp>BDP|7997415316799901193</stp>
         <tr r="O53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3492981189</v>
+        <v>#N/A Requesting Data...2866679952</v>
         <stp/>
         <stp>BDP|6278897671657613432</stp>
         <tr r="O145" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4233247754</v>
+        <v>#N/A Requesting Data...4027605029</v>
         <stp/>
         <stp>BDP|8917206333941126276</stp>
         <tr r="O79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3836495660</v>
+        <v>#N/A Requesting Data...2585877919</v>
         <stp/>
         <stp>BDP|9488941276259397490</stp>
         <tr r="O67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3713373889</v>
+        <v>#N/A Requesting Data...4210266414</v>
         <stp/>
         <stp>BDP|5600386799382259784</stp>
         <tr r="C113" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3915611534</v>
+        <v>#N/A Requesting Data...2846955104</v>
         <stp/>
         <stp>BDP|9996435367631888077</stp>
         <tr r="C71" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3215550171</v>
+        <v>#N/A Requesting Data...2335079538</v>
         <stp/>
         <stp>BDP|3790921814431878090</stp>
         <tr r="D38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3311157578</v>
+        <v>#N/A Requesting Data...2784247094</v>
         <stp/>
         <stp>BDP|5023633295787322705</stp>
         <tr r="C101" s="2"/>
@@ -2803,37 +2805,37 @@
         <tr r="H151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3748943415</v>
+        <v>#N/A Requesting Data...2408171601</v>
         <stp/>
         <stp>BDP|2742897454442023636</stp>
         <tr r="D93" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3837409411</v>
+        <v>#N/A Requesting Data...4236324017</v>
         <stp/>
         <stp>BDP|1308380368217282806</stp>
         <tr r="C89" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3827048899</v>
+        <v>#N/A Requesting Data...2772627307</v>
         <stp/>
         <stp>BDP|2125519877263797874</stp>
         <tr r="D49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3128098911</v>
+        <v>#N/A Requesting Data...2070623136</v>
         <stp/>
         <stp>BDP|8187334089870399738</stp>
         <tr r="C142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3379740635</v>
+        <v>#N/A Requesting Data...3468809980</v>
         <stp/>
         <stp>BDP|8447705041427452887</stp>
         <tr r="O110" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3671040582</v>
+        <v>#N/A Requesting Data...3340732058</v>
         <stp/>
         <stp>BDP|9588220581862090554</stp>
         <tr r="D81" s="2"/>
@@ -2847,122 +2849,122 @@
         <tr r="H123" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3947816778</v>
+        <v>#N/A Requesting Data...2844380312</v>
         <stp/>
         <stp>BDP|6336981452218022714</stp>
         <tr r="D149" s="2"/>
         <tr r="D28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4193095315</v>
+        <v>#N/A Requesting Data...2733807083</v>
         <stp/>
         <stp>BDP|5144982884240236131</stp>
         <tr r="O119" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3662501610</v>
+        <v>#N/A Requesting Data...3156465900</v>
         <stp/>
         <stp>BDP|4912389578430923538</stp>
         <tr r="C125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3149508582</v>
+        <v>#N/A Requesting Data...3940264754</v>
         <stp/>
         <stp>BDP|4899183487030457834</stp>
         <tr r="D47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3963167581</v>
+        <v>#N/A Requesting Data...3562188054</v>
         <stp/>
         <stp>BDP|7406447711566288126</stp>
         <tr r="O91" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3587125528</v>
+        <v>#N/A Requesting Data...2964413555</v>
         <stp/>
         <stp>BDP|2318106224533271732</stp>
         <tr r="D123" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3956951601</v>
+        <v>#N/A Requesting Data...2303613311</v>
         <stp/>
         <stp>BDP|5397604398148966497</stp>
         <tr r="C118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3751014679</v>
+        <v>#N/A Requesting Data...3865658298</v>
         <stp/>
         <stp>BDP|5247213518087466774</stp>
         <tr r="D79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3937602045</v>
+        <v>#N/A Requesting Data...3130603370</v>
         <stp/>
         <stp>BDP|2268502188811293879</stp>
         <tr r="O45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3976026012</v>
+        <v>#N/A Requesting Data...2195147288</v>
         <stp/>
         <stp>BDP|2615106264042847162</stp>
         <tr r="C35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3930503658</v>
+        <v>#N/A Requesting Data...2469832470</v>
         <stp/>
         <stp>BDP|7242668637610389424</stp>
         <tr r="C38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3919905480</v>
+        <v>#N/A Requesting Data...2779168227</v>
         <stp/>
         <stp>BDP|3708410904060798168</stp>
         <tr r="D110" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3733887106</v>
+        <v>#N/A Requesting Data...2431731682</v>
         <stp/>
         <stp>BDP|5117711638166954114</stp>
         <tr r="O131" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3083033115</v>
+        <v>#N/A Requesting Data...3940631996</v>
         <stp/>
         <stp>BDP|3978038447362277279</stp>
         <tr r="O50" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4263428212</v>
+        <v>#N/A Requesting Data...3371824372</v>
         <stp/>
         <stp>BDP|4136828621258877131</stp>
         <tr r="C122" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4033750776</v>
+        <v>#N/A Requesting Data...1981516316</v>
         <stp/>
         <stp>BDP|2277297320794027172</stp>
         <tr r="O93" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3141386207</v>
+        <v>#N/A Requesting Data...3993153533</v>
         <stp/>
         <stp>BDP|8961196036758342506</stp>
         <tr r="D113" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3265167974</v>
+        <v>#N/A Requesting Data...4111305280</v>
         <stp/>
         <stp>BDP|1170165359530510519</stp>
         <tr r="C53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4039758189</v>
+        <v>#N/A Requesting Data...4082303745</v>
         <stp/>
         <stp>BDP|3942355915051567002</stp>
         <tr r="C133" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4021222532</v>
+        <v>#N/A Requesting Data...3012036570</v>
         <stp/>
         <stp>BDP|3535326747745052123</stp>
         <tr r="D53" s="2"/>
@@ -2984,68 +2986,68 @@
         <tr r="H48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3758802603</v>
+        <v>#N/A Requesting Data...3336652358</v>
         <stp/>
         <stp>BDP|9540225089557104556</stp>
         <tr r="O118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3226375852</v>
+        <v>#N/A Requesting Data...2880781358</v>
         <stp/>
         <stp>BDP|5062514338582227013</stp>
         <tr r="D128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3518511209</v>
+        <v>#N/A Requesting Data...3886660404</v>
         <stp/>
         <stp>BDP|2343600014653733789</stp>
         <tr r="O103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4113327980</v>
+        <v>#N/A Requesting Data...3111638303</v>
         <stp/>
         <stp>BDP|3242086975802090723</stp>
         <tr r="D90" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3289684847</v>
+        <v>#N/A Requesting Data...3186666115</v>
         <stp/>
         <stp>BDP|8360886275346359094</stp>
         <tr r="C103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3707695092</v>
+        <v>#N/A Requesting Data...3679453454</v>
         <stp/>
         <stp>BDP|6855110725440116773</stp>
         <tr r="C61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3084022086</v>
+        <v>#N/A Requesting Data...4217219808</v>
         <stp/>
         <stp>BDP|8675841477756696315</stp>
         <tr r="C139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4092879510</v>
+        <v>#N/A Requesting Data...1997789761</v>
         <stp/>
         <stp>BDP|4759583229459353843</stp>
         <tr r="O47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4251679011</v>
+        <v>#N/A Requesting Data...2009588003</v>
         <stp/>
         <stp>BDP|9839782485004760030</stp>
         <tr r="C149" s="2"/>
         <tr r="C28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4283901699</v>
+        <v>#N/A Requesting Data...3578200305</v>
         <stp/>
         <stp>BDP|3917864525078759387</stp>
         <tr r="C47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3211499620</v>
+        <v>#N/A Requesting Data...3212697943</v>
         <stp/>
         <stp>BDP|1874573773983759306</stp>
         <tr r="C60" s="2"/>
@@ -3059,25 +3061,25 @@
         <tr r="H53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3252691316</v>
+        <v>#N/A Requesting Data...3627248931</v>
         <stp/>
         <stp>BDP|4991441920223468278</stp>
         <tr r="C110" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4052831941</v>
+        <v>#N/A Requesting Data...2553211447</v>
         <stp/>
         <stp>BDP|4634330117701477447</stp>
         <tr r="D48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3483785341</v>
+        <v>#N/A Requesting Data...4114578612</v>
         <stp/>
         <stp>BDP|3206597226223845400</stp>
         <tr r="D35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4000959575</v>
+        <v>#N/A Requesting Data...4057614707</v>
         <stp/>
         <stp>BDP|7344440665766321042</stp>
         <tr r="D45" s="2"/>
@@ -3107,7 +3109,7 @@
         <tr r="I119" s="2"/>
       </tp>
       <tp>
-        <v>64</v>
+        <v>70</v>
         <stp/>
         <stp>BDP|5258715941910323221|22</stp>
         <stp>EEXXT3PA Index</stp>
@@ -3115,13 +3117,13 @@
         <tr r="H45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3158187505</v>
+        <v>#N/A Requesting Data...4167413746</v>
         <stp/>
         <stp>BDP|92010296815936747</stp>
         <tr r="D132" s="2"/>
       </tp>
       <tp>
-        <v>80</v>
+        <v>85</v>
         <stp/>
         <stp>BDP|1716388539457443821|22</stp>
         <stp>EEXXT3PA Index</stp>
@@ -3201,7 +3203,7 @@
         <tr r="H129" s="2"/>
       </tp>
       <tp t="s">
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
         <stp/>
         <stp>BDP|3638041331352720978|22</stp>
         <stp>EEX33XPL Index</stp>
@@ -3209,7 +3211,7 @@
         <tr r="P89" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3725213108</v>
+        <v>#N/A Requesting Data...2171774210</v>
         <stp/>
         <stp>BDP|141486019989176878</stp>
         <tr r="C77" s="2"/>
@@ -3231,13 +3233,13 @@
         <tr r="I142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4294962466</v>
+        <v>#N/A Requesting Data...3368513823</v>
         <stp/>
         <stp>BDP|498236031780937674</stp>
         <tr r="O71" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3343259289</v>
+        <v>#N/A Requesting Data...3640075331</v>
         <stp/>
         <stp>BDP|626474072446054250</stp>
         <tr r="O48" s="2"/>
@@ -3251,7 +3253,7 @@
         <tr r="I128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4150666919</v>
+        <v>#N/A Requesting Data...2235235338</v>
         <stp/>
         <stp>BDP|949597951093820562</stp>
         <tr r="C69" s="2"/>
@@ -3273,7 +3275,7 @@
         <tr r="I139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4175167541</v>
+        <v>#N/A Requesting Data...2925767697</v>
         <stp/>
         <stp>BDP|527374345414391240</stp>
         <tr r="C99" s="2"/>
@@ -3287,13 +3289,13 @@
         <tr r="I38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3281788588</v>
+        <v>#N/A Requesting Data...2025227707</v>
         <stp/>
         <stp>BDP|445371574551055651</stp>
         <tr r="C111" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Real Time</v>
         <stp/>
         <stp>BDP|17587492918187176311|22</stp>
         <stp>RGGIAAQS Index</stp>
@@ -3317,7 +3319,7 @@
         <tr r="H125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3381292892</v>
+        <v>#N/A Requesting Data...3752166436</v>
         <stp/>
         <stp>BDP|411030222906237860</stp>
         <tr r="O133" s="2"/>
@@ -3387,7 +3389,7 @@
         <tr r="H39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3849363944</v>
+        <v>#N/A Requesting Data...4018933024</v>
         <stp/>
         <stp>BDP|112394073414420858</stp>
         <tr r="C123" s="2"/>
@@ -3401,7 +3403,7 @@
         <tr r="I152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3638823654</v>
+        <v>#N/A Requesting Data...2207034119</v>
         <stp/>
         <stp>BDP|280997264327962398</stp>
         <tr r="O149" s="2"/>
@@ -3473,7 +3475,7 @@
         <tr r="H49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3484691662</v>
+        <v>#N/A Requesting Data...4137564195</v>
         <stp/>
         <stp>BDP|599652034392309</stp>
         <tr r="D143" s="2"/>
@@ -3781,7 +3783,7 @@
   <dimension ref="A1:P152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="A27" sqref="A27:P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4508,7 +4510,7 @@
       </c>
       <c r="C35">
         <f>_xll.BDP("UKAAUPR Index","PX_LAST")</f>
-        <v>53.55</v>
+        <v>57.25</v>
       </c>
       <c r="D35">
         <f>_xll.BDP("UKAAUPR Index","PX_VOLUME")</f>
@@ -4527,11 +4529,11 @@
       </c>
       <c r="O35" t="str">
         <f>_xll.BDP("UKAAUPR Index","LAST_UPDATE_DT")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
       <c r="P35" t="str">
         <f>_xll.BDP("UKAAUPR Index","TIME")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -4551,7 +4553,7 @@
       </c>
       <c r="C37">
         <f>_xll.BDP("UKACORAT Index","PX_LAST")</f>
-        <v>1.68215322760777</v>
+        <v>1.6837167746258701</v>
       </c>
       <c r="D37" t="str">
         <f>_xll.BDP("UKACORAT Index","PX_VOLUME")</f>
@@ -4570,11 +4572,11 @@
       </c>
       <c r="O37" t="str">
         <f>_xll.BDP("UKACORAT Index","LAST_UPDATE_DT")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
       <c r="P37" t="str">
         <f>_xll.BDP("UKACORAT Index","TIME")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -4586,7 +4588,7 @@
       </c>
       <c r="C38">
         <f>_xll.BDP("UKASBBID Index","PX_LAST")</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D38">
         <f>_xll.BDP("UKASBBID Index","PX_VOLUME")</f>
@@ -4605,11 +4607,11 @@
       </c>
       <c r="O38" t="str">
         <f>_xll.BDP("UKASBBID Index","LAST_UPDATE_DT")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
       <c r="P38" t="str">
         <f>_xll.BDP("UKASBBID Index","TIME")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -4640,11 +4642,11 @@
       </c>
       <c r="O39" t="str">
         <f>_xll.BDP("UKATOBID Index","LAST_UPDATE_DT")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
       <c r="P39" t="str">
         <f>_xll.BDP("UKATOBID Index","TIME")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -4664,7 +4666,7 @@
       </c>
       <c r="C41">
         <f>_xll.BDP("UKABIDS Index","PX_LAST")</f>
-        <v>3765500</v>
+        <v>3769000</v>
       </c>
       <c r="D41">
         <f>_xll.BDP("UKABIDS Index","PX_VOLUME")</f>
@@ -4683,11 +4685,11 @@
       </c>
       <c r="O41" t="str">
         <f>_xll.BDP("UKABIDS Index","LAST_UPDATE_DT")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
       <c r="P41" t="str">
         <f>_xll.BDP("UKABIDS Index","TIME")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -4736,7 +4738,7 @@
       </c>
       <c r="C45">
         <f>_xll.BDP("EEXXT3PA Index","PX_LAST")</f>
-        <v>75.02</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="D45">
         <f>_xll.BDP("EEXXT3PA Index","PX_VOLUME")</f>
@@ -4744,22 +4746,22 @@
       </c>
       <c r="H45">
         <f>_xll.BDP("EEXXT3PA Index","BID")</f>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I45">
         <f>_xll.BDP("EEXXT3PA Index","ASK")</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N45" t="s">
         <v>58</v>
       </c>
       <c r="O45" t="str">
         <f>_xll.BDP("EEXXT3PA Index","LAST_UPDATE_DT")</f>
-        <v>15.09.2025</v>
+        <v>23.09.2025</v>
       </c>
       <c r="P45" t="str">
         <f>_xll.BDP("EEXXT3PA Index","TIME")</f>
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -4779,7 +4781,7 @@
       </c>
       <c r="C47">
         <f>_xll.BDP("EEX3CRT3 Index","PX_LAST")</f>
-        <v>1.78</v>
+        <v>1.22</v>
       </c>
       <c r="D47">
         <f>_xll.BDP("EEX3CRT3 Index","PX_VOLUME")</f>
@@ -4798,11 +4800,11 @@
       </c>
       <c r="O47" t="str">
         <f>_xll.BDP("EEX3CRT3 Index","LAST_UPDATE_DT")</f>
-        <v>15.09.2025</v>
+        <v>23.09.2025</v>
       </c>
       <c r="P47" t="str">
         <f>_xll.BDP("EEX3CRT3 Index","TIME")</f>
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -4814,7 +4816,7 @@
       </c>
       <c r="C48">
         <f>_xll.BDP("EEX3MNT3 Index","PX_LAST")</f>
-        <v>74.83</v>
+        <v>75.709999999999994</v>
       </c>
       <c r="D48">
         <f>_xll.BDP("EEX3MNT3 Index","PX_VOLUME")</f>
@@ -4833,11 +4835,11 @@
       </c>
       <c r="O48" t="str">
         <f>_xll.BDP("EEX3MNT3 Index","LAST_UPDATE_DT")</f>
-        <v>15.09.2025</v>
+        <v>23.09.2025</v>
       </c>
       <c r="P48" t="str">
         <f>_xll.BDP("EEX3MNT3 Index","TIME")</f>
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -4849,7 +4851,7 @@
       </c>
       <c r="C49">
         <f>_xll.BDP("EEX3MDT3 Index","PX_LAST")</f>
-        <v>74.84</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="D49">
         <f>_xll.BDP("EEX3MDT3 Index","PX_VOLUME")</f>
@@ -4868,11 +4870,11 @@
       </c>
       <c r="O49" t="str">
         <f>_xll.BDP("EEX3MDT3 Index","LAST_UPDATE_DT")</f>
-        <v>15.09.2025</v>
+        <v>23.09.2025</v>
       </c>
       <c r="P49" t="str">
         <f>_xll.BDP("EEX3MDT3 Index","TIME")</f>
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -4884,7 +4886,7 @@
       </c>
       <c r="C50">
         <f>_xll.BDP("EEX3SCCB Index","PX_LAST")</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D50">
         <f>_xll.BDP("EEX3SCCB Index","PX_VOLUME")</f>
@@ -4903,11 +4905,11 @@
       </c>
       <c r="O50" t="str">
         <f>_xll.BDP("EEX3SCCB Index","LAST_UPDATE_DT")</f>
-        <v>15.09.2025</v>
+        <v>23.09.2025</v>
       </c>
       <c r="P50" t="str">
         <f>_xll.BDP("EEX3SCCB Index","TIME")</f>
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -4938,11 +4940,11 @@
       </c>
       <c r="O51" t="str">
         <f>_xll.BDP("EEX3TOTB Index","LAST_UPDATE_DT")</f>
-        <v>15.09.2025</v>
+        <v>23.09.2025</v>
       </c>
       <c r="P51" t="str">
         <f>_xll.BDP("EEX3TOTB Index","TIME")</f>
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -4965,7 +4967,7 @@
       </c>
       <c r="C53">
         <f>_xll.BDP("EEX3BDT3 Index","PX_LAST")</f>
-        <v>5812000</v>
+        <v>3985500</v>
       </c>
       <c r="D53">
         <f>_xll.BDP("EEX3BDT3 Index","PX_VOLUME")</f>
@@ -4984,11 +4986,11 @@
       </c>
       <c r="O53" t="str">
         <f>_xll.BDP("EEX3BDT3 Index","LAST_UPDATE_DT")</f>
-        <v>15.09.2025</v>
+        <v>23.09.2025</v>
       </c>
       <c r="P53" t="str">
         <f>_xll.BDP("EEX3BDT3 Index","TIME")</f>
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -5037,7 +5039,7 @@
       </c>
       <c r="C57">
         <f>_xll.BDP("EEX3PMDE Index","PX_LAST")</f>
-        <v>75.02</v>
+        <v>76.569999999999993</v>
       </c>
       <c r="D57">
         <f>_xll.BDP("EEX3PMDE Index","PX_VOLUME")</f>
@@ -5045,22 +5047,22 @@
       </c>
       <c r="H57">
         <f>_xll.BDP("EEX3PMDE Index","BID")</f>
-        <v>73.010000000000005</v>
+        <v>68</v>
       </c>
       <c r="I57">
         <f>_xll.BDP("EEX3PMDE Index","ASK")</f>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N57" t="s">
         <v>61</v>
       </c>
       <c r="O57" t="str">
         <f>_xll.BDP("EEX3PMDE Index","LAST_UPDATE_DT")</f>
-        <v>12.09.2025</v>
+        <v>19.09.2025</v>
       </c>
       <c r="P57" t="str">
         <f>_xll.BDP("EEX3PMDE Index","TIME")</f>
-        <v>12.09.2025</v>
+        <v>19.09.2025</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -5080,7 +5082,7 @@
       </c>
       <c r="C59">
         <f>_xll.BDP("EEX3CRDE Index","PX_LAST")</f>
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="D59">
         <f>_xll.BDP("EEX3CRDE Index","PX_VOLUME")</f>
@@ -5099,11 +5101,11 @@
       </c>
       <c r="O59" t="str">
         <f>_xll.BDP("EEX3CRDE Index","LAST_UPDATE_DT")</f>
-        <v>12.09.2025</v>
+        <v>19.09.2025</v>
       </c>
       <c r="P59" t="str">
         <f>_xll.BDP("EEX3CRDE Index","TIME")</f>
-        <v>12.09.2025</v>
+        <v>19.09.2025</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -5115,7 +5117,7 @@
       </c>
       <c r="C60">
         <f>_xll.BDP("EEX3MNDE Index","PX_LAST")</f>
-        <v>74.88</v>
+        <v>77.3</v>
       </c>
       <c r="D60">
         <f>_xll.BDP("EEX3MNDE Index","PX_VOLUME")</f>
@@ -5134,11 +5136,11 @@
       </c>
       <c r="O60" t="str">
         <f>_xll.BDP("EEX3MNDE Index","LAST_UPDATE_DT")</f>
-        <v>12.09.2025</v>
+        <v>19.09.2025</v>
       </c>
       <c r="P60" t="str">
         <f>_xll.BDP("EEX3MNDE Index","TIME")</f>
-        <v>12.09.2025</v>
+        <v>19.09.2025</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -5150,7 +5152,7 @@
       </c>
       <c r="C61">
         <f>_xll.BDP("EEX3MDDE Index","PX_LAST")</f>
-        <v>74.8</v>
+        <v>76.430000000000007</v>
       </c>
       <c r="D61">
         <f>_xll.BDP("EEX3MDDE Index","PX_VOLUME")</f>
@@ -5169,11 +5171,11 @@
       </c>
       <c r="O61" t="str">
         <f>_xll.BDP("EEX3MDDE Index","LAST_UPDATE_DT")</f>
-        <v>12.09.2025</v>
+        <v>19.09.2025</v>
       </c>
       <c r="P61" t="str">
         <f>_xll.BDP("EEX3MDDE Index","TIME")</f>
-        <v>12.09.2025</v>
+        <v>19.09.2025</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -5196,7 +5198,7 @@
       </c>
       <c r="C63">
         <f>_xll.BDP("EEX3BDDE Index","PX_LAST")</f>
-        <v>3524000</v>
+        <v>2832000</v>
       </c>
       <c r="D63">
         <f>_xll.BDP("EEX3BDDE Index","PX_VOLUME")</f>
@@ -5215,11 +5217,11 @@
       </c>
       <c r="O63" t="str">
         <f>_xll.BDP("EEX3BDDE Index","LAST_UPDATE_DT")</f>
-        <v>12.09.2025</v>
+        <v>19.09.2025</v>
       </c>
       <c r="P63" t="str">
         <f>_xll.BDP("EEX3BDDE Index","TIME")</f>
-        <v>12.09.2025</v>
+        <v>19.09.2025</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -5268,7 +5270,7 @@
       </c>
       <c r="C67">
         <f>_xll.BDP("EEX3EPPM Index","PX_LAST")</f>
-        <v>75.02</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="D67">
         <f>_xll.BDP("EEX3EPPM Index","PX_VOLUME")</f>
@@ -5276,22 +5278,22 @@
       </c>
       <c r="H67">
         <f>_xll.BDP("EEX3EPPM Index","BID")</f>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I67">
         <f>_xll.BDP("EEX3EPPM Index","ASK")</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N67" t="s">
         <v>63</v>
       </c>
       <c r="O67" t="str">
         <f>_xll.BDP("EEX3EPPM Index","LAST_UPDATE_DT")</f>
-        <v>15.09.2025</v>
+        <v>23.09.2025</v>
       </c>
       <c r="P67" t="str">
         <f>_xll.BDP("EEX3EPPM Index","TIME")</f>
-        <v>15.09.2025</v>
+        <v>11:00:28</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -5311,7 +5313,7 @@
       </c>
       <c r="C69">
         <f>_xll.BDP("EEX3EPCR Index","PX_LAST")</f>
-        <v>1.78</v>
+        <v>1.22</v>
       </c>
       <c r="D69">
         <f>_xll.BDP("EEX3EPCR Index","PX_VOLUME")</f>
@@ -5330,11 +5332,11 @@
       </c>
       <c r="O69" t="str">
         <f>_xll.BDP("EEX3EPCR Index","LAST_UPDATE_DT")</f>
-        <v>15.09.2025</v>
+        <v>23.09.2025</v>
       </c>
       <c r="P69" t="str">
         <f>_xll.BDP("EEX3EPCR Index","TIME")</f>
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -5346,7 +5348,7 @@
       </c>
       <c r="C70">
         <f>_xll.BDP("EEX3MNEP Index","PX_LAST")</f>
-        <v>74.83</v>
+        <v>75.709999999999994</v>
       </c>
       <c r="D70">
         <f>_xll.BDP("EEX3MNEP Index","PX_VOLUME")</f>
@@ -5365,11 +5367,11 @@
       </c>
       <c r="O70" t="str">
         <f>_xll.BDP("EEX3MNEP Index","LAST_UPDATE_DT")</f>
-        <v>15.09.2025</v>
+        <v>23.09.2025</v>
       </c>
       <c r="P70" t="str">
         <f>_xll.BDP("EEX3MNEP Index","TIME")</f>
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -5381,7 +5383,7 @@
       </c>
       <c r="C71">
         <f>_xll.BDP("EEX3MDEP Index","PX_LAST")</f>
-        <v>74.84</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="D71">
         <f>_xll.BDP("EEX3MDEP Index","PX_VOLUME")</f>
@@ -5400,11 +5402,11 @@
       </c>
       <c r="O71" t="str">
         <f>_xll.BDP("EEX3MDEP Index","LAST_UPDATE_DT")</f>
-        <v>15.09.2025</v>
+        <v>23.09.2025</v>
       </c>
       <c r="P71" t="str">
         <f>_xll.BDP("EEX3MDEP Index","TIME")</f>
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -5427,7 +5429,7 @@
       </c>
       <c r="C73">
         <f>_xll.BDP("EEX3BDEP Index","PX_LAST")</f>
-        <v>5812000</v>
+        <v>3985500</v>
       </c>
       <c r="D73">
         <f>_xll.BDP("EEX3BDEP Index","PX_VOLUME")</f>
@@ -5446,11 +5448,11 @@
       </c>
       <c r="O73" t="str">
         <f>_xll.BDP("EEX3BDEP Index","LAST_UPDATE_DT")</f>
-        <v>15.09.2025</v>
+        <v>23.09.2025</v>
       </c>
       <c r="P73" t="str">
         <f>_xll.BDP("EEX3BDEP Index","TIME")</f>
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -5499,7 +5501,7 @@
       </c>
       <c r="C77">
         <f>_xll.BDP("EEX3PMEU Index","PX_LAST")</f>
-        <v>75.02</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="D77">
         <f>_xll.BDP("EEX3PMEU Index","PX_VOLUME")</f>
@@ -5507,22 +5509,22 @@
       </c>
       <c r="H77">
         <f>_xll.BDP("EEX3PMEU Index","BID")</f>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I77">
         <f>_xll.BDP("EEX3PMEU Index","ASK")</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N77" t="s">
         <v>65</v>
       </c>
       <c r="O77" t="str">
         <f>_xll.BDP("EEX3PMEU Index","LAST_UPDATE_DT")</f>
-        <v>15.09.2025</v>
+        <v>23.09.2025</v>
       </c>
       <c r="P77" t="str">
         <f>_xll.BDP("EEX3PMEU Index","TIME")</f>
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -5542,7 +5544,7 @@
       </c>
       <c r="C79">
         <f>_xll.BDP("EEX3CREU Index","PX_LAST")</f>
-        <v>1.78</v>
+        <v>1.22</v>
       </c>
       <c r="D79">
         <f>_xll.BDP("EEX3CREU Index","PX_VOLUME")</f>
@@ -5561,11 +5563,11 @@
       </c>
       <c r="O79" t="str">
         <f>_xll.BDP("EEX3CREU Index","LAST_UPDATE_DT")</f>
-        <v>15.09.2025</v>
+        <v>23.09.2025</v>
       </c>
       <c r="P79" t="str">
         <f>_xll.BDP("EEX3CREU Index","TIME")</f>
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -5577,7 +5579,7 @@
       </c>
       <c r="C80">
         <f>_xll.BDP("EEX3MNEU Index","PX_LAST")</f>
-        <v>74.83</v>
+        <v>75.709999999999994</v>
       </c>
       <c r="D80">
         <f>_xll.BDP("EEX3MNEU Index","PX_VOLUME")</f>
@@ -5596,11 +5598,11 @@
       </c>
       <c r="O80" t="str">
         <f>_xll.BDP("EEX3MNEU Index","LAST_UPDATE_DT")</f>
-        <v>15.09.2025</v>
+        <v>23.09.2025</v>
       </c>
       <c r="P80" t="str">
         <f>_xll.BDP("EEX3MNEU Index","TIME")</f>
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -5612,7 +5614,7 @@
       </c>
       <c r="C81">
         <f>_xll.BDP("EEX3MDEU Index","PX_LAST")</f>
-        <v>74.84</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="D81">
         <f>_xll.BDP("EEX3MDEU Index","PX_VOLUME")</f>
@@ -5631,11 +5633,11 @@
       </c>
       <c r="O81" t="str">
         <f>_xll.BDP("EEX3MDEU Index","LAST_UPDATE_DT")</f>
-        <v>15.09.2025</v>
+        <v>23.09.2025</v>
       </c>
       <c r="P81" t="str">
         <f>_xll.BDP("EEX3MDEU Index","TIME")</f>
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -5658,7 +5660,7 @@
       </c>
       <c r="C83">
         <f>_xll.BDP("EEX3BDEU Index","PX_LAST")</f>
-        <v>5812000</v>
+        <v>3985500</v>
       </c>
       <c r="D83">
         <f>_xll.BDP("EEX3BDEU Index","PX_VOLUME")</f>
@@ -5677,11 +5679,11 @@
       </c>
       <c r="O83" t="str">
         <f>_xll.BDP("EEX3BDEU Index","LAST_UPDATE_DT")</f>
-        <v>15.09.2025</v>
+        <v>23.09.2025</v>
       </c>
       <c r="P83" t="str">
         <f>_xll.BDP("EEX3BDEU Index","TIME")</f>
-        <v>15.09.2025</v>
+        <v>11:00:00</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -5730,7 +5732,7 @@
       </c>
       <c r="C87">
         <f>_xll.BDP("EEX3X3PL Index","PX_LAST")</f>
-        <v>73.27</v>
+        <v>77.53</v>
       </c>
       <c r="D87">
         <f>_xll.BDP("EEX3X3PL Index","PX_VOLUME")</f>
@@ -5742,18 +5744,18 @@
       </c>
       <c r="I87">
         <f>_xll.BDP("EEX3X3PL Index","ASK")</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N87" t="s">
         <v>67</v>
       </c>
       <c r="O87" t="str">
         <f>_xll.BDP("EEX3X3PL Index","LAST_UPDATE_DT")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
       <c r="P87" t="str">
         <f>_xll.BDP("EEX3X3PL Index","TIME")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -5773,7 +5775,7 @@
       </c>
       <c r="C89">
         <f>_xll.BDP("EEX33XPL Index","PX_LAST")</f>
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="D89">
         <f>_xll.BDP("EEX33XPL Index","PX_VOLUME")</f>
@@ -5792,11 +5794,11 @@
       </c>
       <c r="O89" t="str">
         <f>_xll.BDP("EEX33XPL Index","LAST_UPDATE_DT")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
       <c r="P89" t="str">
         <f>_xll.BDP("EEX33XPL Index","TIME")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -5808,7 +5810,7 @@
       </c>
       <c r="C90">
         <f>_xll.BDP("EEX3MNPL Index","PX_LAST")</f>
-        <v>73.239999999999995</v>
+        <v>77.22</v>
       </c>
       <c r="D90">
         <f>_xll.BDP("EEX3MNPL Index","PX_VOLUME")</f>
@@ -5827,11 +5829,11 @@
       </c>
       <c r="O90" t="str">
         <f>_xll.BDP("EEX3MNPL Index","LAST_UPDATE_DT")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
       <c r="P90" t="str">
         <f>_xll.BDP("EEX3MNPL Index","TIME")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -5843,7 +5845,7 @@
       </c>
       <c r="C91">
         <f>_xll.BDP("EEX3MDPL Index","PX_LAST")</f>
-        <v>73.17</v>
+        <v>77.41</v>
       </c>
       <c r="D91">
         <f>_xll.BDP("EEX3MDPL Index","PX_VOLUME")</f>
@@ -5862,11 +5864,11 @@
       </c>
       <c r="O91" t="str">
         <f>_xll.BDP("EEX3MDPL Index","LAST_UPDATE_DT")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
       <c r="P91" t="str">
         <f>_xll.BDP("EEX3MDPL Index","TIME")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -5889,7 +5891,7 @@
       </c>
       <c r="C93">
         <f>_xll.BDP("EEX3BDPL Index","PX_LAST")</f>
-        <v>3118500</v>
+        <v>3324000</v>
       </c>
       <c r="D93">
         <f>_xll.BDP("EEX3BDPL Index","PX_VOLUME")</f>
@@ -5908,11 +5910,11 @@
       </c>
       <c r="O93" t="str">
         <f>_xll.BDP("EEX3BDPL Index","LAST_UPDATE_DT")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
       <c r="P93" t="str">
         <f>_xll.BDP("EEX3BDPL Index","TIME")</f>
-        <v>03.09.2025</v>
+        <v>17.09.2025</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -7118,11 +7120,11 @@
       </c>
       <c r="H145" t="str">
         <f>_xll.BDP("RGGIAAQS Index","BID")</f>
-        <v>#N/A N/A</v>
+        <v>#N/A Real Time</v>
       </c>
       <c r="I145" t="str">
         <f>_xll.BDP("RGGIAAQS Index","ASK")</f>
-        <v>#N/A N/A</v>
+        <v>#N/A Real Time</v>
       </c>
       <c r="N145" t="s">
         <v>80</v>
@@ -7133,7 +7135,7 @@
       </c>
       <c r="P145" t="str">
         <f>_xll.BDP("RGGIAAQS Index","TIME")</f>
-        <v>03.09.2025</v>
+        <v>#N/A Real Time</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
@@ -7264,26 +7266,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A115:P115"/>
+    <mergeCell ref="A116:P116"/>
+    <mergeCell ref="A126:P126"/>
+    <mergeCell ref="A137:P137"/>
+    <mergeCell ref="A147:P147"/>
+    <mergeCell ref="A65:P65"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A95:P95"/>
+    <mergeCell ref="A105:P105"/>
+    <mergeCell ref="A30:P30"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="A33:P33"/>
+    <mergeCell ref="A43:P43"/>
+    <mergeCell ref="A55:P55"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A19:P19"/>
     <mergeCell ref="A24:P24"/>
     <mergeCell ref="A27:P27"/>
-    <mergeCell ref="A30:P30"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="A33:P33"/>
-    <mergeCell ref="A43:P43"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A65:P65"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A95:P95"/>
-    <mergeCell ref="A105:P105"/>
-    <mergeCell ref="A115:P115"/>
-    <mergeCell ref="A116:P116"/>
-    <mergeCell ref="A126:P126"/>
-    <mergeCell ref="A137:P137"/>
-    <mergeCell ref="A147:P147"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Auctions EUA.xlsx
+++ b/Auctions EUA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84CC300-89D5-4145-A42F-4B7DD0FD0585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF615E0-1669-484B-95B5-43401CC18F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -953,7 +953,7 @@
         <tr r="P51" s="2"/>
       </tp>
       <tp>
-        <v>85</v>
+        <v>90</v>
         <stp/>
         <stp>BDP|10519417515402280991|22</stp>
         <stp>EEX3EPPM Index</stp>
@@ -1077,7 +1077,7 @@
         <tr r="I113" s="2"/>
       </tp>
       <tp>
-        <v>68</v>
+        <v>69</v>
         <stp/>
         <stp>BDP|15420833856443191727|22</stp>
         <stp>EEX3PMDE Index</stp>
@@ -1141,7 +1141,7 @@
         <tr r="P87" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>11:17:09</v>
         <stp/>
         <stp>BDP|1494356953421449542|22</stp>
         <stp>EEXXT3PA Index</stp>
@@ -1181,25 +1181,25 @@
         <tr r="H70" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3250351049</v>
+        <v>#N/A Requesting Data...2792462080</v>
         <stp/>
         <stp>BDP|11269571729604204855</stp>
         <tr r="C145" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3890682305</v>
+        <v>#N/A Requesting Data...3953194144</v>
         <stp/>
         <stp>BDP|10943788378258769235</stp>
         <tr r="D109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3738810328</v>
+        <v>#N/A Requesting Data...2925654148</v>
         <stp/>
         <stp>BDP|13172746922254409863</stp>
         <tr r="O80" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2457863161</v>
+        <v>#N/A Requesting Data...1874568315</v>
         <stp/>
         <stp>BDP|14497910193647682945</stp>
         <tr r="D70" s="2"/>
@@ -1221,7 +1221,7 @@
         <tr r="P69" s="2"/>
       </tp>
       <tp t="s">
-        <v>19.09.2025</v>
+        <v>26.09.2025</v>
         <stp/>
         <stp>BDP|3193189600887063507|22</stp>
         <stp>EEX3CRDE Index</stp>
@@ -1229,7 +1229,7 @@
         <tr r="P59" s="2"/>
       </tp>
       <tp>
-        <v>85</v>
+        <v>90</v>
         <stp/>
         <stp>BDP|11258790351540468562|22</stp>
         <stp>EEX3PMEU Index</stp>
@@ -1245,25 +1245,25 @@
         <tr r="H83" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3427312236</v>
+        <v>#N/A Requesting Data...1821044072</v>
         <stp/>
         <stp>BDP|18008250999471656922</stp>
         <tr r="D91" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3561360516</v>
+        <v>#N/A Requesting Data...1881348093</v>
         <stp/>
         <stp>BDP|17732115207434946955</stp>
         <tr r="O35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1806885009</v>
+        <v>#N/A Requesting Data...3334332682</v>
         <stp/>
         <stp>BDP|17883504586526473761</stp>
         <tr r="D60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2236938383</v>
+        <v>#N/A Requesting Data...3269952127</v>
         <stp/>
         <stp>BDP|17453411474857561889</stp>
         <tr r="C51" s="2"/>
@@ -1277,25 +1277,25 @@
         <tr r="P123" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2251854390</v>
+        <v>#N/A Requesting Data...2339391467</v>
         <stp/>
         <stp>BDP|17440720740509750509</stp>
         <tr r="D131" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3336907889</v>
+        <v>#N/A Requesting Data...2673610628</v>
         <stp/>
         <stp>BDP|13137573291627110020</stp>
         <tr r="O122" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2501588925</v>
+        <v>#N/A Requesting Data...4187997723</v>
         <stp/>
         <stp>BDP|12589828556680285779</stp>
         <tr r="C131" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4290737813</v>
+        <v>#N/A Requesting Data...2661606070</v>
         <stp/>
         <stp>BDP|14677421799633940220</stp>
         <tr r="D135" s="2"/>
@@ -1317,25 +1317,25 @@
         <tr r="H60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2748103035</v>
+        <v>#N/A Requesting Data...3139151027</v>
         <stp/>
         <stp>BDP|13392001727258142092</stp>
         <tr r="O125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1847363566</v>
+        <v>#N/A Requesting Data...2955057943</v>
         <stp/>
         <stp>BDP|14017755899281818256</stp>
         <tr r="D39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4149201957</v>
+        <v>#N/A Requesting Data...2879499578</v>
         <stp/>
         <stp>BDP|15783964005736454339</stp>
         <tr r="D51" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4070806589</v>
+        <v>#N/A Requesting Data...3203790913</v>
         <stp/>
         <stp>BDP|15365985838177005150</stp>
         <tr r="O49" s="2"/>
@@ -1373,19 +1373,19 @@
         <tr r="P35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3611021845</v>
+        <v>#N/A Requesting Data...3580139888</v>
         <stp/>
         <stp>BDP|15339769723328136685</stp>
         <tr r="C63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3643830513</v>
+        <v>#N/A Requesting Data...4048542689</v>
         <stp/>
         <stp>BDP|18033101966751297072</stp>
         <tr r="C67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1963470229</v>
+        <v>#N/A Requesting Data...4165521147</v>
         <stp/>
         <stp>BDP|14450087638141730867</stp>
         <tr r="D59" s="2"/>
@@ -1423,85 +1423,85 @@
         <tr r="I41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3995451885</v>
+        <v>#N/A Requesting Data...3615123532</v>
         <stp/>
         <stp>BDP|18411307338470386767</stp>
         <tr r="D99" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4288024917</v>
+        <v>#N/A Requesting Data...3295715745</v>
         <stp/>
         <stp>BDP|10666662405090903935</stp>
         <tr r="C107" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2514004578</v>
+        <v>#N/A Requesting Data...3142991622</v>
         <stp/>
         <stp>BDP|14977427384300822780</stp>
         <tr r="O51" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2565067949</v>
+        <v>#N/A Requesting Data...4161556964</v>
         <stp/>
         <stp>BDP|16823031330433881965</stp>
         <tr r="C79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3943395630</v>
+        <v>#N/A Requesting Data...1982098738</v>
         <stp/>
         <stp>BDP|11920132482670808779</stp>
         <tr r="O121" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1917848317</v>
+        <v>#N/A Requesting Data...3646068340</v>
         <stp/>
         <stp>BDP|16946453695197801084</stp>
         <tr r="D71" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3459984338</v>
+        <v>#N/A Requesting Data...4090369530</v>
         <stp/>
         <stp>BDP|17933236663647161806</stp>
         <tr r="O142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3922017721</v>
+        <v>#N/A Requesting Data...3741393574</v>
         <stp/>
         <stp>BDP|16760592922515211860</stp>
         <tr r="C135" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3285113112</v>
+        <v>#N/A Requesting Data...2334641590</v>
         <stp/>
         <stp>BDP|17148762016524255989</stp>
         <tr r="C73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3107016420</v>
+        <v>#N/A Requesting Data...3801764147</v>
         <stp/>
         <stp>BDP|18309468170035994204</stp>
         <tr r="C129" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2681065295</v>
+        <v>#N/A Requesting Data...3124209297</v>
         <stp/>
         <stp>BDP|17271087938758253012</stp>
         <tr r="C57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2777364293</v>
+        <v>#N/A Requesting Data...4091443993</v>
         <stp/>
         <stp>BDP|12870303344301412882</stp>
         <tr r="C91" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2687312394</v>
+        <v>#N/A Requesting Data...3426433574</v>
         <stp/>
         <stp>BDP|11040138180590694408</stp>
         <tr r="C81" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2311934040</v>
+        <v>#N/A Requesting Data...2055811613</v>
         <stp/>
         <stp>BDP|11220363830214973997</stp>
         <tr r="C50" s="2"/>
@@ -1515,43 +1515,43 @@
         <tr r="I121" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2592647839</v>
+        <v>#N/A Requesting Data...2884911131</v>
         <stp/>
         <stp>BDP|10310929788149374579</stp>
         <tr r="C80" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2384707741</v>
+        <v>#N/A Requesting Data...3186229752</v>
         <stp/>
         <stp>BDP|17645551591513564590</stp>
         <tr r="C119" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2841145237</v>
+        <v>#N/A Requesting Data...2369443267</v>
         <stp/>
         <stp>BDP|11799929507266026330</stp>
         <tr r="C93" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4211723526</v>
+        <v>#N/A Requesting Data...2526076787</v>
         <stp/>
         <stp>BDP|12376569583387116556</stp>
         <tr r="D77" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2078804963</v>
+        <v>#N/A Requesting Data...3181399349</v>
         <stp/>
         <stp>BDP|12929767077087211884</stp>
         <tr r="C90" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2893365474</v>
+        <v>#N/A Requesting Data...2715890757</v>
         <stp/>
         <stp>BDP|12746681013678887006</stp>
         <tr r="C83" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2059962829</v>
+        <v>#N/A Requesting Data...3026302343</v>
         <stp/>
         <stp>BDP|12638693508540193928</stp>
         <tr r="O83" s="2"/>
@@ -1597,19 +1597,19 @@
         <tr r="P133" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3596181223</v>
+        <v>#N/A Requesting Data...3840210383</v>
         <stp/>
         <stp>BDP|17119275309777085060</stp>
         <tr r="D97" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3881300558</v>
+        <v>#N/A Requesting Data...2883726460</v>
         <stp/>
         <stp>BDP|16334400116593439221</stp>
         <tr r="D103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3018110977</v>
+        <v>#N/A Requesting Data...3068845374</v>
         <stp/>
         <stp>BDP|17261400698320790895</stp>
         <tr r="O123" s="2"/>
@@ -1623,7 +1623,7 @@
         <tr r="P100" s="2"/>
       </tp>
       <tp t="s">
-        <v>19.09.2025</v>
+        <v>26.09.2025</v>
         <stp/>
         <stp>BDP|4742737479639692576|22</stp>
         <stp>EEX3BDDE Index</stp>
@@ -1639,49 +1639,49 @@
         <tr r="P128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4106010718</v>
+        <v>#N/A Requesting Data...3132484702</v>
         <stp/>
         <stp>BDP|10231084159133314599</stp>
         <tr r="O63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3982265701</v>
+        <v>#N/A Requesting Data...2426632283</v>
         <stp/>
         <stp>BDP|10762113169831043550</stp>
         <tr r="C59" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1864030556</v>
+        <v>#N/A Requesting Data...3187389083</v>
         <stp/>
         <stp>BDP|16233839828067587813</stp>
         <tr r="O69" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2851178988</v>
+        <v>#N/A Requesting Data...4178378392</v>
         <stp/>
         <stp>BDP|18112152192717370493</stp>
         <tr r="D57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3504221341</v>
+        <v>#N/A Requesting Data...3919402131</v>
         <stp/>
         <stp>BDP|12631048552532555647</stp>
         <tr r="C45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3890383162</v>
+        <v>#N/A Requesting Data...3373401711</v>
         <stp/>
         <stp>BDP|16257536659004183193</stp>
         <tr r="D61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4170548905</v>
+        <v>#N/A Requesting Data...3035140306</v>
         <stp/>
         <stp>BDP|11773772447184358568</stp>
         <tr r="D67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3459423573</v>
+        <v>#N/A Requesting Data...3416249604</v>
         <stp/>
         <stp>BDP|11036023536593262247</stp>
         <tr r="D80" s="2"/>
@@ -1703,7 +1703,7 @@
         <tr r="I69" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2602515740</v>
+        <v>#N/A Requesting Data...1934235423</v>
         <stp/>
         <stp>BDP|10371740171936643690</stp>
         <tr r="C121" s="2"/>
@@ -1733,49 +1733,49 @@
         <tr r="P109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4251662777</v>
+        <v>#N/A Requesting Data...3093487107</v>
         <stp/>
         <stp>BDP|10450986407190051879</stp>
         <tr r="O113" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3791592779</v>
+        <v>#N/A Requesting Data...3705033500</v>
         <stp/>
         <stp>BDP|17345118041494135735</stp>
         <tr r="O39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1935214957</v>
+        <v>#N/A Requesting Data...3962361352</v>
         <stp/>
         <stp>BDP|12312559960178218854</stp>
         <tr r="O60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3230421608</v>
+        <v>#N/A Requesting Data...3552300927</v>
         <stp/>
         <stp>BDP|18235654050928285246</stp>
         <tr r="D118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2737188729</v>
+        <v>#N/A Requesting Data...2468211880</v>
         <stp/>
         <stp>BDP|11908180946526696355</stp>
         <tr r="O77" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4281309751</v>
+        <v>#N/A Requesting Data...4105056944</v>
         <stp/>
         <stp>BDP|16041498039241224153</stp>
         <tr r="D50" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2209825871</v>
+        <v>#N/A Requesting Data...3610648663</v>
         <stp/>
         <stp>BDP|15600557786638647149</stp>
         <tr r="O135" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2790566871</v>
+        <v>#N/A Requesting Data...3341558746</v>
         <stp/>
         <stp>BDP|17201301560995300668</stp>
         <tr r="C128" s="2"/>
@@ -1805,61 +1805,61 @@
         <tr r="I118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2706101037</v>
+        <v>#N/A Requesting Data...2962405189</v>
         <stp/>
         <stp>BDP|11964424655954108243</stp>
         <tr r="O152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3391047742</v>
+        <v>#N/A Requesting Data...2976963628</v>
         <stp/>
         <stp>BDP|15039250998841436929</stp>
         <tr r="C70" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3083416061</v>
+        <v>#N/A Requesting Data...2236781281</v>
         <stp/>
         <stp>BDP|12983476071071398635</stp>
         <tr r="D121" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2289970885</v>
+        <v>#N/A Requesting Data...2312103503</v>
         <stp/>
         <stp>BDP|13022728685482255840</stp>
         <tr r="D151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2054624788</v>
+        <v>#N/A Requesting Data...2190066576</v>
         <stp/>
         <stp>BDP|14787445835483775602</stp>
         <tr r="C49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3642960576</v>
+        <v>#N/A Requesting Data...3119673379</v>
         <stp/>
         <stp>BDP|13835889490117150311</stp>
         <tr r="C41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3269636898</v>
+        <v>#N/A Requesting Data...2581544999</v>
         <stp/>
         <stp>BDP|11777284828983264462</stp>
         <tr r="C152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2497927002</v>
+        <v>#N/A Requesting Data...2287991041</v>
         <stp/>
         <stp>BDP|16175526658473866307</stp>
         <tr r="O101" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2123098325</v>
+        <v>#N/A Requesting Data...2366250346</v>
         <stp/>
         <stp>BDP|17426017852985395138</stp>
         <tr r="D125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3407620163</v>
+        <v>#N/A Requesting Data...4115574904</v>
         <stp/>
         <stp>BDP|11679146174687658674</stp>
         <tr r="O61" s="2"/>
@@ -1881,49 +1881,49 @@
         <tr r="I73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2869209014</v>
+        <v>#N/A Requesting Data...4154632802</v>
         <stp/>
         <stp>BDP|11739412558546315165</stp>
         <tr r="O107" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4120578157</v>
+        <v>#N/A Requesting Data...3879360934</v>
         <stp/>
         <stp>BDP|17821757611616847099</stp>
         <tr r="D73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2957870687</v>
+        <v>#N/A Requesting Data...1942178302</v>
         <stp/>
         <stp>BDP|12363162891205314891</stp>
         <tr r="C132" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2636773935</v>
+        <v>#N/A Requesting Data...3027878296</v>
         <stp/>
         <stp>BDP|16498489714365827135</stp>
         <tr r="O38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1917955056</v>
+        <v>#N/A Requesting Data...1948269434</v>
         <stp/>
         <stp>BDP|17756265275154491129</stp>
         <tr r="D152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2247837263</v>
+        <v>#N/A Requesting Data...2715946808</v>
         <stp/>
         <stp>BDP|11973396237516626030</stp>
         <tr r="D122" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3400120643</v>
+        <v>#N/A Requesting Data...4160267359</v>
         <stp/>
         <stp>BDP|13226662244594317259</stp>
         <tr r="O141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2219022147</v>
+        <v>#N/A Requesting Data...2212741690</v>
         <stp/>
         <stp>BDP|17779836694136602703</stp>
         <tr r="D69" s="2"/>
@@ -1945,37 +1945,37 @@
         <tr r="H35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3791314564</v>
+        <v>#N/A Requesting Data...2972091096</v>
         <stp/>
         <stp>BDP|17702743798129095414</stp>
         <tr r="C109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3086672099</v>
+        <v>#N/A Requesting Data...4135048359</v>
         <stp/>
         <stp>BDP|14502996891943856393</stp>
         <tr r="D107" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3925648921</v>
+        <v>#N/A Requesting Data...4211698744</v>
         <stp/>
         <stp>BDP|14009510159603117373</stp>
         <tr r="C151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3645066545</v>
+        <v>#N/A Requesting Data...3389262080</v>
         <stp/>
         <stp>BDP|17433439855215748722</stp>
         <tr r="D63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4120653582</v>
+        <v>#N/A Requesting Data...4195094472</v>
         <stp/>
         <stp>BDP|15963953319790315909</stp>
         <tr r="O132" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2879726361</v>
+        <v>#N/A Requesting Data...4038408669</v>
         <stp/>
         <stp>BDP|10568242787378537653</stp>
         <tr r="O37" s="2"/>
@@ -1989,37 +1989,37 @@
         <tr r="I79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3565528278</v>
+        <v>#N/A Requesting Data...3677007115</v>
         <stp/>
         <stp>BDP|13291842058863532828</stp>
         <tr r="O70" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4136531630</v>
+        <v>#N/A Requesting Data...1927414131</v>
         <stp/>
         <stp>BDP|12418513149975378324</stp>
         <tr r="C97" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3693669302</v>
+        <v>#N/A Requesting Data...4000500940</v>
         <stp/>
         <stp>BDP|14876410132956204074</stp>
         <tr r="D89" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2199037899</v>
+        <v>#N/A Requesting Data...3590026489</v>
         <stp/>
         <stp>BDP|12662972772298021130</stp>
         <tr r="O41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3386333179</v>
+        <v>#N/A Requesting Data...2870947150</v>
         <stp/>
         <stp>BDP|15876548244805841436</stp>
         <tr r="O151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2222004901</v>
+        <v>#N/A Requesting Data...4094534761</v>
         <stp/>
         <stp>BDP|12436206503061465444</stp>
         <tr r="O89" s="2"/>
@@ -2099,7 +2099,7 @@
         <tr r="H81" s="2"/>
       </tp>
       <tp>
-        <v>70</v>
+        <v>65</v>
         <stp/>
         <stp>BDP|8894173801250207596|22</stp>
         <stp>EEX3PMEU Index</stp>
@@ -2163,7 +2163,7 @@
         <tr r="P90" s="2"/>
       </tp>
       <tp t="s">
-        <v>19.09.2025</v>
+        <v>26.09.2025</v>
         <stp/>
         <stp>BDP|14840393295774202550|22</stp>
         <stp>EEX3PMDE Index</stp>
@@ -2340,7 +2340,7 @@
         <tr r="P79" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:28</v>
+        <v>11:00:38</v>
         <stp/>
         <stp>BDP|15913837711201520928|22</stp>
         <stp>EEX3EPPM Index</stp>
@@ -2428,7 +2428,7 @@
         <tr r="H110" s="2"/>
       </tp>
       <tp t="s">
-        <v>19.09.2025</v>
+        <v>26.09.2025</v>
         <stp/>
         <stp>BDP|12484327023668429337|22</stp>
         <stp>EEX3MNDE Index</stp>
@@ -2452,7 +2452,7 @@
         <tr r="H50" s="2"/>
       </tp>
       <tp>
-        <v>70</v>
+        <v>65</v>
         <stp/>
         <stp>BDP|4673945679228878777|22</stp>
         <stp>EEX3EPPM Index</stp>
@@ -2468,7 +2468,7 @@
         <tr r="P103" s="2"/>
       </tp>
       <tp t="s">
-        <v>19.09.2025</v>
+        <v>26.09.2025</v>
         <stp/>
         <stp>BDP|10597827675332248545|22</stp>
         <stp>EEX3MDDE Index</stp>
@@ -2476,49 +2476,49 @@
         <tr r="P61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3180838044</v>
+        <v>#N/A Requesting Data...3059329977</v>
         <stp/>
         <stp>BDP|4124903069222755554</stp>
         <tr r="O87" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2271976617</v>
+        <v>#N/A Requesting Data...3725564916</v>
         <stp/>
         <stp>BDP|8892146774205393713</stp>
         <tr r="D129" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3312639738</v>
+        <v>#N/A Requesting Data...3391263136</v>
         <stp/>
         <stp>BDP|2477959445181429293</stp>
         <tr r="O129" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3468738610</v>
+        <v>#N/A Requesting Data...4103660301</v>
         <stp/>
         <stp>BDP|9350291445254965784</stp>
         <tr r="D37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2258087727</v>
+        <v>#N/A Requesting Data...4093572090</v>
         <stp/>
         <stp>BDP|6891918115273664161</stp>
         <tr r="D139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3847081052</v>
+        <v>#N/A Requesting Data...3340171572</v>
         <stp/>
         <stp>BDP|3573415783287593449</stp>
         <tr r="C48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2384382038</v>
+        <v>#N/A Requesting Data...4169721498</v>
         <stp/>
         <stp>BDP|8619946037809089717</stp>
         <tr r="O73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3511214717</v>
+        <v>#N/A Requesting Data...3721857198</v>
         <stp/>
         <stp>BDP|8134701725687838685</stp>
         <tr r="D101" s="2"/>
@@ -2532,13 +2532,13 @@
         <tr r="H141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4213229489</v>
+        <v>#N/A Requesting Data...3352892708</v>
         <stp/>
         <stp>BDP|2337395976008307323</stp>
         <tr r="D133" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2343850864</v>
+        <v>#N/A Requesting Data...3622076532</v>
         <stp/>
         <stp>BDP|7346443724919908584</stp>
         <tr r="C143" s="2"/>
@@ -2552,55 +2552,55 @@
         <tr r="H47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2704687649</v>
+        <v>#N/A Requesting Data...3948534488</v>
         <stp/>
         <stp>BDP|2452480886172944101</stp>
         <tr r="D83" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3596885998</v>
+        <v>#N/A Requesting Data...3252562496</v>
         <stp/>
         <stp>BDP|3988758046487897994</stp>
         <tr r="O100" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3907779496</v>
+        <v>#N/A Requesting Data...3594945978</v>
         <stp/>
         <stp>BDP|8487968754382467898</stp>
         <tr r="O111" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2348516373</v>
+        <v>#N/A Requesting Data...4102134081</v>
         <stp/>
         <stp>BDP|3168197062443776948</stp>
         <tr r="O97" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2503298807</v>
+        <v>#N/A Requesting Data...2828792737</v>
         <stp/>
         <stp>BDP|3191294011039253743</stp>
         <tr r="C100" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1895286610</v>
+        <v>#N/A Requesting Data...3593607052</v>
         <stp/>
         <stp>BDP|8158190943367710418</stp>
         <tr r="D141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4057800672</v>
+        <v>#N/A Requesting Data...2760391166</v>
         <stp/>
         <stp>BDP|9753944506837726937</stp>
         <tr r="O139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3539646415</v>
+        <v>#N/A Requesting Data...3623038162</v>
         <stp/>
         <stp>BDP|2383970352993755307</stp>
         <tr r="D111" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3327878349</v>
+        <v>#N/A Requesting Data...2336302370</v>
         <stp/>
         <stp>BDP|8422754563225257254</stp>
         <tr r="D119" s="2"/>
@@ -2614,67 +2614,67 @@
         <tr r="I103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1918514260</v>
+        <v>#N/A Requesting Data...3474493846</v>
         <stp/>
         <stp>BDP|1905452132299753056</stp>
         <tr r="C39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2061164887</v>
+        <v>#N/A Requesting Data...4048572316</v>
         <stp/>
         <stp>BDP|9168179234227771399</stp>
         <tr r="O128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3282688730</v>
+        <v>#N/A Requesting Data...3256224482</v>
         <stp/>
         <stp>BDP|2740714101503839931</stp>
         <tr r="C141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4099122996</v>
+        <v>#N/A Requesting Data...3891554667</v>
         <stp/>
         <stp>BDP|7992263003279543384</stp>
         <tr r="D142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2883420745</v>
+        <v>#N/A Requesting Data...4201775038</v>
         <stp/>
         <stp>BDP|5477825144986453010</stp>
         <tr r="O59" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1981112941</v>
+        <v>#N/A Requesting Data...3063614208</v>
         <stp/>
         <stp>BDP|8165965388487479679</stp>
         <tr r="O81" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3804800462</v>
+        <v>#N/A Requesting Data...2991411471</v>
         <stp/>
         <stp>BDP|5675445137023195982</stp>
         <tr r="O143" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3921749312</v>
+        <v>#N/A Requesting Data...3321608038</v>
         <stp/>
         <stp>BDP|4173264548992531864</stp>
         <tr r="O109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2993262965</v>
+        <v>#N/A Requesting Data...3023798439</v>
         <stp/>
         <stp>BDP|6322017615579378624</stp>
         <tr r="O90" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3641971996</v>
+        <v>#N/A Requesting Data...2212022352</v>
         <stp/>
         <stp>BDP|7700706960287514955</stp>
         <tr r="O99" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3062497195</v>
+        <v>#N/A Requesting Data...4225149716</v>
         <stp/>
         <stp>BDP|2684958064503521663</stp>
         <tr r="C87" s="2"/>
@@ -2688,7 +2688,7 @@
         <tr r="I143" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2697217946</v>
+        <v>#N/A Requesting Data...3911064392</v>
         <stp/>
         <stp>BDP|2825895505117461495</stp>
         <tr r="O57" s="2"/>
@@ -2702,13 +2702,13 @@
         <tr r="I141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2266099368</v>
+        <v>#N/A Requesting Data...3060371761</v>
         <stp/>
         <stp>BDP|5555436835568594389</stp>
         <tr r="D145" s="2"/>
       </tp>
       <tp>
-        <v>120</v>
+        <v>78</v>
         <stp/>
         <stp>BDP|328381708441600475|22</stp>
         <stp>EEX3PMDE Index</stp>
@@ -2716,73 +2716,73 @@
         <tr r="I57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2755989317</v>
+        <v>#N/A Requesting Data...3751134031</v>
         <stp/>
         <stp>BDP|4279202299077950281</stp>
         <tr r="D41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3608216194</v>
+        <v>#N/A Requesting Data...4159627031</v>
         <stp/>
         <stp>BDP|6929810016462650737</stp>
         <tr r="D87" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3126369205</v>
+        <v>#N/A Requesting Data...2655008865</v>
         <stp/>
         <stp>BDP|1294936769142798640</stp>
         <tr r="C37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2380880244</v>
+        <v>#N/A Requesting Data...2614784531</v>
         <stp/>
         <stp>BDP|8268735055277832754</stp>
         <tr r="D100" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3511989263</v>
+        <v>#N/A Requesting Data...3797422665</v>
         <stp/>
         <stp>BDP|7997415316799901193</stp>
         <tr r="O53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2866679952</v>
+        <v>#N/A Requesting Data...3585415479</v>
         <stp/>
         <stp>BDP|6278897671657613432</stp>
         <tr r="O145" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4027605029</v>
+        <v>#N/A Requesting Data...3969074724</v>
         <stp/>
         <stp>BDP|8917206333941126276</stp>
         <tr r="O79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2585877919</v>
+        <v>#N/A Requesting Data...4162308527</v>
         <stp/>
         <stp>BDP|9488941276259397490</stp>
         <tr r="O67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4210266414</v>
+        <v>#N/A Requesting Data...3165005813</v>
         <stp/>
         <stp>BDP|5600386799382259784</stp>
         <tr r="C113" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2846955104</v>
+        <v>#N/A Requesting Data...3693804741</v>
         <stp/>
         <stp>BDP|9996435367631888077</stp>
         <tr r="C71" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2335079538</v>
+        <v>#N/A Requesting Data...3062027921</v>
         <stp/>
         <stp>BDP|3790921814431878090</stp>
         <tr r="D38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2784247094</v>
+        <v>#N/A Requesting Data...2577666069</v>
         <stp/>
         <stp>BDP|5023633295787322705</stp>
         <tr r="C101" s="2"/>
@@ -2805,37 +2805,37 @@
         <tr r="H151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2408171601</v>
+        <v>#N/A Requesting Data...3765057786</v>
         <stp/>
         <stp>BDP|2742897454442023636</stp>
         <tr r="D93" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4236324017</v>
+        <v>#N/A Requesting Data...3665485142</v>
         <stp/>
         <stp>BDP|1308380368217282806</stp>
         <tr r="C89" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2772627307</v>
+        <v>#N/A Requesting Data...2444824316</v>
         <stp/>
         <stp>BDP|2125519877263797874</stp>
         <tr r="D49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2070623136</v>
+        <v>#N/A Requesting Data...2908389307</v>
         <stp/>
         <stp>BDP|8187334089870399738</stp>
         <tr r="C142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3468809980</v>
+        <v>#N/A Requesting Data...2762174194</v>
         <stp/>
         <stp>BDP|8447705041427452887</stp>
         <tr r="O110" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3340732058</v>
+        <v>#N/A Requesting Data...4265848350</v>
         <stp/>
         <stp>BDP|9588220581862090554</stp>
         <tr r="D81" s="2"/>
@@ -2849,122 +2849,122 @@
         <tr r="H123" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2844380312</v>
+        <v>#N/A Requesting Data...3294088875</v>
         <stp/>
         <stp>BDP|6336981452218022714</stp>
         <tr r="D149" s="2"/>
         <tr r="D28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2733807083</v>
+        <v>#N/A Requesting Data...2035989147</v>
         <stp/>
         <stp>BDP|5144982884240236131</stp>
         <tr r="O119" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3156465900</v>
+        <v>#N/A Requesting Data...2211941139</v>
         <stp/>
         <stp>BDP|4912389578430923538</stp>
         <tr r="C125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3940264754</v>
+        <v>#N/A Requesting Data...3673945478</v>
         <stp/>
         <stp>BDP|4899183487030457834</stp>
         <tr r="D47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3562188054</v>
+        <v>#N/A Requesting Data...2751653140</v>
         <stp/>
         <stp>BDP|7406447711566288126</stp>
         <tr r="O91" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2964413555</v>
+        <v>#N/A Requesting Data...3686239687</v>
         <stp/>
         <stp>BDP|2318106224533271732</stp>
         <tr r="D123" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2303613311</v>
+        <v>#N/A Requesting Data...3375497890</v>
         <stp/>
         <stp>BDP|5397604398148966497</stp>
         <tr r="C118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3865658298</v>
+        <v>#N/A Requesting Data...2114572801</v>
         <stp/>
         <stp>BDP|5247213518087466774</stp>
         <tr r="D79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3130603370</v>
+        <v>#N/A Requesting Data...2540930616</v>
         <stp/>
         <stp>BDP|2268502188811293879</stp>
         <tr r="O45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2195147288</v>
+        <v>#N/A Requesting Data...4087357460</v>
         <stp/>
         <stp>BDP|2615106264042847162</stp>
         <tr r="C35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2469832470</v>
+        <v>#N/A Requesting Data...2353603342</v>
         <stp/>
         <stp>BDP|7242668637610389424</stp>
         <tr r="C38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2779168227</v>
+        <v>#N/A Requesting Data...2675892088</v>
         <stp/>
         <stp>BDP|3708410904060798168</stp>
         <tr r="D110" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2431731682</v>
+        <v>#N/A Requesting Data...2699684345</v>
         <stp/>
         <stp>BDP|5117711638166954114</stp>
         <tr r="O131" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3940631996</v>
+        <v>#N/A Requesting Data...4011580641</v>
         <stp/>
         <stp>BDP|3978038447362277279</stp>
         <tr r="O50" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3371824372</v>
+        <v>#N/A Requesting Data...2499196924</v>
         <stp/>
         <stp>BDP|4136828621258877131</stp>
         <tr r="C122" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1981516316</v>
+        <v>#N/A Requesting Data...3181840556</v>
         <stp/>
         <stp>BDP|2277297320794027172</stp>
         <tr r="O93" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3993153533</v>
+        <v>#N/A Requesting Data...3318558477</v>
         <stp/>
         <stp>BDP|8961196036758342506</stp>
         <tr r="D113" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4111305280</v>
+        <v>#N/A Requesting Data...2920437403</v>
         <stp/>
         <stp>BDP|1170165359530510519</stp>
         <tr r="C53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4082303745</v>
+        <v>#N/A Requesting Data...2272023768</v>
         <stp/>
         <stp>BDP|3942355915051567002</stp>
         <tr r="C133" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3012036570</v>
+        <v>#N/A Requesting Data...2801771067</v>
         <stp/>
         <stp>BDP|3535326747745052123</stp>
         <tr r="D53" s="2"/>
@@ -2986,68 +2986,68 @@
         <tr r="H48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3336652358</v>
+        <v>#N/A Requesting Data...2575654484</v>
         <stp/>
         <stp>BDP|9540225089557104556</stp>
         <tr r="O118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2880781358</v>
+        <v>#N/A Requesting Data...2971962159</v>
         <stp/>
         <stp>BDP|5062514338582227013</stp>
         <tr r="D128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3886660404</v>
+        <v>#N/A Requesting Data...3830833059</v>
         <stp/>
         <stp>BDP|2343600014653733789</stp>
         <tr r="O103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3111638303</v>
+        <v>#N/A Requesting Data...3212940554</v>
         <stp/>
         <stp>BDP|3242086975802090723</stp>
         <tr r="D90" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3186666115</v>
+        <v>#N/A Requesting Data...3606144925</v>
         <stp/>
         <stp>BDP|8360886275346359094</stp>
         <tr r="C103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3679453454</v>
+        <v>#N/A Requesting Data...2322432188</v>
         <stp/>
         <stp>BDP|6855110725440116773</stp>
         <tr r="C61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4217219808</v>
+        <v>#N/A Requesting Data...3920546174</v>
         <stp/>
         <stp>BDP|8675841477756696315</stp>
         <tr r="C139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1997789761</v>
+        <v>#N/A Requesting Data...2675842620</v>
         <stp/>
         <stp>BDP|4759583229459353843</stp>
         <tr r="O47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2009588003</v>
+        <v>#N/A Requesting Data...2858529613</v>
         <stp/>
         <stp>BDP|9839782485004760030</stp>
         <tr r="C149" s="2"/>
         <tr r="C28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3578200305</v>
+        <v>#N/A Requesting Data...2068521071</v>
         <stp/>
         <stp>BDP|3917864525078759387</stp>
         <tr r="C47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3212697943</v>
+        <v>#N/A Requesting Data...2785492263</v>
         <stp/>
         <stp>BDP|1874573773983759306</stp>
         <tr r="C60" s="2"/>
@@ -3061,25 +3061,25 @@
         <tr r="H53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3627248931</v>
+        <v>#N/A Requesting Data...2433614328</v>
         <stp/>
         <stp>BDP|4991441920223468278</stp>
         <tr r="C110" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2553211447</v>
+        <v>#N/A Requesting Data...2084348870</v>
         <stp/>
         <stp>BDP|4634330117701477447</stp>
         <tr r="D48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4114578612</v>
+        <v>#N/A Requesting Data...3463488994</v>
         <stp/>
         <stp>BDP|3206597226223845400</stp>
         <tr r="D35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4057614707</v>
+        <v>#N/A Requesting Data...2183215463</v>
         <stp/>
         <stp>BDP|7344440665766321042</stp>
         <tr r="D45" s="2"/>
@@ -3109,7 +3109,7 @@
         <tr r="I119" s="2"/>
       </tp>
       <tp>
-        <v>70</v>
+        <v>65</v>
         <stp/>
         <stp>BDP|5258715941910323221|22</stp>
         <stp>EEXXT3PA Index</stp>
@@ -3117,13 +3117,13 @@
         <tr r="H45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4167413746</v>
+        <v>#N/A Requesting Data...2901141396</v>
         <stp/>
         <stp>BDP|92010296815936747</stp>
         <tr r="D132" s="2"/>
       </tp>
       <tp>
-        <v>85</v>
+        <v>90</v>
         <stp/>
         <stp>BDP|1716388539457443821|22</stp>
         <stp>EEXXT3PA Index</stp>
@@ -3211,7 +3211,7 @@
         <tr r="P89" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2171774210</v>
+        <v>#N/A Requesting Data...2801367748</v>
         <stp/>
         <stp>BDP|141486019989176878</stp>
         <tr r="C77" s="2"/>
@@ -3233,13 +3233,13 @@
         <tr r="I142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3368513823</v>
+        <v>#N/A Requesting Data...3161463840</v>
         <stp/>
         <stp>BDP|498236031780937674</stp>
         <tr r="O71" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3640075331</v>
+        <v>#N/A Requesting Data...2785105620</v>
         <stp/>
         <stp>BDP|626474072446054250</stp>
         <tr r="O48" s="2"/>
@@ -3253,7 +3253,7 @@
         <tr r="I128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2235235338</v>
+        <v>#N/A Requesting Data...2163345407</v>
         <stp/>
         <stp>BDP|949597951093820562</stp>
         <tr r="C69" s="2"/>
@@ -3275,7 +3275,7 @@
         <tr r="I139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2925767697</v>
+        <v>#N/A Requesting Data...4161905259</v>
         <stp/>
         <stp>BDP|527374345414391240</stp>
         <tr r="C99" s="2"/>
@@ -3289,7 +3289,7 @@
         <tr r="I38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2025227707</v>
+        <v>#N/A Requesting Data...3206395579</v>
         <stp/>
         <stp>BDP|445371574551055651</stp>
         <tr r="C111" s="2"/>
@@ -3319,7 +3319,7 @@
         <tr r="H125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3752166436</v>
+        <v>#N/A Requesting Data...2360421753</v>
         <stp/>
         <stp>BDP|411030222906237860</stp>
         <tr r="O133" s="2"/>
@@ -3389,7 +3389,7 @@
         <tr r="H39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4018933024</v>
+        <v>#N/A Requesting Data...4012637886</v>
         <stp/>
         <stp>BDP|112394073414420858</stp>
         <tr r="C123" s="2"/>
@@ -3403,7 +3403,7 @@
         <tr r="I152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2207034119</v>
+        <v>#N/A Requesting Data...3330833945</v>
         <stp/>
         <stp>BDP|280997264327962398</stp>
         <tr r="O149" s="2"/>
@@ -3475,7 +3475,7 @@
         <tr r="H49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4137564195</v>
+        <v>#N/A Requesting Data...3055515199</v>
         <stp/>
         <stp>BDP|599652034392309</stp>
         <tr r="D143" s="2"/>
@@ -3783,7 +3783,7 @@
   <dimension ref="A1:P152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:P27"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4738,30 +4738,30 @@
       </c>
       <c r="C45">
         <f>_xll.BDP("EEXXT3PA Index","PX_LAST")</f>
-        <v>75.599999999999994</v>
+        <v>75.2</v>
       </c>
       <c r="D45">
         <f>_xll.BDP("EEXXT3PA Index","PX_VOLUME")</f>
-        <v>0</v>
+        <v>6536000</v>
       </c>
       <c r="H45">
         <f>_xll.BDP("EEXXT3PA Index","BID")</f>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I45">
         <f>_xll.BDP("EEXXT3PA Index","ASK")</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N45" t="s">
         <v>58</v>
       </c>
       <c r="O45" t="str">
         <f>_xll.BDP("EEXXT3PA Index","LAST_UPDATE_DT")</f>
-        <v>23.09.2025</v>
+        <v>29.09.2025</v>
       </c>
       <c r="P45" t="str">
         <f>_xll.BDP("EEXXT3PA Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>11:17:09</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="C47">
         <f>_xll.BDP("EEX3CRT3 Index","PX_LAST")</f>
-        <v>1.22</v>
+        <v>1.51</v>
       </c>
       <c r="D47">
         <f>_xll.BDP("EEX3CRT3 Index","PX_VOLUME")</f>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="O47" t="str">
         <f>_xll.BDP("EEX3CRT3 Index","LAST_UPDATE_DT")</f>
-        <v>23.09.2025</v>
+        <v>29.09.2025</v>
       </c>
       <c r="P47" t="str">
         <f>_xll.BDP("EEX3CRT3 Index","TIME")</f>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="C48">
         <f>_xll.BDP("EEX3MNT3 Index","PX_LAST")</f>
-        <v>75.709999999999994</v>
+        <v>75.19</v>
       </c>
       <c r="D48">
         <f>_xll.BDP("EEX3MNT3 Index","PX_VOLUME")</f>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="O48" t="str">
         <f>_xll.BDP("EEX3MNT3 Index","LAST_UPDATE_DT")</f>
-        <v>23.09.2025</v>
+        <v>29.09.2025</v>
       </c>
       <c r="P48" t="str">
         <f>_xll.BDP("EEX3MNT3 Index","TIME")</f>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="C49">
         <f>_xll.BDP("EEX3MDT3 Index","PX_LAST")</f>
-        <v>75.599999999999994</v>
+        <v>74.91</v>
       </c>
       <c r="D49">
         <f>_xll.BDP("EEX3MDT3 Index","PX_VOLUME")</f>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="O49" t="str">
         <f>_xll.BDP("EEX3MDT3 Index","LAST_UPDATE_DT")</f>
-        <v>23.09.2025</v>
+        <v>29.09.2025</v>
       </c>
       <c r="P49" t="str">
         <f>_xll.BDP("EEX3MDT3 Index","TIME")</f>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="C50">
         <f>_xll.BDP("EEX3SCCB Index","PX_LAST")</f>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D50">
         <f>_xll.BDP("EEX3SCCB Index","PX_VOLUME")</f>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="O50" t="str">
         <f>_xll.BDP("EEX3SCCB Index","LAST_UPDATE_DT")</f>
-        <v>23.09.2025</v>
+        <v>29.09.2025</v>
       </c>
       <c r="P50" t="str">
         <f>_xll.BDP("EEX3SCCB Index","TIME")</f>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="O51" t="str">
         <f>_xll.BDP("EEX3TOTB Index","LAST_UPDATE_DT")</f>
-        <v>23.09.2025</v>
+        <v>29.09.2025</v>
       </c>
       <c r="P51" t="str">
         <f>_xll.BDP("EEX3TOTB Index","TIME")</f>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="C53">
         <f>_xll.BDP("EEX3BDT3 Index","PX_LAST")</f>
-        <v>3985500</v>
+        <v>4941000</v>
       </c>
       <c r="D53">
         <f>_xll.BDP("EEX3BDT3 Index","PX_VOLUME")</f>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="O53" t="str">
         <f>_xll.BDP("EEX3BDT3 Index","LAST_UPDATE_DT")</f>
-        <v>23.09.2025</v>
+        <v>29.09.2025</v>
       </c>
       <c r="P53" t="str">
         <f>_xll.BDP("EEX3BDT3 Index","TIME")</f>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="C57">
         <f>_xll.BDP("EEX3PMDE Index","PX_LAST")</f>
-        <v>76.569999999999993</v>
+        <v>75.17</v>
       </c>
       <c r="D57">
         <f>_xll.BDP("EEX3PMDE Index","PX_VOLUME")</f>
@@ -5047,22 +5047,22 @@
       </c>
       <c r="H57">
         <f>_xll.BDP("EEX3PMDE Index","BID")</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I57">
         <f>_xll.BDP("EEX3PMDE Index","ASK")</f>
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="N57" t="s">
         <v>61</v>
       </c>
       <c r="O57" t="str">
         <f>_xll.BDP("EEX3PMDE Index","LAST_UPDATE_DT")</f>
-        <v>19.09.2025</v>
+        <v>26.09.2025</v>
       </c>
       <c r="P57" t="str">
         <f>_xll.BDP("EEX3PMDE Index","TIME")</f>
-        <v>19.09.2025</v>
+        <v>26.09.2025</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="C59">
         <f>_xll.BDP("EEX3CRDE Index","PX_LAST")</f>
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="D59">
         <f>_xll.BDP("EEX3CRDE Index","PX_VOLUME")</f>
@@ -5101,11 +5101,11 @@
       </c>
       <c r="O59" t="str">
         <f>_xll.BDP("EEX3CRDE Index","LAST_UPDATE_DT")</f>
-        <v>19.09.2025</v>
+        <v>26.09.2025</v>
       </c>
       <c r="P59" t="str">
         <f>_xll.BDP("EEX3CRDE Index","TIME")</f>
-        <v>19.09.2025</v>
+        <v>26.09.2025</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="C60">
         <f>_xll.BDP("EEX3MNDE Index","PX_LAST")</f>
-        <v>77.3</v>
+        <v>74.77</v>
       </c>
       <c r="D60">
         <f>_xll.BDP("EEX3MNDE Index","PX_VOLUME")</f>
@@ -5136,11 +5136,11 @@
       </c>
       <c r="O60" t="str">
         <f>_xll.BDP("EEX3MNDE Index","LAST_UPDATE_DT")</f>
-        <v>19.09.2025</v>
+        <v>26.09.2025</v>
       </c>
       <c r="P60" t="str">
         <f>_xll.BDP("EEX3MNDE Index","TIME")</f>
-        <v>19.09.2025</v>
+        <v>26.09.2025</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="C61">
         <f>_xll.BDP("EEX3MDDE Index","PX_LAST")</f>
-        <v>76.430000000000007</v>
+        <v>74.739999999999995</v>
       </c>
       <c r="D61">
         <f>_xll.BDP("EEX3MDDE Index","PX_VOLUME")</f>
@@ -5171,11 +5171,11 @@
       </c>
       <c r="O61" t="str">
         <f>_xll.BDP("EEX3MDDE Index","LAST_UPDATE_DT")</f>
-        <v>19.09.2025</v>
+        <v>26.09.2025</v>
       </c>
       <c r="P61" t="str">
         <f>_xll.BDP("EEX3MDDE Index","TIME")</f>
-        <v>19.09.2025</v>
+        <v>26.09.2025</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="C63">
         <f>_xll.BDP("EEX3BDDE Index","PX_LAST")</f>
-        <v>2832000</v>
+        <v>3513000</v>
       </c>
       <c r="D63">
         <f>_xll.BDP("EEX3BDDE Index","PX_VOLUME")</f>
@@ -5217,11 +5217,11 @@
       </c>
       <c r="O63" t="str">
         <f>_xll.BDP("EEX3BDDE Index","LAST_UPDATE_DT")</f>
-        <v>19.09.2025</v>
+        <v>26.09.2025</v>
       </c>
       <c r="P63" t="str">
         <f>_xll.BDP("EEX3BDDE Index","TIME")</f>
-        <v>19.09.2025</v>
+        <v>26.09.2025</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="C67">
         <f>_xll.BDP("EEX3EPPM Index","PX_LAST")</f>
-        <v>75.599999999999994</v>
+        <v>75.2</v>
       </c>
       <c r="D67">
         <f>_xll.BDP("EEX3EPPM Index","PX_VOLUME")</f>
@@ -5278,22 +5278,22 @@
       </c>
       <c r="H67">
         <f>_xll.BDP("EEX3EPPM Index","BID")</f>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I67">
         <f>_xll.BDP("EEX3EPPM Index","ASK")</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N67" t="s">
         <v>63</v>
       </c>
       <c r="O67" t="str">
         <f>_xll.BDP("EEX3EPPM Index","LAST_UPDATE_DT")</f>
-        <v>23.09.2025</v>
+        <v>29.09.2025</v>
       </c>
       <c r="P67" t="str">
         <f>_xll.BDP("EEX3EPPM Index","TIME")</f>
-        <v>11:00:28</v>
+        <v>11:00:38</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="C69">
         <f>_xll.BDP("EEX3EPCR Index","PX_LAST")</f>
-        <v>1.22</v>
+        <v>1.51</v>
       </c>
       <c r="D69">
         <f>_xll.BDP("EEX3EPCR Index","PX_VOLUME")</f>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="O69" t="str">
         <f>_xll.BDP("EEX3EPCR Index","LAST_UPDATE_DT")</f>
-        <v>23.09.2025</v>
+        <v>29.09.2025</v>
       </c>
       <c r="P69" t="str">
         <f>_xll.BDP("EEX3EPCR Index","TIME")</f>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="C70">
         <f>_xll.BDP("EEX3MNEP Index","PX_LAST")</f>
-        <v>75.709999999999994</v>
+        <v>75.19</v>
       </c>
       <c r="D70">
         <f>_xll.BDP("EEX3MNEP Index","PX_VOLUME")</f>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="O70" t="str">
         <f>_xll.BDP("EEX3MNEP Index","LAST_UPDATE_DT")</f>
-        <v>23.09.2025</v>
+        <v>29.09.2025</v>
       </c>
       <c r="P70" t="str">
         <f>_xll.BDP("EEX3MNEP Index","TIME")</f>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="C71">
         <f>_xll.BDP("EEX3MDEP Index","PX_LAST")</f>
-        <v>75.599999999999994</v>
+        <v>74.91</v>
       </c>
       <c r="D71">
         <f>_xll.BDP("EEX3MDEP Index","PX_VOLUME")</f>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="O71" t="str">
         <f>_xll.BDP("EEX3MDEP Index","LAST_UPDATE_DT")</f>
-        <v>23.09.2025</v>
+        <v>29.09.2025</v>
       </c>
       <c r="P71" t="str">
         <f>_xll.BDP("EEX3MDEP Index","TIME")</f>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="C73">
         <f>_xll.BDP("EEX3BDEP Index","PX_LAST")</f>
-        <v>3985500</v>
+        <v>4941000</v>
       </c>
       <c r="D73">
         <f>_xll.BDP("EEX3BDEP Index","PX_VOLUME")</f>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="O73" t="str">
         <f>_xll.BDP("EEX3BDEP Index","LAST_UPDATE_DT")</f>
-        <v>23.09.2025</v>
+        <v>29.09.2025</v>
       </c>
       <c r="P73" t="str">
         <f>_xll.BDP("EEX3BDEP Index","TIME")</f>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="C77">
         <f>_xll.BDP("EEX3PMEU Index","PX_LAST")</f>
-        <v>75.599999999999994</v>
+        <v>75.2</v>
       </c>
       <c r="D77">
         <f>_xll.BDP("EEX3PMEU Index","PX_VOLUME")</f>
@@ -5509,18 +5509,18 @@
       </c>
       <c r="H77">
         <f>_xll.BDP("EEX3PMEU Index","BID")</f>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I77">
         <f>_xll.BDP("EEX3PMEU Index","ASK")</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N77" t="s">
         <v>65</v>
       </c>
       <c r="O77" t="str">
         <f>_xll.BDP("EEX3PMEU Index","LAST_UPDATE_DT")</f>
-        <v>23.09.2025</v>
+        <v>29.09.2025</v>
       </c>
       <c r="P77" t="str">
         <f>_xll.BDP("EEX3PMEU Index","TIME")</f>
@@ -5544,7 +5544,7 @@
       </c>
       <c r="C79">
         <f>_xll.BDP("EEX3CREU Index","PX_LAST")</f>
-        <v>1.22</v>
+        <v>1.51</v>
       </c>
       <c r="D79">
         <f>_xll.BDP("EEX3CREU Index","PX_VOLUME")</f>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="O79" t="str">
         <f>_xll.BDP("EEX3CREU Index","LAST_UPDATE_DT")</f>
-        <v>23.09.2025</v>
+        <v>29.09.2025</v>
       </c>
       <c r="P79" t="str">
         <f>_xll.BDP("EEX3CREU Index","TIME")</f>
@@ -5579,7 +5579,7 @@
       </c>
       <c r="C80">
         <f>_xll.BDP("EEX3MNEU Index","PX_LAST")</f>
-        <v>75.709999999999994</v>
+        <v>75.19</v>
       </c>
       <c r="D80">
         <f>_xll.BDP("EEX3MNEU Index","PX_VOLUME")</f>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="O80" t="str">
         <f>_xll.BDP("EEX3MNEU Index","LAST_UPDATE_DT")</f>
-        <v>23.09.2025</v>
+        <v>29.09.2025</v>
       </c>
       <c r="P80" t="str">
         <f>_xll.BDP("EEX3MNEU Index","TIME")</f>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="C81">
         <f>_xll.BDP("EEX3MDEU Index","PX_LAST")</f>
-        <v>75.599999999999994</v>
+        <v>74.91</v>
       </c>
       <c r="D81">
         <f>_xll.BDP("EEX3MDEU Index","PX_VOLUME")</f>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="O81" t="str">
         <f>_xll.BDP("EEX3MDEU Index","LAST_UPDATE_DT")</f>
-        <v>23.09.2025</v>
+        <v>29.09.2025</v>
       </c>
       <c r="P81" t="str">
         <f>_xll.BDP("EEX3MDEU Index","TIME")</f>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="C83">
         <f>_xll.BDP("EEX3BDEU Index","PX_LAST")</f>
-        <v>3985500</v>
+        <v>4941000</v>
       </c>
       <c r="D83">
         <f>_xll.BDP("EEX3BDEU Index","PX_VOLUME")</f>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="O83" t="str">
         <f>_xll.BDP("EEX3BDEU Index","LAST_UPDATE_DT")</f>
-        <v>23.09.2025</v>
+        <v>29.09.2025</v>
       </c>
       <c r="P83" t="str">
         <f>_xll.BDP("EEX3BDEU Index","TIME")</f>
@@ -6956,7 +6956,7 @@
       </c>
       <c r="C139">
         <f>_xll.BDP("RGGICLPX Index","PX_LAST")</f>
-        <v>19.63</v>
+        <v>22.25</v>
       </c>
       <c r="D139" t="str">
         <f>_xll.BDP("RGGICLPX Index","PX_VOLUME")</f>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="O139" t="str">
         <f>_xll.BDP("RGGICLPX Index","LAST_UPDATE_DT")</f>
-        <v>04.06.2025</v>
+        <v>03.09.2025</v>
       </c>
       <c r="P139" t="str">
         <f>_xll.BDP("RGGICLPX Index","TIME")</f>
@@ -7034,7 +7034,7 @@
       </c>
       <c r="C142">
         <f>_xll.BDP("RGGIPAVR Index","PX_LAST")</f>
-        <v>19.05</v>
+        <v>20.03</v>
       </c>
       <c r="D142" t="str">
         <f>_xll.BDP("RGGIPAVR Index","PX_VOLUME")</f>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="O142" t="str">
         <f>_xll.BDP("RGGIPAVR Index","LAST_UPDATE_DT")</f>
-        <v>04.06.2025</v>
+        <v>03.09.2025</v>
       </c>
       <c r="P142" t="str">
         <f>_xll.BDP("RGGIPAVR Index","TIME")</f>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="C143">
         <f>_xll.BDP("RGGIPMED Index","PX_LAST")</f>
-        <v>19.28</v>
+        <v>21.55</v>
       </c>
       <c r="D143" t="str">
         <f>_xll.BDP("RGGIPMED Index","PX_VOLUME")</f>
@@ -7088,7 +7088,7 @@
       </c>
       <c r="O143" t="str">
         <f>_xll.BDP("RGGIPMED Index","LAST_UPDATE_DT")</f>
-        <v>04.06.2025</v>
+        <v>03.09.2025</v>
       </c>
       <c r="P143" t="str">
         <f>_xll.BDP("RGGIPMED Index","TIME")</f>
@@ -7266,26 +7266,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A30:P30"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="A33:P33"/>
+    <mergeCell ref="A43:P43"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="A65:P65"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A95:P95"/>
+    <mergeCell ref="A105:P105"/>
     <mergeCell ref="A115:P115"/>
     <mergeCell ref="A116:P116"/>
     <mergeCell ref="A126:P126"/>
     <mergeCell ref="A137:P137"/>
     <mergeCell ref="A147:P147"/>
-    <mergeCell ref="A65:P65"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A95:P95"/>
-    <mergeCell ref="A105:P105"/>
-    <mergeCell ref="A30:P30"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="A33:P33"/>
-    <mergeCell ref="A43:P43"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A27:P27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Auctions EUA.xlsx
+++ b/Auctions EUA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF615E0-1669-484B-95B5-43401CC18F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCC5A1D-956F-4D91-B29C-74C5CA59B036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
@@ -873,7 +873,7 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
         <stp/>
         <stp>BDP|3018607617448695053|22</stp>
         <stp>EEX3SCCB Index</stp>
@@ -905,7 +905,7 @@
         <tr r="I109" s="2"/>
       </tp>
       <tp t="s">
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
         <stp/>
         <stp>BDP|3943920066704382928|22</stp>
         <stp>UKATOBID Index</stp>
@@ -921,7 +921,7 @@
         <tr r="H101" s="2"/>
       </tp>
       <tp t="s">
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
         <stp/>
         <stp>BDP|5088816692015618598|22</stp>
         <stp>UKACORAT Index</stp>
@@ -945,7 +945,7 @@
         <tr r="H103" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
         <stp/>
         <stp>BDP|4191428704799251462|22</stp>
         <stp>EEX3TOTB Index</stp>
@@ -953,7 +953,7 @@
         <tr r="P51" s="2"/>
       </tp>
       <tp>
-        <v>90</v>
+        <v>120</v>
         <stp/>
         <stp>BDP|10519417515402280991|22</stp>
         <stp>EEX3EPPM Index</stp>
@@ -997,7 +997,7 @@
         <tr r="I60" s="2"/>
       </tp>
       <tp>
-        <v>85</v>
+        <v>90</v>
         <stp/>
         <stp>BDP|10342386707909489377|22</stp>
         <stp>EEX3X3PL Index</stp>
@@ -1061,7 +1061,7 @@
         <tr r="I59" s="2"/>
       </tp>
       <tp>
-        <v>64</v>
+        <v>65</v>
         <stp/>
         <stp>BDP|17420742517022627310|22</stp>
         <stp>EEX3X3PL Index</stp>
@@ -1133,7 +1133,7 @@
         <tr r="H59" s="2"/>
       </tp>
       <tp t="s">
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
         <stp/>
         <stp>BDP|5161086271000779607|22</stp>
         <stp>EEX3X3PL Index</stp>
@@ -1141,7 +1141,7 @@
         <tr r="P87" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:17:09</v>
+        <v>06.10.2025</v>
         <stp/>
         <stp>BDP|1494356953421449542|22</stp>
         <stp>EEXXT3PA Index</stp>
@@ -1181,25 +1181,25 @@
         <tr r="H70" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2792462080</v>
+        <v>#N/A Requesting Data...4294666647</v>
         <stp/>
         <stp>BDP|11269571729604204855</stp>
         <tr r="C145" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3953194144</v>
+        <v>#N/A Requesting Data...1404042670</v>
         <stp/>
         <stp>BDP|10943788378258769235</stp>
         <tr r="D109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2925654148</v>
+        <v>#N/A Requesting Data...392352534</v>
         <stp/>
         <stp>BDP|13172746922254409863</stp>
         <tr r="O80" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1874568315</v>
+        <v>#N/A Requesting Data...471809484</v>
         <stp/>
         <stp>BDP|14497910193647682945</stp>
         <tr r="D70" s="2"/>
@@ -1213,7 +1213,7 @@
         <tr r="P111" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
         <stp/>
         <stp>BDP|9541173970769276266|22</stp>
         <stp>EEX3EPCR Index</stp>
@@ -1229,7 +1229,7 @@
         <tr r="P59" s="2"/>
       </tp>
       <tp>
-        <v>90</v>
+        <v>120</v>
         <stp/>
         <stp>BDP|11258790351540468562|22</stp>
         <stp>EEX3PMEU Index</stp>
@@ -1245,25 +1245,25 @@
         <tr r="H83" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1821044072</v>
+        <v>#N/A Requesting Data...3295298719</v>
         <stp/>
         <stp>BDP|18008250999471656922</stp>
         <tr r="D91" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1881348093</v>
+        <v>#N/A Requesting Data...4092260804</v>
         <stp/>
         <stp>BDP|17732115207434946955</stp>
         <tr r="O35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3334332682</v>
+        <v>#N/A Requesting Data...2735848856</v>
         <stp/>
         <stp>BDP|17883504586526473761</stp>
         <tr r="D60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3269952127</v>
+        <v>#N/A Requesting Data...3135840919</v>
         <stp/>
         <stp>BDP|17453411474857561889</stp>
         <tr r="C51" s="2"/>
@@ -1277,25 +1277,25 @@
         <tr r="P123" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2339391467</v>
+        <v>#N/A Requesting Data...1361987373</v>
         <stp/>
         <stp>BDP|17440720740509750509</stp>
         <tr r="D131" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2673610628</v>
+        <v>#N/A Requesting Data...608086468</v>
         <stp/>
         <stp>BDP|13137573291627110020</stp>
         <tr r="O122" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4187997723</v>
+        <v>#N/A Requesting Data...175819606</v>
         <stp/>
         <stp>BDP|12589828556680285779</stp>
         <tr r="C131" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2661606070</v>
+        <v>#N/A Requesting Data...1618032522</v>
         <stp/>
         <stp>BDP|14677421799633940220</stp>
         <tr r="D135" s="2"/>
@@ -1317,25 +1317,25 @@
         <tr r="H60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3139151027</v>
+        <v>#N/A Requesting Data...3164680959</v>
         <stp/>
         <stp>BDP|13392001727258142092</stp>
         <tr r="O125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2955057943</v>
+        <v>#N/A Requesting Data...3758555889</v>
         <stp/>
         <stp>BDP|14017755899281818256</stp>
         <tr r="D39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2879499578</v>
+        <v>#N/A Requesting Data...4192560618</v>
         <stp/>
         <stp>BDP|15783964005736454339</stp>
         <tr r="D51" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3203790913</v>
+        <v>#N/A Requesting Data...1401012409</v>
         <stp/>
         <stp>BDP|15365985838177005150</stp>
         <tr r="O49" s="2"/>
@@ -1365,7 +1365,7 @@
         <tr r="I70" s="2"/>
       </tp>
       <tp t="s">
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
         <stp/>
         <stp>BDP|17032143300330279338|22</stp>
         <stp>UKAAUPR Index</stp>
@@ -1373,25 +1373,25 @@
         <tr r="P35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3580139888</v>
+        <v>#N/A Requesting Data...1414180935</v>
         <stp/>
         <stp>BDP|15339769723328136685</stp>
         <tr r="C63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4048542689</v>
+        <v>#N/A Requesting Data...1610347327</v>
         <stp/>
         <stp>BDP|18033101966751297072</stp>
         <tr r="C67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4165521147</v>
+        <v>#N/A Requesting Data...1970036542</v>
         <stp/>
         <stp>BDP|14450087638141730867</stp>
         <tr r="D59" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
         <stp/>
         <stp>BDP|6821914525563686864|22</stp>
         <stp>EEX3MDT3 Index</stp>
@@ -1423,85 +1423,85 @@
         <tr r="I41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3615123532</v>
+        <v>#N/A Requesting Data...2619667882</v>
         <stp/>
         <stp>BDP|18411307338470386767</stp>
         <tr r="D99" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3295715745</v>
+        <v>#N/A Requesting Data...1700572329</v>
         <stp/>
         <stp>BDP|10666662405090903935</stp>
         <tr r="C107" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3142991622</v>
+        <v>#N/A Requesting Data...2735636419</v>
         <stp/>
         <stp>BDP|14977427384300822780</stp>
         <tr r="O51" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4161556964</v>
+        <v>#N/A Requesting Data...904818724</v>
         <stp/>
         <stp>BDP|16823031330433881965</stp>
         <tr r="C79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1982098738</v>
+        <v>#N/A Requesting Data...1626080000</v>
         <stp/>
         <stp>BDP|11920132482670808779</stp>
         <tr r="O121" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3646068340</v>
+        <v>#N/A Requesting Data...3594442853</v>
         <stp/>
         <stp>BDP|16946453695197801084</stp>
         <tr r="D71" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4090369530</v>
+        <v>#N/A Requesting Data...2779507550</v>
         <stp/>
         <stp>BDP|17933236663647161806</stp>
         <tr r="O142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3741393574</v>
+        <v>#N/A Requesting Data...350552488</v>
         <stp/>
         <stp>BDP|16760592922515211860</stp>
         <tr r="C135" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2334641590</v>
+        <v>#N/A Requesting Data...2448674090</v>
         <stp/>
         <stp>BDP|17148762016524255989</stp>
         <tr r="C73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3801764147</v>
+        <v>#N/A Requesting Data...327390774</v>
         <stp/>
         <stp>BDP|18309468170035994204</stp>
         <tr r="C129" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3124209297</v>
+        <v>#N/A Requesting Data...2369216013</v>
         <stp/>
         <stp>BDP|17271087938758253012</stp>
         <tr r="C57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4091443993</v>
+        <v>#N/A Requesting Data...1962633490</v>
         <stp/>
         <stp>BDP|12870303344301412882</stp>
         <tr r="C91" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3426433574</v>
+        <v>#N/A Requesting Data...2816569214</v>
         <stp/>
         <stp>BDP|11040138180590694408</stp>
         <tr r="C81" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2055811613</v>
+        <v>#N/A Requesting Data...2375441806</v>
         <stp/>
         <stp>BDP|11220363830214973997</stp>
         <tr r="C50" s="2"/>
@@ -1515,49 +1515,49 @@
         <tr r="I121" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2884911131</v>
+        <v>#N/A Requesting Data...1450195945</v>
         <stp/>
         <stp>BDP|10310929788149374579</stp>
         <tr r="C80" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3186229752</v>
+        <v>#N/A Requesting Data...2664899483</v>
         <stp/>
         <stp>BDP|17645551591513564590</stp>
         <tr r="C119" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2369443267</v>
+        <v>#N/A Requesting Data...4162516032</v>
         <stp/>
         <stp>BDP|11799929507266026330</stp>
         <tr r="C93" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2526076787</v>
+        <v>#N/A Requesting Data...2100596339</v>
         <stp/>
         <stp>BDP|12376569583387116556</stp>
         <tr r="D77" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3181399349</v>
+        <v>#N/A Requesting Data...680567477</v>
         <stp/>
         <stp>BDP|12929767077087211884</stp>
         <tr r="C90" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2715890757</v>
+        <v>#N/A Requesting Data...4272091374</v>
         <stp/>
         <stp>BDP|12746681013678887006</stp>
         <tr r="C83" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3026302343</v>
+        <v>#N/A Requesting Data...3992796328</v>
         <stp/>
         <stp>BDP|12638693508540193928</stp>
         <tr r="O83" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
         <stp/>
         <stp>BDP|6553737273572010062|22</stp>
         <stp>EEX3BDEP Index</stp>
@@ -1597,19 +1597,19 @@
         <tr r="P133" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3840210383</v>
+        <v>#N/A Requesting Data...3767912732</v>
         <stp/>
         <stp>BDP|17119275309777085060</stp>
         <tr r="D97" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2883726460</v>
+        <v>#N/A Requesting Data...1254534974</v>
         <stp/>
         <stp>BDP|16334400116593439221</stp>
         <tr r="D103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3068845374</v>
+        <v>#N/A Requesting Data...3294968895</v>
         <stp/>
         <stp>BDP|17261400698320790895</stp>
         <tr r="O123" s="2"/>
@@ -1639,55 +1639,55 @@
         <tr r="P128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3132484702</v>
+        <v>#N/A Requesting Data...1423784376</v>
         <stp/>
         <stp>BDP|10231084159133314599</stp>
         <tr r="O63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2426632283</v>
+        <v>#N/A Requesting Data...1009146443</v>
         <stp/>
         <stp>BDP|10762113169831043550</stp>
         <tr r="C59" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3187389083</v>
+        <v>#N/A Requesting Data...700900013</v>
         <stp/>
         <stp>BDP|16233839828067587813</stp>
         <tr r="O69" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4178378392</v>
+        <v>#N/A Requesting Data...4229746877</v>
         <stp/>
         <stp>BDP|18112152192717370493</stp>
         <tr r="D57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3919402131</v>
+        <v>#N/A Requesting Data...2273645372</v>
         <stp/>
         <stp>BDP|12631048552532555647</stp>
         <tr r="C45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3373401711</v>
+        <v>#N/A Requesting Data...2556382081</v>
         <stp/>
         <stp>BDP|16257536659004183193</stp>
         <tr r="D61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3035140306</v>
+        <v>#N/A Requesting Data...531894447</v>
         <stp/>
         <stp>BDP|11773772447184358568</stp>
         <tr r="D67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3416249604</v>
+        <v>#N/A Requesting Data...1331228048</v>
         <stp/>
         <stp>BDP|11036023536593262247</stp>
         <tr r="D80" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
         <stp/>
         <stp>BDP|4789583064645529089|22</stp>
         <stp>EEX3BDEU Index</stp>
@@ -1703,13 +1703,13 @@
         <tr r="I69" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1934235423</v>
+        <v>#N/A Requesting Data...912796018</v>
         <stp/>
         <stp>BDP|10371740171936643690</stp>
         <tr r="C121" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
         <stp/>
         <stp>BDP|7806871558314808470|22</stp>
         <stp>EEX3MNT3 Index</stp>
@@ -1733,49 +1733,49 @@
         <tr r="P109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3093487107</v>
+        <v>#N/A Requesting Data...220144482</v>
         <stp/>
         <stp>BDP|10450986407190051879</stp>
         <tr r="O113" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3705033500</v>
+        <v>#N/A Requesting Data...2984938794</v>
         <stp/>
         <stp>BDP|17345118041494135735</stp>
         <tr r="O39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3962361352</v>
+        <v>#N/A Requesting Data...2131412544</v>
         <stp/>
         <stp>BDP|12312559960178218854</stp>
         <tr r="O60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3552300927</v>
+        <v>#N/A Requesting Data...3906010377</v>
         <stp/>
         <stp>BDP|18235654050928285246</stp>
         <tr r="D118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2468211880</v>
+        <v>#N/A Requesting Data...2824925603</v>
         <stp/>
         <stp>BDP|11908180946526696355</stp>
         <tr r="O77" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4105056944</v>
+        <v>#N/A Requesting Data...2266853984</v>
         <stp/>
         <stp>BDP|16041498039241224153</stp>
         <tr r="D50" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3610648663</v>
+        <v>#N/A Requesting Data...4116786791</v>
         <stp/>
         <stp>BDP|15600557786638647149</stp>
         <tr r="O135" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3341558746</v>
+        <v>#N/A Requesting Data...3291609843</v>
         <stp/>
         <stp>BDP|17201301560995300668</stp>
         <tr r="C128" s="2"/>
@@ -1805,61 +1805,61 @@
         <tr r="I118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2962405189</v>
+        <v>#N/A Requesting Data...2329025061</v>
         <stp/>
         <stp>BDP|11964424655954108243</stp>
         <tr r="O152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2976963628</v>
+        <v>#N/A Requesting Data...1793826958</v>
         <stp/>
         <stp>BDP|15039250998841436929</stp>
         <tr r="C70" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2236781281</v>
+        <v>#N/A Requesting Data...2883712581</v>
         <stp/>
         <stp>BDP|12983476071071398635</stp>
         <tr r="D121" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2312103503</v>
+        <v>#N/A Requesting Data...4249893488</v>
         <stp/>
         <stp>BDP|13022728685482255840</stp>
         <tr r="D151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2190066576</v>
+        <v>#N/A Requesting Data...1456441043</v>
         <stp/>
         <stp>BDP|14787445835483775602</stp>
         <tr r="C49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3119673379</v>
+        <v>#N/A Requesting Data...3877478814</v>
         <stp/>
         <stp>BDP|13835889490117150311</stp>
         <tr r="C41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2581544999</v>
+        <v>#N/A Requesting Data...3187772050</v>
         <stp/>
         <stp>BDP|11777284828983264462</stp>
         <tr r="C152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2287991041</v>
+        <v>#N/A Requesting Data...1486842808</v>
         <stp/>
         <stp>BDP|16175526658473866307</stp>
         <tr r="O101" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2366250346</v>
+        <v>#N/A Requesting Data...1657709478</v>
         <stp/>
         <stp>BDP|17426017852985395138</stp>
         <tr r="D125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4115574904</v>
+        <v>#N/A Requesting Data...874103041</v>
         <stp/>
         <stp>BDP|11679146174687658674</stp>
         <tr r="O61" s="2"/>
@@ -1881,49 +1881,49 @@
         <tr r="I73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4154632802</v>
+        <v>#N/A Requesting Data...3168972582</v>
         <stp/>
         <stp>BDP|11739412558546315165</stp>
         <tr r="O107" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3879360934</v>
+        <v>#N/A Requesting Data...2656856027</v>
         <stp/>
         <stp>BDP|17821757611616847099</stp>
         <tr r="D73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1942178302</v>
+        <v>#N/A Requesting Data...1777699531</v>
         <stp/>
         <stp>BDP|12363162891205314891</stp>
         <tr r="C132" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3027878296</v>
+        <v>#N/A Requesting Data...4156262553</v>
         <stp/>
         <stp>BDP|16498489714365827135</stp>
         <tr r="O38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1948269434</v>
+        <v>#N/A Requesting Data...1370917951</v>
         <stp/>
         <stp>BDP|17756265275154491129</stp>
         <tr r="D152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2715946808</v>
+        <v>#N/A Requesting Data...3232846789</v>
         <stp/>
         <stp>BDP|11973396237516626030</stp>
         <tr r="D122" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4160267359</v>
+        <v>#N/A Requesting Data...286442861</v>
         <stp/>
         <stp>BDP|13226662244594317259</stp>
         <tr r="O141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2212741690</v>
+        <v>#N/A Requesting Data...2856309977</v>
         <stp/>
         <stp>BDP|17779836694136602703</stp>
         <tr r="D69" s="2"/>
@@ -1945,37 +1945,37 @@
         <tr r="H35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2972091096</v>
+        <v>#N/A Requesting Data...1818269360</v>
         <stp/>
         <stp>BDP|17702743798129095414</stp>
         <tr r="C109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4135048359</v>
+        <v>#N/A Requesting Data...130450308</v>
         <stp/>
         <stp>BDP|14502996891943856393</stp>
         <tr r="D107" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4211698744</v>
+        <v>#N/A Requesting Data...3539641450</v>
         <stp/>
         <stp>BDP|14009510159603117373</stp>
         <tr r="C151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3389262080</v>
+        <v>#N/A Requesting Data...3638880929</v>
         <stp/>
         <stp>BDP|17433439855215748722</stp>
         <tr r="D63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4195094472</v>
+        <v>#N/A Requesting Data...1441915235</v>
         <stp/>
         <stp>BDP|15963953319790315909</stp>
         <tr r="O132" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4038408669</v>
+        <v>#N/A Requesting Data...2216859607</v>
         <stp/>
         <stp>BDP|10568242787378537653</stp>
         <tr r="O37" s="2"/>
@@ -1989,37 +1989,37 @@
         <tr r="I79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3677007115</v>
+        <v>#N/A Requesting Data...2799565918</v>
         <stp/>
         <stp>BDP|13291842058863532828</stp>
         <tr r="O70" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1927414131</v>
+        <v>#N/A Requesting Data...2286794318</v>
         <stp/>
         <stp>BDP|12418513149975378324</stp>
         <tr r="C97" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4000500940</v>
+        <v>#N/A Requesting Data...676288077</v>
         <stp/>
         <stp>BDP|14876410132956204074</stp>
         <tr r="D89" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3590026489</v>
+        <v>#N/A Requesting Data...2287719778</v>
         <stp/>
         <stp>BDP|12662972772298021130</stp>
         <tr r="O41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2870947150</v>
+        <v>#N/A Requesting Data...1641027427</v>
         <stp/>
         <stp>BDP|15876548244805841436</stp>
         <tr r="O151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4094534761</v>
+        <v>#N/A Requesting Data...3701044072</v>
         <stp/>
         <stp>BDP|12436206503061465444</stp>
         <tr r="O89" s="2"/>
@@ -2043,7 +2043,7 @@
         <tr r="I145" s="2"/>
       </tp>
       <tp t="s">
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
         <stp/>
         <stp>BDP|14673752842554335912|22</stp>
         <stp>UKASBBID Index</stp>
@@ -2099,7 +2099,7 @@
         <tr r="H81" s="2"/>
       </tp>
       <tp>
-        <v>65</v>
+        <v>64</v>
         <stp/>
         <stp>BDP|8894173801250207596|22</stp>
         <stp>EEX3PMEU Index</stp>
@@ -2107,7 +2107,7 @@
         <tr r="H77" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
         <stp/>
         <stp>BDP|14914340425937262400|22</stp>
         <stp>EEX3PMEU Index</stp>
@@ -2139,7 +2139,7 @@
         <tr r="P121" s="2"/>
       </tp>
       <tp t="s">
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
         <stp/>
         <stp>BDP|1983300863809941800|22</stp>
         <stp>UKABIDS Index</stp>
@@ -2155,7 +2155,7 @@
         <tr r="H132" s="2"/>
       </tp>
       <tp t="s">
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
         <stp/>
         <stp>BDP|558483427366924145|22</stp>
         <stp>EEX3MNPL Index</stp>
@@ -2187,7 +2187,7 @@
         <tr r="H113" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
         <stp/>
         <stp>BDP|16469111007550779531|22</stp>
         <stp>EEX3MNEU Index</stp>
@@ -2235,7 +2235,7 @@
         <tr r="P110" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
         <stp/>
         <stp>BDP|12982193450868361324|22</stp>
         <stp>EEX3MDEP Index</stp>
@@ -2284,7 +2284,7 @@
         <tr r="P149" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
         <stp/>
         <stp>BDP|14229205055830819259|22</stp>
         <stp>EEX3MDEU Index</stp>
@@ -2292,7 +2292,7 @@
         <tr r="P81" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
         <stp/>
         <stp>BDP|16855049126625485315|22</stp>
         <stp>EEX3MNEP Index</stp>
@@ -2324,7 +2324,7 @@
         <tr r="P152" s="2"/>
       </tp>
       <tp t="s">
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
         <stp/>
         <stp>BDP|15098924859057617101|22</stp>
         <stp>EEX3BDPL Index</stp>
@@ -2332,7 +2332,7 @@
         <tr r="P93" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
         <stp/>
         <stp>BDP|16380762434944732614|22</stp>
         <stp>EEX3CREU Index</stp>
@@ -2340,7 +2340,7 @@
         <tr r="P79" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:38</v>
+        <v>06.10.2025</v>
         <stp/>
         <stp>BDP|15913837711201520928|22</stp>
         <stp>EEX3EPPM Index</stp>
@@ -2364,7 +2364,7 @@
         <tr r="P132" s="2"/>
       </tp>
       <tp t="s">
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
         <stp/>
         <stp>BDP|10360780237680756815|22</stp>
         <stp>EEX3MDPL Index</stp>
@@ -2372,7 +2372,7 @@
         <tr r="P91" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
         <stp/>
         <stp>BDP|15694925664041655440|22</stp>
         <stp>EEX3BDT3 Index</stp>
@@ -2412,7 +2412,7 @@
         <tr r="H63" s="2"/>
       </tp>
       <tp t="s">
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
         <stp/>
         <stp>BDP|14809909160782766798|22</stp>
         <stp>EEX3CRT3 Index</stp>
@@ -2452,7 +2452,7 @@
         <tr r="H50" s="2"/>
       </tp>
       <tp>
-        <v>65</v>
+        <v>64</v>
         <stp/>
         <stp>BDP|4673945679228878777|22</stp>
         <stp>EEX3EPPM Index</stp>
@@ -2476,49 +2476,49 @@
         <tr r="P61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3059329977</v>
+        <v>#N/A Requesting Data...2313378085</v>
         <stp/>
         <stp>BDP|4124903069222755554</stp>
         <tr r="O87" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3725564916</v>
+        <v>#N/A Requesting Data...2259161548</v>
         <stp/>
         <stp>BDP|8892146774205393713</stp>
         <tr r="D129" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3391263136</v>
+        <v>#N/A Requesting Data...3127386530</v>
         <stp/>
         <stp>BDP|2477959445181429293</stp>
         <tr r="O129" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4103660301</v>
+        <v>#N/A Requesting Data...1797866454</v>
         <stp/>
         <stp>BDP|9350291445254965784</stp>
         <tr r="D37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4093572090</v>
+        <v>#N/A Requesting Data...3233690392</v>
         <stp/>
         <stp>BDP|6891918115273664161</stp>
         <tr r="D139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3340171572</v>
+        <v>#N/A Requesting Data...1735655154</v>
         <stp/>
         <stp>BDP|3573415783287593449</stp>
         <tr r="C48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4169721498</v>
+        <v>#N/A Requesting Data...3827494617</v>
         <stp/>
         <stp>BDP|8619946037809089717</stp>
         <tr r="O73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3721857198</v>
+        <v>#N/A Requesting Data...953272404</v>
         <stp/>
         <stp>BDP|8134701725687838685</stp>
         <tr r="D101" s="2"/>
@@ -2532,13 +2532,13 @@
         <tr r="H141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3352892708</v>
+        <v>#N/A Requesting Data...2696248792</v>
         <stp/>
         <stp>BDP|2337395976008307323</stp>
         <tr r="D133" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3622076532</v>
+        <v>#N/A Requesting Data...4224935635</v>
         <stp/>
         <stp>BDP|7346443724919908584</stp>
         <tr r="C143" s="2"/>
@@ -2552,55 +2552,55 @@
         <tr r="H47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3948534488</v>
+        <v>#N/A Requesting Data...1018317744</v>
         <stp/>
         <stp>BDP|2452480886172944101</stp>
         <tr r="D83" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3252562496</v>
+        <v>#N/A Requesting Data...3510081603</v>
         <stp/>
         <stp>BDP|3988758046487897994</stp>
         <tr r="O100" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3594945978</v>
+        <v>#N/A Requesting Data...3233136886</v>
         <stp/>
         <stp>BDP|8487968754382467898</stp>
         <tr r="O111" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4102134081</v>
+        <v>#N/A Requesting Data...2379256252</v>
         <stp/>
         <stp>BDP|3168197062443776948</stp>
         <tr r="O97" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2828792737</v>
+        <v>#N/A Requesting Data...4026136568</v>
         <stp/>
         <stp>BDP|3191294011039253743</stp>
         <tr r="C100" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3593607052</v>
+        <v>#N/A Requesting Data...3465605147</v>
         <stp/>
         <stp>BDP|8158190943367710418</stp>
         <tr r="D141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2760391166</v>
+        <v>#N/A Requesting Data...798123099</v>
         <stp/>
         <stp>BDP|9753944506837726937</stp>
         <tr r="O139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3623038162</v>
+        <v>#N/A Requesting Data...1575826006</v>
         <stp/>
         <stp>BDP|2383970352993755307</stp>
         <tr r="D111" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2336302370</v>
+        <v>#N/A Requesting Data...2492828215</v>
         <stp/>
         <stp>BDP|8422754563225257254</stp>
         <tr r="D119" s="2"/>
@@ -2614,67 +2614,67 @@
         <tr r="I103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3474493846</v>
+        <v>#N/A Requesting Data...4085065063</v>
         <stp/>
         <stp>BDP|1905452132299753056</stp>
         <tr r="C39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4048572316</v>
+        <v>#N/A Requesting Data...1383319206</v>
         <stp/>
         <stp>BDP|9168179234227771399</stp>
         <tr r="O128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3256224482</v>
+        <v>#N/A Requesting Data...1662128459</v>
         <stp/>
         <stp>BDP|2740714101503839931</stp>
         <tr r="C141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3891554667</v>
+        <v>#N/A Requesting Data...3445015682</v>
         <stp/>
         <stp>BDP|7992263003279543384</stp>
         <tr r="D142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4201775038</v>
+        <v>#N/A Requesting Data...1648432645</v>
         <stp/>
         <stp>BDP|5477825144986453010</stp>
         <tr r="O59" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3063614208</v>
+        <v>#N/A Requesting Data...889234153</v>
         <stp/>
         <stp>BDP|8165965388487479679</stp>
         <tr r="O81" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2991411471</v>
+        <v>#N/A Requesting Data...3253168835</v>
         <stp/>
         <stp>BDP|5675445137023195982</stp>
         <tr r="O143" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3321608038</v>
+        <v>#N/A Requesting Data...2238390894</v>
         <stp/>
         <stp>BDP|4173264548992531864</stp>
         <tr r="O109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3023798439</v>
+        <v>#N/A Requesting Data...4174608681</v>
         <stp/>
         <stp>BDP|6322017615579378624</stp>
         <tr r="O90" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2212022352</v>
+        <v>#N/A Requesting Data...2423507109</v>
         <stp/>
         <stp>BDP|7700706960287514955</stp>
         <tr r="O99" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4225149716</v>
+        <v>#N/A Requesting Data...1369529224</v>
         <stp/>
         <stp>BDP|2684958064503521663</stp>
         <tr r="C87" s="2"/>
@@ -2688,7 +2688,7 @@
         <tr r="I143" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3911064392</v>
+        <v>#N/A Requesting Data...4234797158</v>
         <stp/>
         <stp>BDP|2825895505117461495</stp>
         <tr r="O57" s="2"/>
@@ -2702,7 +2702,7 @@
         <tr r="I141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3060371761</v>
+        <v>#N/A Requesting Data...1863494763</v>
         <stp/>
         <stp>BDP|5555436835568594389</stp>
         <tr r="D145" s="2"/>
@@ -2716,73 +2716,73 @@
         <tr r="I57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3751134031</v>
+        <v>#N/A Requesting Data...2562926861</v>
         <stp/>
         <stp>BDP|4279202299077950281</stp>
         <tr r="D41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4159627031</v>
+        <v>#N/A Requesting Data...1278344276</v>
         <stp/>
         <stp>BDP|6929810016462650737</stp>
         <tr r="D87" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2655008865</v>
+        <v>#N/A Requesting Data...3547765916</v>
         <stp/>
         <stp>BDP|1294936769142798640</stp>
         <tr r="C37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2614784531</v>
+        <v>#N/A Requesting Data...3910718344</v>
         <stp/>
         <stp>BDP|8268735055277832754</stp>
         <tr r="D100" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3797422665</v>
+        <v>#N/A Requesting Data...1842866721</v>
         <stp/>
         <stp>BDP|7997415316799901193</stp>
         <tr r="O53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3585415479</v>
+        <v>#N/A Requesting Data...3789112796</v>
         <stp/>
         <stp>BDP|6278897671657613432</stp>
         <tr r="O145" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3969074724</v>
+        <v>#N/A Requesting Data...1781814368</v>
         <stp/>
         <stp>BDP|8917206333941126276</stp>
         <tr r="O79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4162308527</v>
+        <v>#N/A Requesting Data...3085576087</v>
         <stp/>
         <stp>BDP|9488941276259397490</stp>
         <tr r="O67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3165005813</v>
+        <v>#N/A Requesting Data...2161169417</v>
         <stp/>
         <stp>BDP|5600386799382259784</stp>
         <tr r="C113" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3693804741</v>
+        <v>#N/A Requesting Data...1182380439</v>
         <stp/>
         <stp>BDP|9996435367631888077</stp>
         <tr r="C71" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3062027921</v>
+        <v>#N/A Requesting Data...1363321605</v>
         <stp/>
         <stp>BDP|3790921814431878090</stp>
         <tr r="D38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2577666069</v>
+        <v>#N/A Requesting Data...842287807</v>
         <stp/>
         <stp>BDP|5023633295787322705</stp>
         <tr r="C101" s="2"/>
@@ -2805,37 +2805,37 @@
         <tr r="H151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3765057786</v>
+        <v>#N/A Requesting Data...311673534</v>
         <stp/>
         <stp>BDP|2742897454442023636</stp>
         <tr r="D93" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3665485142</v>
+        <v>#N/A Requesting Data...3884383412</v>
         <stp/>
         <stp>BDP|1308380368217282806</stp>
         <tr r="C89" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2444824316</v>
+        <v>#N/A Requesting Data...2205199559</v>
         <stp/>
         <stp>BDP|2125519877263797874</stp>
         <tr r="D49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2908389307</v>
+        <v>#N/A Requesting Data...2080574652</v>
         <stp/>
         <stp>BDP|8187334089870399738</stp>
         <tr r="C142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2762174194</v>
+        <v>#N/A Requesting Data...635915613</v>
         <stp/>
         <stp>BDP|8447705041427452887</stp>
         <tr r="O110" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4265848350</v>
+        <v>#N/A Requesting Data...4226908757</v>
         <stp/>
         <stp>BDP|9588220581862090554</stp>
         <tr r="D81" s="2"/>
@@ -2849,122 +2849,122 @@
         <tr r="H123" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3294088875</v>
+        <v>#N/A Requesting Data...3560448826</v>
         <stp/>
         <stp>BDP|6336981452218022714</stp>
         <tr r="D149" s="2"/>
         <tr r="D28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2035989147</v>
+        <v>#N/A Requesting Data...3981257034</v>
         <stp/>
         <stp>BDP|5144982884240236131</stp>
         <tr r="O119" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2211941139</v>
+        <v>#N/A Requesting Data...2018780575</v>
         <stp/>
         <stp>BDP|4912389578430923538</stp>
         <tr r="C125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3673945478</v>
+        <v>#N/A Requesting Data...3098114301</v>
         <stp/>
         <stp>BDP|4899183487030457834</stp>
         <tr r="D47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2751653140</v>
+        <v>#N/A Requesting Data...2544498522</v>
         <stp/>
         <stp>BDP|7406447711566288126</stp>
         <tr r="O91" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3686239687</v>
+        <v>#N/A Requesting Data...554352274</v>
         <stp/>
         <stp>BDP|2318106224533271732</stp>
         <tr r="D123" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3375497890</v>
+        <v>#N/A Requesting Data...366971516</v>
         <stp/>
         <stp>BDP|5397604398148966497</stp>
         <tr r="C118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2114572801</v>
+        <v>#N/A Requesting Data...935675325</v>
         <stp/>
         <stp>BDP|5247213518087466774</stp>
         <tr r="D79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2540930616</v>
+        <v>#N/A Requesting Data...2236481920</v>
         <stp/>
         <stp>BDP|2268502188811293879</stp>
         <tr r="O45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4087357460</v>
+        <v>#N/A Requesting Data...1940137698</v>
         <stp/>
         <stp>BDP|2615106264042847162</stp>
         <tr r="C35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2353603342</v>
+        <v>#N/A Requesting Data...3083310959</v>
         <stp/>
         <stp>BDP|7242668637610389424</stp>
         <tr r="C38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2675892088</v>
+        <v>#N/A Requesting Data...909433201</v>
         <stp/>
         <stp>BDP|3708410904060798168</stp>
         <tr r="D110" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2699684345</v>
+        <v>#N/A Requesting Data...1996934656</v>
         <stp/>
         <stp>BDP|5117711638166954114</stp>
         <tr r="O131" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4011580641</v>
+        <v>#N/A Requesting Data...1868650185</v>
         <stp/>
         <stp>BDP|3978038447362277279</stp>
         <tr r="O50" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2499196924</v>
+        <v>#N/A Requesting Data...3831972183</v>
         <stp/>
         <stp>BDP|4136828621258877131</stp>
         <tr r="C122" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3181840556</v>
+        <v>#N/A Requesting Data...1318039918</v>
         <stp/>
         <stp>BDP|2277297320794027172</stp>
         <tr r="O93" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3318558477</v>
+        <v>#N/A Requesting Data...1072874512</v>
         <stp/>
         <stp>BDP|8961196036758342506</stp>
         <tr r="D113" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2920437403</v>
+        <v>#N/A Requesting Data...2801956611</v>
         <stp/>
         <stp>BDP|1170165359530510519</stp>
         <tr r="C53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2272023768</v>
+        <v>#N/A Requesting Data...2348258125</v>
         <stp/>
         <stp>BDP|3942355915051567002</stp>
         <tr r="C133" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2801771067</v>
+        <v>#N/A Requesting Data...2831491040</v>
         <stp/>
         <stp>BDP|3535326747745052123</stp>
         <tr r="D53" s="2"/>
@@ -2986,68 +2986,68 @@
         <tr r="H48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2575654484</v>
+        <v>#N/A Requesting Data...534245353</v>
         <stp/>
         <stp>BDP|9540225089557104556</stp>
         <tr r="O118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2971962159</v>
+        <v>#N/A Requesting Data...3138474144</v>
         <stp/>
         <stp>BDP|5062514338582227013</stp>
         <tr r="D128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3830833059</v>
+        <v>#N/A Requesting Data...948736091</v>
         <stp/>
         <stp>BDP|2343600014653733789</stp>
         <tr r="O103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3212940554</v>
+        <v>#N/A Requesting Data...3423110446</v>
         <stp/>
         <stp>BDP|3242086975802090723</stp>
         <tr r="D90" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3606144925</v>
+        <v>#N/A Requesting Data...1375876485</v>
         <stp/>
         <stp>BDP|8360886275346359094</stp>
         <tr r="C103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2322432188</v>
+        <v>#N/A Requesting Data...803113153</v>
         <stp/>
         <stp>BDP|6855110725440116773</stp>
         <tr r="C61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3920546174</v>
+        <v>#N/A Requesting Data...1018229194</v>
         <stp/>
         <stp>BDP|8675841477756696315</stp>
         <tr r="C139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2675842620</v>
+        <v>#N/A Requesting Data...3435580544</v>
         <stp/>
         <stp>BDP|4759583229459353843</stp>
         <tr r="O47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2858529613</v>
+        <v>#N/A Requesting Data...306972943</v>
         <stp/>
         <stp>BDP|9839782485004760030</stp>
         <tr r="C149" s="2"/>
         <tr r="C28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2068521071</v>
+        <v>#N/A Requesting Data...319284197</v>
         <stp/>
         <stp>BDP|3917864525078759387</stp>
         <tr r="C47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2785492263</v>
+        <v>#N/A Requesting Data...537161012</v>
         <stp/>
         <stp>BDP|1874573773983759306</stp>
         <tr r="C60" s="2"/>
@@ -3061,25 +3061,25 @@
         <tr r="H53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2433614328</v>
+        <v>#N/A Requesting Data...3797621195</v>
         <stp/>
         <stp>BDP|4991441920223468278</stp>
         <tr r="C110" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2084348870</v>
+        <v>#N/A Requesting Data...3624562742</v>
         <stp/>
         <stp>BDP|4634330117701477447</stp>
         <tr r="D48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3463488994</v>
+        <v>#N/A Requesting Data...3834750824</v>
         <stp/>
         <stp>BDP|3206597226223845400</stp>
         <tr r="D35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2183215463</v>
+        <v>#N/A Requesting Data...3504734508</v>
         <stp/>
         <stp>BDP|7344440665766321042</stp>
         <tr r="D45" s="2"/>
@@ -3109,7 +3109,7 @@
         <tr r="I119" s="2"/>
       </tp>
       <tp>
-        <v>65</v>
+        <v>64</v>
         <stp/>
         <stp>BDP|5258715941910323221|22</stp>
         <stp>EEXXT3PA Index</stp>
@@ -3117,13 +3117,13 @@
         <tr r="H45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2901141396</v>
+        <v>#N/A Requesting Data...2133271711</v>
         <stp/>
         <stp>BDP|92010296815936747</stp>
         <tr r="D132" s="2"/>
       </tp>
       <tp>
-        <v>90</v>
+        <v>120</v>
         <stp/>
         <stp>BDP|1716388539457443821|22</stp>
         <stp>EEXXT3PA Index</stp>
@@ -3203,7 +3203,7 @@
         <tr r="H129" s="2"/>
       </tp>
       <tp t="s">
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
         <stp/>
         <stp>BDP|3638041331352720978|22</stp>
         <stp>EEX33XPL Index</stp>
@@ -3211,7 +3211,7 @@
         <tr r="P89" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2801367748</v>
+        <v>#N/A Requesting Data...2153219230</v>
         <stp/>
         <stp>BDP|141486019989176878</stp>
         <tr r="C77" s="2"/>
@@ -3233,13 +3233,13 @@
         <tr r="I142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3161463840</v>
+        <v>#N/A Requesting Data...1831847441</v>
         <stp/>
         <stp>BDP|498236031780937674</stp>
         <tr r="O71" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2785105620</v>
+        <v>#N/A Requesting Data...2531762029</v>
         <stp/>
         <stp>BDP|626474072446054250</stp>
         <tr r="O48" s="2"/>
@@ -3253,7 +3253,7 @@
         <tr r="I128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2163345407</v>
+        <v>#N/A Requesting Data...1748974774</v>
         <stp/>
         <stp>BDP|949597951093820562</stp>
         <tr r="C69" s="2"/>
@@ -3275,7 +3275,7 @@
         <tr r="I139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4161905259</v>
+        <v>#N/A Requesting Data...3342009312</v>
         <stp/>
         <stp>BDP|527374345414391240</stp>
         <tr r="C99" s="2"/>
@@ -3289,7 +3289,7 @@
         <tr r="I38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3206395579</v>
+        <v>#N/A Requesting Data...700958153</v>
         <stp/>
         <stp>BDP|445371574551055651</stp>
         <tr r="C111" s="2"/>
@@ -3319,7 +3319,7 @@
         <tr r="H125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2360421753</v>
+        <v>#N/A Requesting Data...3943603718</v>
         <stp/>
         <stp>BDP|411030222906237860</stp>
         <tr r="O133" s="2"/>
@@ -3389,7 +3389,7 @@
         <tr r="H39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4012637886</v>
+        <v>#N/A Requesting Data...2796502951</v>
         <stp/>
         <stp>BDP|112394073414420858</stp>
         <tr r="C123" s="2"/>
@@ -3403,7 +3403,7 @@
         <tr r="I152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3330833945</v>
+        <v>#N/A Requesting Data...4081307387</v>
         <stp/>
         <stp>BDP|280997264327962398</stp>
         <tr r="O149" s="2"/>
@@ -3475,7 +3475,7 @@
         <tr r="H49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3055515199</v>
+        <v>#N/A Requesting Data...891362699</v>
         <stp/>
         <stp>BDP|599652034392309</stp>
         <tr r="D143" s="2"/>
@@ -3783,7 +3783,7 @@
   <dimension ref="A1:P152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="C35">
         <f>_xll.BDP("UKAAUPR Index","PX_LAST")</f>
-        <v>57.25</v>
+        <v>53.5</v>
       </c>
       <c r="D35">
         <f>_xll.BDP("UKAAUPR Index","PX_VOLUME")</f>
@@ -4529,11 +4529,11 @@
       </c>
       <c r="O35" t="str">
         <f>_xll.BDP("UKAAUPR Index","LAST_UPDATE_DT")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
       <c r="P35" t="str">
         <f>_xll.BDP("UKAAUPR Index","TIME")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="C37">
         <f>_xll.BDP("UKACORAT Index","PX_LAST")</f>
-        <v>1.6837167746258701</v>
+        <v>1.4956444047353139</v>
       </c>
       <c r="D37" t="str">
         <f>_xll.BDP("UKACORAT Index","PX_VOLUME")</f>
@@ -4572,11 +4572,11 @@
       </c>
       <c r="O37" t="str">
         <f>_xll.BDP("UKACORAT Index","LAST_UPDATE_DT")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
       <c r="P37" t="str">
         <f>_xll.BDP("UKACORAT Index","TIME")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="C38">
         <f>_xll.BDP("UKASBBID Index","PX_LAST")</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D38">
         <f>_xll.BDP("UKASBBID Index","PX_VOLUME")</f>
@@ -4607,11 +4607,11 @@
       </c>
       <c r="O38" t="str">
         <f>_xll.BDP("UKASBBID Index","LAST_UPDATE_DT")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
       <c r="P38" t="str">
         <f>_xll.BDP("UKASBBID Index","TIME")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -4642,11 +4642,11 @@
       </c>
       <c r="O39" t="str">
         <f>_xll.BDP("UKATOBID Index","LAST_UPDATE_DT")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
       <c r="P39" t="str">
         <f>_xll.BDP("UKATOBID Index","TIME")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="C41">
         <f>_xll.BDP("UKABIDS Index","PX_LAST")</f>
-        <v>3769000</v>
+        <v>3348000</v>
       </c>
       <c r="D41">
         <f>_xll.BDP("UKABIDS Index","PX_VOLUME")</f>
@@ -4685,11 +4685,11 @@
       </c>
       <c r="O41" t="str">
         <f>_xll.BDP("UKABIDS Index","LAST_UPDATE_DT")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
       <c r="P41" t="str">
         <f>_xll.BDP("UKABIDS Index","TIME")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -4738,30 +4738,30 @@
       </c>
       <c r="C45">
         <f>_xll.BDP("EEXXT3PA Index","PX_LAST")</f>
-        <v>75.2</v>
+        <v>79.19</v>
       </c>
       <c r="D45">
         <f>_xll.BDP("EEXXT3PA Index","PX_VOLUME")</f>
-        <v>6536000</v>
+        <v>3268000</v>
       </c>
       <c r="H45">
         <f>_xll.BDP("EEXXT3PA Index","BID")</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I45">
         <f>_xll.BDP("EEXXT3PA Index","ASK")</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N45" t="s">
         <v>58</v>
       </c>
       <c r="O45" t="str">
         <f>_xll.BDP("EEXXT3PA Index","LAST_UPDATE_DT")</f>
-        <v>29.09.2025</v>
+        <v>06.10.2025</v>
       </c>
       <c r="P45" t="str">
         <f>_xll.BDP("EEXXT3PA Index","TIME")</f>
-        <v>11:17:09</v>
+        <v>06.10.2025</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="C47">
         <f>_xll.BDP("EEX3CRT3 Index","PX_LAST")</f>
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="D47">
         <f>_xll.BDP("EEX3CRT3 Index","PX_VOLUME")</f>
@@ -4800,11 +4800,11 @@
       </c>
       <c r="O47" t="str">
         <f>_xll.BDP("EEX3CRT3 Index","LAST_UPDATE_DT")</f>
-        <v>29.09.2025</v>
+        <v>06.10.2025</v>
       </c>
       <c r="P47" t="str">
         <f>_xll.BDP("EEX3CRT3 Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="C48">
         <f>_xll.BDP("EEX3MNT3 Index","PX_LAST")</f>
-        <v>75.19</v>
+        <v>79.3</v>
       </c>
       <c r="D48">
         <f>_xll.BDP("EEX3MNT3 Index","PX_VOLUME")</f>
@@ -4835,11 +4835,11 @@
       </c>
       <c r="O48" t="str">
         <f>_xll.BDP("EEX3MNT3 Index","LAST_UPDATE_DT")</f>
-        <v>29.09.2025</v>
+        <v>06.10.2025</v>
       </c>
       <c r="P48" t="str">
         <f>_xll.BDP("EEX3MNT3 Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="C49">
         <f>_xll.BDP("EEX3MDT3 Index","PX_LAST")</f>
-        <v>74.91</v>
+        <v>78.91</v>
       </c>
       <c r="D49">
         <f>_xll.BDP("EEX3MDT3 Index","PX_VOLUME")</f>
@@ -4870,11 +4870,11 @@
       </c>
       <c r="O49" t="str">
         <f>_xll.BDP("EEX3MDT3 Index","LAST_UPDATE_DT")</f>
-        <v>29.09.2025</v>
+        <v>06.10.2025</v>
       </c>
       <c r="P49" t="str">
         <f>_xll.BDP("EEX3MDT3 Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="C50">
         <f>_xll.BDP("EEX3SCCB Index","PX_LAST")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50">
         <f>_xll.BDP("EEX3SCCB Index","PX_VOLUME")</f>
@@ -4905,11 +4905,11 @@
       </c>
       <c r="O50" t="str">
         <f>_xll.BDP("EEX3SCCB Index","LAST_UPDATE_DT")</f>
-        <v>29.09.2025</v>
+        <v>06.10.2025</v>
       </c>
       <c r="P50" t="str">
         <f>_xll.BDP("EEX3SCCB Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="C51">
         <f>_xll.BDP("EEX3TOTB Index","PX_LAST")</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D51">
         <f>_xll.BDP("EEX3TOTB Index","PX_VOLUME")</f>
@@ -4940,11 +4940,11 @@
       </c>
       <c r="O51" t="str">
         <f>_xll.BDP("EEX3TOTB Index","LAST_UPDATE_DT")</f>
-        <v>29.09.2025</v>
+        <v>06.10.2025</v>
       </c>
       <c r="P51" t="str">
         <f>_xll.BDP("EEX3TOTB Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="C53">
         <f>_xll.BDP("EEX3BDT3 Index","PX_LAST")</f>
-        <v>4941000</v>
+        <v>5329500</v>
       </c>
       <c r="D53">
         <f>_xll.BDP("EEX3BDT3 Index","PX_VOLUME")</f>
@@ -4986,11 +4986,11 @@
       </c>
       <c r="O53" t="str">
         <f>_xll.BDP("EEX3BDT3 Index","LAST_UPDATE_DT")</f>
-        <v>29.09.2025</v>
+        <v>06.10.2025</v>
       </c>
       <c r="P53" t="str">
         <f>_xll.BDP("EEX3BDT3 Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="C67">
         <f>_xll.BDP("EEX3EPPM Index","PX_LAST")</f>
-        <v>75.2</v>
+        <v>79.19</v>
       </c>
       <c r="D67">
         <f>_xll.BDP("EEX3EPPM Index","PX_VOLUME")</f>
@@ -5278,22 +5278,22 @@
       </c>
       <c r="H67">
         <f>_xll.BDP("EEX3EPPM Index","BID")</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I67">
         <f>_xll.BDP("EEX3EPPM Index","ASK")</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N67" t="s">
         <v>63</v>
       </c>
       <c r="O67" t="str">
         <f>_xll.BDP("EEX3EPPM Index","LAST_UPDATE_DT")</f>
-        <v>29.09.2025</v>
+        <v>06.10.2025</v>
       </c>
       <c r="P67" t="str">
         <f>_xll.BDP("EEX3EPPM Index","TIME")</f>
-        <v>11:00:38</v>
+        <v>06.10.2025</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="C69">
         <f>_xll.BDP("EEX3EPCR Index","PX_LAST")</f>
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="D69">
         <f>_xll.BDP("EEX3EPCR Index","PX_VOLUME")</f>
@@ -5332,11 +5332,11 @@
       </c>
       <c r="O69" t="str">
         <f>_xll.BDP("EEX3EPCR Index","LAST_UPDATE_DT")</f>
-        <v>29.09.2025</v>
+        <v>06.10.2025</v>
       </c>
       <c r="P69" t="str">
         <f>_xll.BDP("EEX3EPCR Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="C70">
         <f>_xll.BDP("EEX3MNEP Index","PX_LAST")</f>
-        <v>75.19</v>
+        <v>79.3</v>
       </c>
       <c r="D70">
         <f>_xll.BDP("EEX3MNEP Index","PX_VOLUME")</f>
@@ -5367,11 +5367,11 @@
       </c>
       <c r="O70" t="str">
         <f>_xll.BDP("EEX3MNEP Index","LAST_UPDATE_DT")</f>
-        <v>29.09.2025</v>
+        <v>06.10.2025</v>
       </c>
       <c r="P70" t="str">
         <f>_xll.BDP("EEX3MNEP Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="C71">
         <f>_xll.BDP("EEX3MDEP Index","PX_LAST")</f>
-        <v>74.91</v>
+        <v>78.91</v>
       </c>
       <c r="D71">
         <f>_xll.BDP("EEX3MDEP Index","PX_VOLUME")</f>
@@ -5402,11 +5402,11 @@
       </c>
       <c r="O71" t="str">
         <f>_xll.BDP("EEX3MDEP Index","LAST_UPDATE_DT")</f>
-        <v>29.09.2025</v>
+        <v>06.10.2025</v>
       </c>
       <c r="P71" t="str">
         <f>_xll.BDP("EEX3MDEP Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="C73">
         <f>_xll.BDP("EEX3BDEP Index","PX_LAST")</f>
-        <v>4941000</v>
+        <v>5329500</v>
       </c>
       <c r="D73">
         <f>_xll.BDP("EEX3BDEP Index","PX_VOLUME")</f>
@@ -5448,11 +5448,11 @@
       </c>
       <c r="O73" t="str">
         <f>_xll.BDP("EEX3BDEP Index","LAST_UPDATE_DT")</f>
-        <v>29.09.2025</v>
+        <v>06.10.2025</v>
       </c>
       <c r="P73" t="str">
         <f>_xll.BDP("EEX3BDEP Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="C77">
         <f>_xll.BDP("EEX3PMEU Index","PX_LAST")</f>
-        <v>75.2</v>
+        <v>79.19</v>
       </c>
       <c r="D77">
         <f>_xll.BDP("EEX3PMEU Index","PX_VOLUME")</f>
@@ -5509,22 +5509,22 @@
       </c>
       <c r="H77">
         <f>_xll.BDP("EEX3PMEU Index","BID")</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I77">
         <f>_xll.BDP("EEX3PMEU Index","ASK")</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N77" t="s">
         <v>65</v>
       </c>
       <c r="O77" t="str">
         <f>_xll.BDP("EEX3PMEU Index","LAST_UPDATE_DT")</f>
-        <v>29.09.2025</v>
+        <v>06.10.2025</v>
       </c>
       <c r="P77" t="str">
         <f>_xll.BDP("EEX3PMEU Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="C79">
         <f>_xll.BDP("EEX3CREU Index","PX_LAST")</f>
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="D79">
         <f>_xll.BDP("EEX3CREU Index","PX_VOLUME")</f>
@@ -5563,11 +5563,11 @@
       </c>
       <c r="O79" t="str">
         <f>_xll.BDP("EEX3CREU Index","LAST_UPDATE_DT")</f>
-        <v>29.09.2025</v>
+        <v>06.10.2025</v>
       </c>
       <c r="P79" t="str">
         <f>_xll.BDP("EEX3CREU Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="C80">
         <f>_xll.BDP("EEX3MNEU Index","PX_LAST")</f>
-        <v>75.19</v>
+        <v>79.3</v>
       </c>
       <c r="D80">
         <f>_xll.BDP("EEX3MNEU Index","PX_VOLUME")</f>
@@ -5598,11 +5598,11 @@
       </c>
       <c r="O80" t="str">
         <f>_xll.BDP("EEX3MNEU Index","LAST_UPDATE_DT")</f>
-        <v>29.09.2025</v>
+        <v>06.10.2025</v>
       </c>
       <c r="P80" t="str">
         <f>_xll.BDP("EEX3MNEU Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="C81">
         <f>_xll.BDP("EEX3MDEU Index","PX_LAST")</f>
-        <v>74.91</v>
+        <v>78.91</v>
       </c>
       <c r="D81">
         <f>_xll.BDP("EEX3MDEU Index","PX_VOLUME")</f>
@@ -5633,11 +5633,11 @@
       </c>
       <c r="O81" t="str">
         <f>_xll.BDP("EEX3MDEU Index","LAST_UPDATE_DT")</f>
-        <v>29.09.2025</v>
+        <v>06.10.2025</v>
       </c>
       <c r="P81" t="str">
         <f>_xll.BDP("EEX3MDEU Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="C83">
         <f>_xll.BDP("EEX3BDEU Index","PX_LAST")</f>
-        <v>4941000</v>
+        <v>5329500</v>
       </c>
       <c r="D83">
         <f>_xll.BDP("EEX3BDEU Index","PX_VOLUME")</f>
@@ -5679,11 +5679,11 @@
       </c>
       <c r="O83" t="str">
         <f>_xll.BDP("EEX3BDEU Index","LAST_UPDATE_DT")</f>
-        <v>29.09.2025</v>
+        <v>06.10.2025</v>
       </c>
       <c r="P83" t="str">
         <f>_xll.BDP("EEX3BDEU Index","TIME")</f>
-        <v>11:00:00</v>
+        <v>06.10.2025</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="C87">
         <f>_xll.BDP("EEX3X3PL Index","PX_LAST")</f>
-        <v>77.53</v>
+        <v>74.3</v>
       </c>
       <c r="D87">
         <f>_xll.BDP("EEX3X3PL Index","PX_VOLUME")</f>
@@ -5740,22 +5740,22 @@
       </c>
       <c r="H87">
         <f>_xll.BDP("EEX3X3PL Index","BID")</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I87">
         <f>_xll.BDP("EEX3X3PL Index","ASK")</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N87" t="s">
         <v>67</v>
       </c>
       <c r="O87" t="str">
         <f>_xll.BDP("EEX3X3PL Index","LAST_UPDATE_DT")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
       <c r="P87" t="str">
         <f>_xll.BDP("EEX3X3PL Index","TIME")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="C89">
         <f>_xll.BDP("EEX33XPL Index","PX_LAST")</f>
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="D89">
         <f>_xll.BDP("EEX33XPL Index","PX_VOLUME")</f>
@@ -5794,11 +5794,11 @@
       </c>
       <c r="O89" t="str">
         <f>_xll.BDP("EEX33XPL Index","LAST_UPDATE_DT")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
       <c r="P89" t="str">
         <f>_xll.BDP("EEX33XPL Index","TIME")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -5810,7 +5810,7 @@
       </c>
       <c r="C90">
         <f>_xll.BDP("EEX3MNPL Index","PX_LAST")</f>
-        <v>77.22</v>
+        <v>74.61</v>
       </c>
       <c r="D90">
         <f>_xll.BDP("EEX3MNPL Index","PX_VOLUME")</f>
@@ -5829,11 +5829,11 @@
       </c>
       <c r="O90" t="str">
         <f>_xll.BDP("EEX3MNPL Index","LAST_UPDATE_DT")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
       <c r="P90" t="str">
         <f>_xll.BDP("EEX3MNPL Index","TIME")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="C91">
         <f>_xll.BDP("EEX3MDPL Index","PX_LAST")</f>
-        <v>77.41</v>
+        <v>74.180000000000007</v>
       </c>
       <c r="D91">
         <f>_xll.BDP("EEX3MDPL Index","PX_VOLUME")</f>
@@ -5864,11 +5864,11 @@
       </c>
       <c r="O91" t="str">
         <f>_xll.BDP("EEX3MDPL Index","LAST_UPDATE_DT")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
       <c r="P91" t="str">
         <f>_xll.BDP("EEX3MDPL Index","TIME")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="C93">
         <f>_xll.BDP("EEX3BDPL Index","PX_LAST")</f>
-        <v>3324000</v>
+        <v>3092000</v>
       </c>
       <c r="D93">
         <f>_xll.BDP("EEX3BDPL Index","PX_VOLUME")</f>
@@ -5910,11 +5910,11 @@
       </c>
       <c r="O93" t="str">
         <f>_xll.BDP("EEX3BDPL Index","LAST_UPDATE_DT")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
       <c r="P93" t="str">
         <f>_xll.BDP("EEX3BDPL Index","TIME")</f>
-        <v>17.09.2025</v>
+        <v>01.10.2025</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -7266,26 +7266,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A115:P115"/>
+    <mergeCell ref="A116:P116"/>
+    <mergeCell ref="A126:P126"/>
+    <mergeCell ref="A137:P137"/>
+    <mergeCell ref="A147:P147"/>
+    <mergeCell ref="A65:P65"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A95:P95"/>
+    <mergeCell ref="A105:P105"/>
+    <mergeCell ref="A30:P30"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="A33:P33"/>
+    <mergeCell ref="A43:P43"/>
+    <mergeCell ref="A55:P55"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A19:P19"/>
     <mergeCell ref="A24:P24"/>
     <mergeCell ref="A27:P27"/>
-    <mergeCell ref="A30:P30"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="A33:P33"/>
-    <mergeCell ref="A43:P43"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A65:P65"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A95:P95"/>
-    <mergeCell ref="A105:P105"/>
-    <mergeCell ref="A115:P115"/>
-    <mergeCell ref="A116:P116"/>
-    <mergeCell ref="A126:P126"/>
-    <mergeCell ref="A137:P137"/>
-    <mergeCell ref="A147:P147"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Auctions EUA.xlsx
+++ b/Auctions EUA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCC5A1D-956F-4D91-B29C-74C5CA59B036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE54CEC-5D88-4164-B322-FC6348AC50EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
@@ -873,7 +873,7 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
         <stp/>
         <stp>BDP|3018607617448695053|22</stp>
         <stp>EEX3SCCB Index</stp>
@@ -888,8 +888,8 @@
         <stp>BID</stp>
         <tr r="H111" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Real Time</v>
+      <tp>
+        <v>60</v>
         <stp/>
         <stp>BDP|14290090959011407672|22</stp>
         <stp>EEX3PMNI Index</stp>
@@ -913,7 +913,7 @@
         <tr r="P39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Real Time</v>
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BDP|14860084446475374009|22</stp>
         <stp>EEX3MDNI Index</stp>
@@ -937,7 +937,7 @@
         <tr r="I111" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Real Time</v>
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BDP|18131200397880938406|22</stp>
         <stp>EEX3BDNI Index</stp>
@@ -945,7 +945,7 @@
         <tr r="H103" s="2"/>
       </tp>
       <tp t="s">
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
         <stp/>
         <stp>BDP|4191428704799251462|22</stp>
         <stp>EEX3TOTB Index</stp>
@@ -953,7 +953,7 @@
         <tr r="P51" s="2"/>
       </tp>
       <tp>
-        <v>120</v>
+        <v>80.88</v>
         <stp/>
         <stp>BDP|10519417515402280991|22</stp>
         <stp>EEX3EPPM Index</stp>
@@ -968,10 +968,8 @@
         <stp>BID</stp>
         <tr r="H93" s="2"/>
       </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A Real Time</v>
+      <tp t="s">
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BDP|17104048009377607935|22</stp>
         <stp>EEX3MNNI Index</stp>
@@ -979,15 +977,13 @@
         <tr r="I100" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Real Time</v>
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BDP|14378879846599339116|22</stp>
         <stp>EEX3MDNI Index</stp>
         <stp>ASK</stp>
         <tr r="I101" s="2"/>
       </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
@@ -1004,8 +1000,8 @@
         <stp>ASK</stp>
         <tr r="I87" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Real Time</v>
+      <tp>
+        <v>79.3</v>
         <stp/>
         <stp>BDP|11613504245441013820|22</stp>
         <stp>EEX3PMNI Index</stp>
@@ -1077,7 +1073,7 @@
         <tr r="I113" s="2"/>
       </tp>
       <tp>
-        <v>69</v>
+        <v>62</v>
         <stp/>
         <stp>BDP|15420833856443191727|22</stp>
         <stp>EEX3PMDE Index</stp>
@@ -1101,7 +1097,7 @@
         <tr r="H61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Real Time</v>
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BDP|10813951229115512297|22</stp>
         <stp>EEX3CRNI Index</stp>
@@ -1109,7 +1105,7 @@
         <tr r="H99" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Real Time</v>
+        <v>08.10.2025</v>
         <stp/>
         <stp>BDP|6722668399737220563|22</stp>
         <stp>EEX3PMNI Index</stp>
@@ -1141,7 +1137,7 @@
         <tr r="P87" s="2"/>
       </tp>
       <tp t="s">
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
         <stp/>
         <stp>BDP|1494356953421449542|22</stp>
         <stp>EEXXT3PA Index</stp>
@@ -1149,7 +1145,7 @@
         <tr r="P45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Real Time</v>
+        <v>08.10.2025</v>
         <stp/>
         <stp>BDP|9076854309093543256|22</stp>
         <stp>EEX3CRNI Index</stp>
@@ -1181,25 +1177,25 @@
         <tr r="H70" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4294666647</v>
+        <v>#N/A Requesting Data...3631247870</v>
         <stp/>
         <stp>BDP|11269571729604204855</stp>
         <tr r="C145" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1404042670</v>
+        <v>#N/A Requesting Data...2755458556</v>
         <stp/>
         <stp>BDP|10943788378258769235</stp>
         <tr r="D109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...392352534</v>
+        <v>#N/A Requesting Data...2597657930</v>
         <stp/>
         <stp>BDP|13172746922254409863</stp>
         <tr r="O80" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...471809484</v>
+        <v>#N/A Requesting Data...1655900908</v>
         <stp/>
         <stp>BDP|14497910193647682945</stp>
         <tr r="D70" s="2"/>
@@ -1213,7 +1209,7 @@
         <tr r="P111" s="2"/>
       </tp>
       <tp t="s">
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
         <stp/>
         <stp>BDP|9541173970769276266|22</stp>
         <stp>EEX3EPCR Index</stp>
@@ -1221,7 +1217,7 @@
         <tr r="P69" s="2"/>
       </tp>
       <tp t="s">
-        <v>26.09.2025</v>
+        <v>10.10.2025</v>
         <stp/>
         <stp>BDP|3193189600887063507|22</stp>
         <stp>EEX3CRDE Index</stp>
@@ -1229,7 +1225,7 @@
         <tr r="P59" s="2"/>
       </tp>
       <tp>
-        <v>120</v>
+        <v>80.88</v>
         <stp/>
         <stp>BDP|11258790351540468562|22</stp>
         <stp>EEX3PMEU Index</stp>
@@ -1245,25 +1241,25 @@
         <tr r="H83" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3295298719</v>
+        <v>#N/A Requesting Data...2122252443</v>
         <stp/>
         <stp>BDP|18008250999471656922</stp>
         <tr r="D91" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4092260804</v>
+        <v>#N/A Requesting Data...3656352175</v>
         <stp/>
         <stp>BDP|17732115207434946955</stp>
         <tr r="O35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2735848856</v>
+        <v>#N/A Requesting Data...4204751737</v>
         <stp/>
         <stp>BDP|17883504586526473761</stp>
         <tr r="D60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3135840919</v>
+        <v>#N/A Requesting Data...1655159821</v>
         <stp/>
         <stp>BDP|17453411474857561889</stp>
         <tr r="C51" s="2"/>
@@ -1277,25 +1273,25 @@
         <tr r="P123" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1361987373</v>
+        <v>#N/A Requesting Data...3257379806</v>
         <stp/>
         <stp>BDP|17440720740509750509</stp>
         <tr r="D131" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...608086468</v>
+        <v>#N/A Requesting Data...3481150958</v>
         <stp/>
         <stp>BDP|13137573291627110020</stp>
         <tr r="O122" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...175819606</v>
+        <v>#N/A Requesting Data...2396843871</v>
         <stp/>
         <stp>BDP|12589828556680285779</stp>
         <tr r="C131" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1618032522</v>
+        <v>#N/A Requesting Data...1585756380</v>
         <stp/>
         <stp>BDP|14677421799633940220</stp>
         <tr r="D135" s="2"/>
@@ -1317,25 +1313,25 @@
         <tr r="H60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3164680959</v>
+        <v>#N/A Requesting Data...2950132608</v>
         <stp/>
         <stp>BDP|13392001727258142092</stp>
         <tr r="O125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3758555889</v>
+        <v>#N/A Requesting Data...3584071249</v>
         <stp/>
         <stp>BDP|14017755899281818256</stp>
         <tr r="D39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4192560618</v>
+        <v>#N/A Requesting Data...2403277252</v>
         <stp/>
         <stp>BDP|15783964005736454339</stp>
         <tr r="D51" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1401012409</v>
+        <v>#N/A Requesting Data...2633483657</v>
         <stp/>
         <stp>BDP|15365985838177005150</stp>
         <tr r="O49" s="2"/>
@@ -1373,25 +1369,25 @@
         <tr r="P35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1414180935</v>
+        <v>#N/A Requesting Data...4274267872</v>
         <stp/>
         <stp>BDP|15339769723328136685</stp>
         <tr r="C63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1610347327</v>
+        <v>#N/A Requesting Data...2495671719</v>
         <stp/>
         <stp>BDP|18033101966751297072</stp>
         <tr r="C67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1970036542</v>
+        <v>#N/A Requesting Data...1740032212</v>
         <stp/>
         <stp>BDP|14450087638141730867</stp>
         <tr r="D59" s="2"/>
       </tp>
       <tp t="s">
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
         <stp/>
         <stp>BDP|6821914525563686864|22</stp>
         <stp>EEX3MDT3 Index</stp>
@@ -1423,85 +1419,85 @@
         <tr r="I41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2619667882</v>
+        <v>#N/A Requesting Data...2774764485</v>
         <stp/>
         <stp>BDP|18411307338470386767</stp>
         <tr r="D99" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1700572329</v>
+        <v>#N/A Requesting Data...3440624202</v>
         <stp/>
         <stp>BDP|10666662405090903935</stp>
         <tr r="C107" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2735636419</v>
+        <v>#N/A Requesting Data...4176612421</v>
         <stp/>
         <stp>BDP|14977427384300822780</stp>
         <tr r="O51" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...904818724</v>
+        <v>#N/A Requesting Data...2212025440</v>
         <stp/>
         <stp>BDP|16823031330433881965</stp>
         <tr r="C79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1626080000</v>
+        <v>#N/A Requesting Data...3224366654</v>
         <stp/>
         <stp>BDP|11920132482670808779</stp>
         <tr r="O121" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3594442853</v>
+        <v>#N/A Requesting Data...3717535277</v>
         <stp/>
         <stp>BDP|16946453695197801084</stp>
         <tr r="D71" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2779507550</v>
+        <v>#N/A Requesting Data...3918964454</v>
         <stp/>
         <stp>BDP|17933236663647161806</stp>
         <tr r="O142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...350552488</v>
+        <v>#N/A Requesting Data...3545043437</v>
         <stp/>
         <stp>BDP|16760592922515211860</stp>
         <tr r="C135" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2448674090</v>
+        <v>#N/A Requesting Data...3334809296</v>
         <stp/>
         <stp>BDP|17148762016524255989</stp>
         <tr r="C73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...327390774</v>
+        <v>#N/A Requesting Data...2840281423</v>
         <stp/>
         <stp>BDP|18309468170035994204</stp>
         <tr r="C129" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2369216013</v>
+        <v>#N/A Requesting Data...2440357951</v>
         <stp/>
         <stp>BDP|17271087938758253012</stp>
         <tr r="C57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1962633490</v>
+        <v>#N/A Requesting Data...4071032964</v>
         <stp/>
         <stp>BDP|12870303344301412882</stp>
         <tr r="C91" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2816569214</v>
+        <v>#N/A Requesting Data...4265640252</v>
         <stp/>
         <stp>BDP|11040138180590694408</stp>
         <tr r="C81" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2375441806</v>
+        <v>#N/A Requesting Data...3178653112</v>
         <stp/>
         <stp>BDP|11220363830214973997</stp>
         <tr r="C50" s="2"/>
@@ -1515,49 +1511,49 @@
         <tr r="I121" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1450195945</v>
+        <v>#N/A Requesting Data...4022335826</v>
         <stp/>
         <stp>BDP|10310929788149374579</stp>
         <tr r="C80" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2664899483</v>
+        <v>#N/A Requesting Data...3916355130</v>
         <stp/>
         <stp>BDP|17645551591513564590</stp>
         <tr r="C119" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4162516032</v>
+        <v>#N/A Requesting Data...2235037216</v>
         <stp/>
         <stp>BDP|11799929507266026330</stp>
         <tr r="C93" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2100596339</v>
+        <v>#N/A Requesting Data...3983459638</v>
         <stp/>
         <stp>BDP|12376569583387116556</stp>
         <tr r="D77" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...680567477</v>
+        <v>#N/A Requesting Data...3666781099</v>
         <stp/>
         <stp>BDP|12929767077087211884</stp>
         <tr r="C90" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4272091374</v>
+        <v>#N/A Requesting Data...2312606317</v>
         <stp/>
         <stp>BDP|12746681013678887006</stp>
         <tr r="C83" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3992796328</v>
+        <v>#N/A Requesting Data...4173335546</v>
         <stp/>
         <stp>BDP|12638693508540193928</stp>
         <tr r="O83" s="2"/>
       </tp>
       <tp t="s">
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
         <stp/>
         <stp>BDP|6553737273572010062|22</stp>
         <stp>EEX3BDEP Index</stp>
@@ -1597,25 +1593,25 @@
         <tr r="P133" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3767912732</v>
+        <v>#N/A Requesting Data...3228988173</v>
         <stp/>
         <stp>BDP|17119275309777085060</stp>
         <tr r="D97" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1254534974</v>
+        <v>#N/A Requesting Data...3889257162</v>
         <stp/>
         <stp>BDP|16334400116593439221</stp>
         <tr r="D103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3294968895</v>
+        <v>#N/A Requesting Data...3353749574</v>
         <stp/>
         <stp>BDP|17261400698320790895</stp>
         <tr r="O123" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Real Time</v>
+        <v>08.10.2025</v>
         <stp/>
         <stp>BDP|6173973621691024779|22</stp>
         <stp>EEX3MNNI Index</stp>
@@ -1623,7 +1619,7 @@
         <tr r="P100" s="2"/>
       </tp>
       <tp t="s">
-        <v>26.09.2025</v>
+        <v>10.10.2025</v>
         <stp/>
         <stp>BDP|4742737479639692576|22</stp>
         <stp>EEX3BDDE Index</stp>
@@ -1639,55 +1635,55 @@
         <tr r="P128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1423784376</v>
+        <v>#N/A Requesting Data...3459960918</v>
         <stp/>
         <stp>BDP|10231084159133314599</stp>
         <tr r="O63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1009146443</v>
+        <v>#N/A Requesting Data...3716621203</v>
         <stp/>
         <stp>BDP|10762113169831043550</stp>
         <tr r="C59" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...700900013</v>
+        <v>#N/A Requesting Data...3934750883</v>
         <stp/>
         <stp>BDP|16233839828067587813</stp>
         <tr r="O69" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4229746877</v>
+        <v>#N/A Requesting Data...2412923704</v>
         <stp/>
         <stp>BDP|18112152192717370493</stp>
         <tr r="D57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2273645372</v>
+        <v>#N/A Requesting Data...3975565342</v>
         <stp/>
         <stp>BDP|12631048552532555647</stp>
         <tr r="C45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2556382081</v>
+        <v>#N/A Requesting Data...3417072357</v>
         <stp/>
         <stp>BDP|16257536659004183193</stp>
         <tr r="D61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...531894447</v>
+        <v>#N/A Requesting Data...3634576757</v>
         <stp/>
         <stp>BDP|11773772447184358568</stp>
         <tr r="D67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1331228048</v>
+        <v>#N/A Requesting Data...4043394060</v>
         <stp/>
         <stp>BDP|11036023536593262247</stp>
         <tr r="D80" s="2"/>
       </tp>
       <tp t="s">
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
         <stp/>
         <stp>BDP|4789583064645529089|22</stp>
         <stp>EEX3BDEU Index</stp>
@@ -1703,13 +1699,13 @@
         <tr r="I69" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...912796018</v>
+        <v>#N/A Requesting Data...4063955207</v>
         <stp/>
         <stp>BDP|10371740171936643690</stp>
         <tr r="C121" s="2"/>
       </tp>
       <tp t="s">
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
         <stp/>
         <stp>BDP|7806871558314808470|22</stp>
         <stp>EEX3MNT3 Index</stp>
@@ -1733,49 +1729,49 @@
         <tr r="P109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...220144482</v>
+        <v>#N/A Requesting Data...2024022125</v>
         <stp/>
         <stp>BDP|10450986407190051879</stp>
         <tr r="O113" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2984938794</v>
+        <v>#N/A Requesting Data...1840110147</v>
         <stp/>
         <stp>BDP|17345118041494135735</stp>
         <tr r="O39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2131412544</v>
+        <v>#N/A Requesting Data...3822941319</v>
         <stp/>
         <stp>BDP|12312559960178218854</stp>
         <tr r="O60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3906010377</v>
+        <v>#N/A Requesting Data...3451939394</v>
         <stp/>
         <stp>BDP|18235654050928285246</stp>
         <tr r="D118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2824925603</v>
+        <v>#N/A Requesting Data...3491375198</v>
         <stp/>
         <stp>BDP|11908180946526696355</stp>
         <tr r="O77" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2266853984</v>
+        <v>#N/A Requesting Data...4021090893</v>
         <stp/>
         <stp>BDP|16041498039241224153</stp>
         <tr r="D50" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4116786791</v>
+        <v>#N/A Requesting Data...1798322948</v>
         <stp/>
         <stp>BDP|15600557786638647149</stp>
         <tr r="O135" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3291609843</v>
+        <v>#N/A Requesting Data...3178424566</v>
         <stp/>
         <stp>BDP|17201301560995300668</stp>
         <tr r="C128" s="2"/>
@@ -1805,61 +1801,61 @@
         <tr r="I118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2329025061</v>
+        <v>#N/A Requesting Data...3325964841</v>
         <stp/>
         <stp>BDP|11964424655954108243</stp>
         <tr r="O152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1793826958</v>
+        <v>#N/A Requesting Data...2367797857</v>
         <stp/>
         <stp>BDP|15039250998841436929</stp>
         <tr r="C70" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2883712581</v>
+        <v>#N/A Requesting Data...2065880120</v>
         <stp/>
         <stp>BDP|12983476071071398635</stp>
         <tr r="D121" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4249893488</v>
+        <v>#N/A Requesting Data...3676077541</v>
         <stp/>
         <stp>BDP|13022728685482255840</stp>
         <tr r="D151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1456441043</v>
+        <v>#N/A Requesting Data...3820453536</v>
         <stp/>
         <stp>BDP|14787445835483775602</stp>
         <tr r="C49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3877478814</v>
+        <v>#N/A Requesting Data...2927314574</v>
         <stp/>
         <stp>BDP|13835889490117150311</stp>
         <tr r="C41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3187772050</v>
+        <v>#N/A Requesting Data...3452951662</v>
         <stp/>
         <stp>BDP|11777284828983264462</stp>
         <tr r="C152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1486842808</v>
+        <v>#N/A Requesting Data...1815049047</v>
         <stp/>
         <stp>BDP|16175526658473866307</stp>
         <tr r="O101" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1657709478</v>
+        <v>#N/A Requesting Data...3675323185</v>
         <stp/>
         <stp>BDP|17426017852985395138</stp>
         <tr r="D125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...874103041</v>
+        <v>#N/A Requesting Data...2565446899</v>
         <stp/>
         <stp>BDP|11679146174687658674</stp>
         <tr r="O61" s="2"/>
@@ -1881,49 +1877,49 @@
         <tr r="I73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3168972582</v>
+        <v>#N/A Requesting Data...2749885214</v>
         <stp/>
         <stp>BDP|11739412558546315165</stp>
         <tr r="O107" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2656856027</v>
+        <v>#N/A Requesting Data...3840809153</v>
         <stp/>
         <stp>BDP|17821757611616847099</stp>
         <tr r="D73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1777699531</v>
+        <v>#N/A Requesting Data...3518551279</v>
         <stp/>
         <stp>BDP|12363162891205314891</stp>
         <tr r="C132" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4156262553</v>
+        <v>#N/A Requesting Data...2404561708</v>
         <stp/>
         <stp>BDP|16498489714365827135</stp>
         <tr r="O38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1370917951</v>
+        <v>#N/A Requesting Data...2994620043</v>
         <stp/>
         <stp>BDP|17756265275154491129</stp>
         <tr r="D152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3232846789</v>
+        <v>#N/A Requesting Data...1784098504</v>
         <stp/>
         <stp>BDP|11973396237516626030</stp>
         <tr r="D122" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...286442861</v>
+        <v>#N/A Requesting Data...3413027260</v>
         <stp/>
         <stp>BDP|13226662244594317259</stp>
         <tr r="O141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2856309977</v>
+        <v>#N/A Requesting Data...3328746711</v>
         <stp/>
         <stp>BDP|17779836694136602703</stp>
         <tr r="D69" s="2"/>
@@ -1945,37 +1941,37 @@
         <tr r="H35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1818269360</v>
+        <v>#N/A Requesting Data...2837562929</v>
         <stp/>
         <stp>BDP|17702743798129095414</stp>
         <tr r="C109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...130450308</v>
+        <v>#N/A Requesting Data...2898773548</v>
         <stp/>
         <stp>BDP|14502996891943856393</stp>
         <tr r="D107" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3539641450</v>
+        <v>#N/A Requesting Data...3659383509</v>
         <stp/>
         <stp>BDP|14009510159603117373</stp>
         <tr r="C151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3638880929</v>
+        <v>#N/A Requesting Data...4130955323</v>
         <stp/>
         <stp>BDP|17433439855215748722</stp>
         <tr r="D63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1441915235</v>
+        <v>#N/A Requesting Data...3363041795</v>
         <stp/>
         <stp>BDP|15963953319790315909</stp>
         <tr r="O132" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2216859607</v>
+        <v>#N/A Requesting Data...2515263468</v>
         <stp/>
         <stp>BDP|10568242787378537653</stp>
         <tr r="O37" s="2"/>
@@ -1989,37 +1985,37 @@
         <tr r="I79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2799565918</v>
+        <v>#N/A Requesting Data...2422352756</v>
         <stp/>
         <stp>BDP|13291842058863532828</stp>
         <tr r="O70" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2286794318</v>
+        <v>#N/A Requesting Data...4240964776</v>
         <stp/>
         <stp>BDP|12418513149975378324</stp>
         <tr r="C97" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...676288077</v>
+        <v>#N/A Requesting Data...4279293992</v>
         <stp/>
         <stp>BDP|14876410132956204074</stp>
         <tr r="D89" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2287719778</v>
+        <v>#N/A Requesting Data...2698277612</v>
         <stp/>
         <stp>BDP|12662972772298021130</stp>
         <tr r="O41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1641027427</v>
+        <v>#N/A Requesting Data...3747228279</v>
         <stp/>
         <stp>BDP|15876548244805841436</stp>
         <tr r="O151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3701044072</v>
+        <v>#N/A Requesting Data...2751448924</v>
         <stp/>
         <stp>BDP|12436206503061465444</stp>
         <tr r="O89" s="2"/>
@@ -2099,7 +2095,7 @@
         <tr r="H81" s="2"/>
       </tp>
       <tp>
-        <v>64</v>
+        <v>62</v>
         <stp/>
         <stp>BDP|8894173801250207596|22</stp>
         <stp>EEX3PMEU Index</stp>
@@ -2107,7 +2103,7 @@
         <tr r="H77" s="2"/>
       </tp>
       <tp t="s">
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
         <stp/>
         <stp>BDP|14914340425937262400|22</stp>
         <stp>EEX3PMEU Index</stp>
@@ -2163,7 +2159,7 @@
         <tr r="P90" s="2"/>
       </tp>
       <tp t="s">
-        <v>26.09.2025</v>
+        <v>10.10.2025</v>
         <stp/>
         <stp>BDP|14840393295774202550|22</stp>
         <stp>EEX3PMDE Index</stp>
@@ -2187,7 +2183,7 @@
         <tr r="H113" s="2"/>
       </tp>
       <tp t="s">
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
         <stp/>
         <stp>BDP|16469111007550779531|22</stp>
         <stp>EEX3MNEU Index</stp>
@@ -2211,7 +2207,7 @@
         <tr r="I110" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Real Time</v>
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BDP|9681083974277379184|22</stp>
         <stp>EEX3CRNI Index</stp>
@@ -2219,7 +2215,7 @@
         <tr r="I99" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Real Time</v>
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BDP|1540793171996473820|22</stp>
         <stp>EEX3MNNI Index</stp>
@@ -2235,7 +2231,7 @@
         <tr r="P110" s="2"/>
       </tp>
       <tp t="s">
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
         <stp/>
         <stp>BDP|12982193450868361324|22</stp>
         <stp>EEX3MDEP Index</stp>
@@ -2267,7 +2263,7 @@
         <tr r="P125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Real Time</v>
+        <v>08.10.2025</v>
         <stp/>
         <stp>BDP|17964222123524117363|22</stp>
         <stp>EEX3MDNI Index</stp>
@@ -2280,11 +2276,11 @@
         <stp>BDP|13384680936024714500|22</stp>
         <stp>ACCUABAP Index</stp>
         <stp>TIME</stp>
+        <tr r="P149" s="2"/>
         <tr r="P28" s="2"/>
-        <tr r="P149" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>06.10.2025</v>
+      </tp>
+      <tp t="s">
+        <v>13.10.2025</v>
         <stp/>
         <stp>BDP|14229205055830819259|22</stp>
         <stp>EEX3MDEU Index</stp>
@@ -2292,7 +2288,7 @@
         <tr r="P81" s="2"/>
       </tp>
       <tp t="s">
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
         <stp/>
         <stp>BDP|16855049126625485315|22</stp>
         <stp>EEX3MNEP Index</stp>
@@ -2332,7 +2328,7 @@
         <tr r="P93" s="2"/>
       </tp>
       <tp t="s">
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
         <stp/>
         <stp>BDP|16380762434944732614|22</stp>
         <stp>EEX3CREU Index</stp>
@@ -2340,7 +2336,7 @@
         <tr r="P79" s="2"/>
       </tp>
       <tp t="s">
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
         <stp/>
         <stp>BDP|15913837711201520928|22</stp>
         <stp>EEX3EPPM Index</stp>
@@ -2372,7 +2368,7 @@
         <tr r="P91" s="2"/>
       </tp>
       <tp t="s">
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
         <stp/>
         <stp>BDP|15694925664041655440|22</stp>
         <stp>EEX3BDT3 Index</stp>
@@ -2412,7 +2408,7 @@
         <tr r="H63" s="2"/>
       </tp>
       <tp t="s">
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
         <stp/>
         <stp>BDP|14809909160782766798|22</stp>
         <stp>EEX3CRT3 Index</stp>
@@ -2428,7 +2424,7 @@
         <tr r="H110" s="2"/>
       </tp>
       <tp t="s">
-        <v>26.09.2025</v>
+        <v>10.10.2025</v>
         <stp/>
         <stp>BDP|12484327023668429337|22</stp>
         <stp>EEX3MNDE Index</stp>
@@ -2452,7 +2448,7 @@
         <tr r="H50" s="2"/>
       </tp>
       <tp>
-        <v>64</v>
+        <v>62</v>
         <stp/>
         <stp>BDP|4673945679228878777|22</stp>
         <stp>EEX3EPPM Index</stp>
@@ -2460,7 +2456,7 @@
         <tr r="H67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Real Time</v>
+        <v>08.10.2025</v>
         <stp/>
         <stp>BDP|11704527201537500590|22</stp>
         <stp>EEX3BDNI Index</stp>
@@ -2468,7 +2464,7 @@
         <tr r="P103" s="2"/>
       </tp>
       <tp t="s">
-        <v>26.09.2025</v>
+        <v>10.10.2025</v>
         <stp/>
         <stp>BDP|10597827675332248545|22</stp>
         <stp>EEX3MDDE Index</stp>
@@ -2476,49 +2472,49 @@
         <tr r="P61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2313378085</v>
+        <v>#N/A Requesting Data...3115086472</v>
         <stp/>
         <stp>BDP|4124903069222755554</stp>
         <tr r="O87" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2259161548</v>
+        <v>#N/A Requesting Data...3509852048</v>
         <stp/>
         <stp>BDP|8892146774205393713</stp>
         <tr r="D129" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3127386530</v>
+        <v>#N/A Requesting Data...1833462459</v>
         <stp/>
         <stp>BDP|2477959445181429293</stp>
         <tr r="O129" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1797866454</v>
+        <v>#N/A Requesting Data...2830996616</v>
         <stp/>
         <stp>BDP|9350291445254965784</stp>
         <tr r="D37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3233690392</v>
+        <v>#N/A Requesting Data...2964501987</v>
         <stp/>
         <stp>BDP|6891918115273664161</stp>
         <tr r="D139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1735655154</v>
+        <v>#N/A Requesting Data...3005591514</v>
         <stp/>
         <stp>BDP|3573415783287593449</stp>
         <tr r="C48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3827494617</v>
+        <v>#N/A Requesting Data...3533701324</v>
         <stp/>
         <stp>BDP|8619946037809089717</stp>
         <tr r="O73" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...953272404</v>
+        <v>#N/A Requesting Data...2125137549</v>
         <stp/>
         <stp>BDP|8134701725687838685</stp>
         <tr r="D101" s="2"/>
@@ -2532,13 +2528,13 @@
         <tr r="H141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2696248792</v>
+        <v>#N/A Requesting Data...4208034062</v>
         <stp/>
         <stp>BDP|2337395976008307323</stp>
         <tr r="D133" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4224935635</v>
+        <v>#N/A Requesting Data...2785657475</v>
         <stp/>
         <stp>BDP|7346443724919908584</stp>
         <tr r="C143" s="2"/>
@@ -2552,61 +2548,61 @@
         <tr r="H47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1018317744</v>
+        <v>#N/A Requesting Data...2919955133</v>
         <stp/>
         <stp>BDP|2452480886172944101</stp>
         <tr r="D83" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3510081603</v>
+        <v>#N/A Requesting Data...2621892290</v>
         <stp/>
         <stp>BDP|3988758046487897994</stp>
         <tr r="O100" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3233136886</v>
+        <v>#N/A Requesting Data...1822737271</v>
         <stp/>
         <stp>BDP|8487968754382467898</stp>
         <tr r="O111" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2379256252</v>
+        <v>#N/A Requesting Data...2401968864</v>
         <stp/>
         <stp>BDP|3168197062443776948</stp>
         <tr r="O97" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4026136568</v>
+        <v>#N/A Requesting Data...3695401700</v>
         <stp/>
         <stp>BDP|3191294011039253743</stp>
         <tr r="C100" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3465605147</v>
+        <v>#N/A Requesting Data...3750131998</v>
         <stp/>
         <stp>BDP|8158190943367710418</stp>
         <tr r="D141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...798123099</v>
+        <v>#N/A Requesting Data...2130157907</v>
         <stp/>
         <stp>BDP|9753944506837726937</stp>
         <tr r="O139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1575826006</v>
+        <v>#N/A Requesting Data...2553052974</v>
         <stp/>
         <stp>BDP|2383970352993755307</stp>
         <tr r="D111" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2492828215</v>
+        <v>#N/A Requesting Data...4247536350</v>
         <stp/>
         <stp>BDP|8422754563225257254</stp>
         <tr r="D119" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Real Time</v>
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BDP|314352419419291877|22</stp>
         <stp>EEX3BDNI Index</stp>
@@ -2614,67 +2610,67 @@
         <tr r="I103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4085065063</v>
+        <v>#N/A Requesting Data...2004000788</v>
         <stp/>
         <stp>BDP|1905452132299753056</stp>
         <tr r="C39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1383319206</v>
+        <v>#N/A Requesting Data...2169341907</v>
         <stp/>
         <stp>BDP|9168179234227771399</stp>
         <tr r="O128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1662128459</v>
+        <v>#N/A Requesting Data...2410004910</v>
         <stp/>
         <stp>BDP|2740714101503839931</stp>
         <tr r="C141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3445015682</v>
+        <v>#N/A Requesting Data...2740264283</v>
         <stp/>
         <stp>BDP|7992263003279543384</stp>
         <tr r="D142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1648432645</v>
+        <v>#N/A Requesting Data...2878005130</v>
         <stp/>
         <stp>BDP|5477825144986453010</stp>
         <tr r="O59" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...889234153</v>
+        <v>#N/A Requesting Data...1864883383</v>
         <stp/>
         <stp>BDP|8165965388487479679</stp>
         <tr r="O81" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3253168835</v>
+        <v>#N/A Requesting Data...3531724468</v>
         <stp/>
         <stp>BDP|5675445137023195982</stp>
         <tr r="O143" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2238390894</v>
+        <v>#N/A Requesting Data...2805802823</v>
         <stp/>
         <stp>BDP|4173264548992531864</stp>
         <tr r="O109" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4174608681</v>
+        <v>#N/A Requesting Data...2309416463</v>
         <stp/>
         <stp>BDP|6322017615579378624</stp>
         <tr r="O90" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2423507109</v>
+        <v>#N/A Requesting Data...2271621721</v>
         <stp/>
         <stp>BDP|7700706960287514955</stp>
         <tr r="O99" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1369529224</v>
+        <v>#N/A Requesting Data...3753547082</v>
         <stp/>
         <stp>BDP|2684958064503521663</stp>
         <tr r="C87" s="2"/>
@@ -2688,7 +2684,7 @@
         <tr r="I143" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4234797158</v>
+        <v>#N/A Requesting Data...3200695709</v>
         <stp/>
         <stp>BDP|2825895505117461495</stp>
         <tr r="O57" s="2"/>
@@ -2702,13 +2698,13 @@
         <tr r="I141" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1863494763</v>
+        <v>#N/A Requesting Data...1844729769</v>
         <stp/>
         <stp>BDP|5555436835568594389</stp>
         <tr r="D145" s="2"/>
       </tp>
       <tp>
-        <v>78</v>
+        <v>90</v>
         <stp/>
         <stp>BDP|328381708441600475|22</stp>
         <stp>EEX3PMDE Index</stp>
@@ -2716,73 +2712,73 @@
         <tr r="I57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2562926861</v>
+        <v>#N/A Requesting Data...3423186909</v>
         <stp/>
         <stp>BDP|4279202299077950281</stp>
         <tr r="D41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1278344276</v>
+        <v>#N/A Requesting Data...2311577727</v>
         <stp/>
         <stp>BDP|6929810016462650737</stp>
         <tr r="D87" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3547765916</v>
+        <v>#N/A Requesting Data...2270777571</v>
         <stp/>
         <stp>BDP|1294936769142798640</stp>
         <tr r="C37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3910718344</v>
+        <v>#N/A Requesting Data...2361447028</v>
         <stp/>
         <stp>BDP|8268735055277832754</stp>
         <tr r="D100" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1842866721</v>
+        <v>#N/A Requesting Data...3695023877</v>
         <stp/>
         <stp>BDP|7997415316799901193</stp>
         <tr r="O53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3789112796</v>
+        <v>#N/A Requesting Data...2924633868</v>
         <stp/>
         <stp>BDP|6278897671657613432</stp>
         <tr r="O145" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1781814368</v>
+        <v>#N/A Requesting Data...3618461624</v>
         <stp/>
         <stp>BDP|8917206333941126276</stp>
         <tr r="O79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3085576087</v>
+        <v>#N/A Requesting Data...2853310097</v>
         <stp/>
         <stp>BDP|9488941276259397490</stp>
         <tr r="O67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2161169417</v>
+        <v>#N/A Requesting Data...2287613668</v>
         <stp/>
         <stp>BDP|5600386799382259784</stp>
         <tr r="C113" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1182380439</v>
+        <v>#N/A Requesting Data...3712967236</v>
         <stp/>
         <stp>BDP|9996435367631888077</stp>
         <tr r="C71" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1363321605</v>
+        <v>#N/A Requesting Data...1886752471</v>
         <stp/>
         <stp>BDP|3790921814431878090</stp>
         <tr r="D38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...842287807</v>
+        <v>#N/A Requesting Data...2171699466</v>
         <stp/>
         <stp>BDP|5023633295787322705</stp>
         <tr r="C101" s="2"/>
@@ -2805,37 +2801,37 @@
         <tr r="H151" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...311673534</v>
+        <v>#N/A Requesting Data...2952115263</v>
         <stp/>
         <stp>BDP|2742897454442023636</stp>
         <tr r="D93" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3884383412</v>
+        <v>#N/A Requesting Data...2943216692</v>
         <stp/>
         <stp>BDP|1308380368217282806</stp>
         <tr r="C89" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2205199559</v>
+        <v>#N/A Requesting Data...3989290609</v>
         <stp/>
         <stp>BDP|2125519877263797874</stp>
         <tr r="D49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2080574652</v>
+        <v>#N/A Requesting Data...1940361919</v>
         <stp/>
         <stp>BDP|8187334089870399738</stp>
         <tr r="C142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...635915613</v>
+        <v>#N/A Requesting Data...2432007838</v>
         <stp/>
         <stp>BDP|8447705041427452887</stp>
         <tr r="O110" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4226908757</v>
+        <v>#N/A Requesting Data...2603966423</v>
         <stp/>
         <stp>BDP|9588220581862090554</stp>
         <tr r="D81" s="2"/>
@@ -2849,122 +2845,122 @@
         <tr r="H123" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3560448826</v>
+        <v>#N/A Requesting Data...2859625327</v>
         <stp/>
         <stp>BDP|6336981452218022714</stp>
         <tr r="D149" s="2"/>
         <tr r="D28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3981257034</v>
+        <v>#N/A Requesting Data...2805842913</v>
         <stp/>
         <stp>BDP|5144982884240236131</stp>
         <tr r="O119" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2018780575</v>
+        <v>#N/A Requesting Data...2653286741</v>
         <stp/>
         <stp>BDP|4912389578430923538</stp>
         <tr r="C125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3098114301</v>
+        <v>#N/A Requesting Data...2271994216</v>
         <stp/>
         <stp>BDP|4899183487030457834</stp>
         <tr r="D47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2544498522</v>
+        <v>#N/A Requesting Data...3168135509</v>
         <stp/>
         <stp>BDP|7406447711566288126</stp>
         <tr r="O91" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...554352274</v>
+        <v>#N/A Requesting Data...3658855593</v>
         <stp/>
         <stp>BDP|2318106224533271732</stp>
         <tr r="D123" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...366971516</v>
+        <v>#N/A Requesting Data...2581721132</v>
         <stp/>
         <stp>BDP|5397604398148966497</stp>
         <tr r="C118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...935675325</v>
+        <v>#N/A Requesting Data...2879876099</v>
         <stp/>
         <stp>BDP|5247213518087466774</stp>
         <tr r="D79" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2236481920</v>
+        <v>#N/A Requesting Data...2218434135</v>
         <stp/>
         <stp>BDP|2268502188811293879</stp>
         <tr r="O45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1940137698</v>
+        <v>#N/A Requesting Data...2588978719</v>
         <stp/>
         <stp>BDP|2615106264042847162</stp>
         <tr r="C35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3083310959</v>
+        <v>#N/A Requesting Data...2134501894</v>
         <stp/>
         <stp>BDP|7242668637610389424</stp>
         <tr r="C38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...909433201</v>
+        <v>#N/A Requesting Data...3657601105</v>
         <stp/>
         <stp>BDP|3708410904060798168</stp>
         <tr r="D110" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1996934656</v>
+        <v>#N/A Requesting Data...2154249198</v>
         <stp/>
         <stp>BDP|5117711638166954114</stp>
         <tr r="O131" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1868650185</v>
+        <v>#N/A Requesting Data...2246907376</v>
         <stp/>
         <stp>BDP|3978038447362277279</stp>
         <tr r="O50" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3831972183</v>
+        <v>#N/A Requesting Data...2091893198</v>
         <stp/>
         <stp>BDP|4136828621258877131</stp>
         <tr r="C122" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1318039918</v>
+        <v>#N/A Requesting Data...2399138359</v>
         <stp/>
         <stp>BDP|2277297320794027172</stp>
         <tr r="O93" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1072874512</v>
+        <v>#N/A Requesting Data...2602097814</v>
         <stp/>
         <stp>BDP|8961196036758342506</stp>
         <tr r="D113" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2801956611</v>
+        <v>#N/A Requesting Data...3683815914</v>
         <stp/>
         <stp>BDP|1170165359530510519</stp>
         <tr r="C53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2348258125</v>
+        <v>#N/A Requesting Data...3551183023</v>
         <stp/>
         <stp>BDP|3942355915051567002</stp>
         <tr r="C133" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2831491040</v>
+        <v>#N/A Requesting Data...1989090826</v>
         <stp/>
         <stp>BDP|3535326747745052123</stp>
         <tr r="D53" s="2"/>
@@ -2986,68 +2982,68 @@
         <tr r="H48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...534245353</v>
+        <v>#N/A Requesting Data...2353982228</v>
         <stp/>
         <stp>BDP|9540225089557104556</stp>
         <tr r="O118" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3138474144</v>
+        <v>#N/A Requesting Data...4082836896</v>
         <stp/>
         <stp>BDP|5062514338582227013</stp>
         <tr r="D128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...948736091</v>
+        <v>#N/A Requesting Data...3051230245</v>
         <stp/>
         <stp>BDP|2343600014653733789</stp>
         <tr r="O103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3423110446</v>
+        <v>#N/A Requesting Data...2009587497</v>
         <stp/>
         <stp>BDP|3242086975802090723</stp>
         <tr r="D90" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1375876485</v>
+        <v>#N/A Requesting Data...4184325325</v>
         <stp/>
         <stp>BDP|8360886275346359094</stp>
         <tr r="C103" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...803113153</v>
+        <v>#N/A Requesting Data...2038162175</v>
         <stp/>
         <stp>BDP|6855110725440116773</stp>
         <tr r="C61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1018229194</v>
+        <v>#N/A Requesting Data...3257001367</v>
         <stp/>
         <stp>BDP|8675841477756696315</stp>
         <tr r="C139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3435580544</v>
+        <v>#N/A Requesting Data...3318934884</v>
         <stp/>
         <stp>BDP|4759583229459353843</stp>
         <tr r="O47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...306972943</v>
+        <v>#N/A Requesting Data...1951682791</v>
         <stp/>
         <stp>BDP|9839782485004760030</stp>
         <tr r="C149" s="2"/>
         <tr r="C28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...319284197</v>
+        <v>#N/A Requesting Data...2976784420</v>
         <stp/>
         <stp>BDP|3917864525078759387</stp>
         <tr r="C47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...537161012</v>
+        <v>#N/A Requesting Data...1874903817</v>
         <stp/>
         <stp>BDP|1874573773983759306</stp>
         <tr r="C60" s="2"/>
@@ -3061,25 +3057,25 @@
         <tr r="H53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3797621195</v>
+        <v>#N/A Requesting Data...3629001310</v>
         <stp/>
         <stp>BDP|4991441920223468278</stp>
         <tr r="C110" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3624562742</v>
+        <v>#N/A Requesting Data...2189216311</v>
         <stp/>
         <stp>BDP|4634330117701477447</stp>
         <tr r="D48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3834750824</v>
+        <v>#N/A Requesting Data...2734679172</v>
         <stp/>
         <stp>BDP|3206597226223845400</stp>
         <tr r="D35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3504734508</v>
+        <v>#N/A Requesting Data...4164576488</v>
         <stp/>
         <stp>BDP|7344440665766321042</stp>
         <tr r="D45" s="2"/>
@@ -3109,7 +3105,7 @@
         <tr r="I119" s="2"/>
       </tp>
       <tp>
-        <v>64</v>
+        <v>62</v>
         <stp/>
         <stp>BDP|5258715941910323221|22</stp>
         <stp>EEXXT3PA Index</stp>
@@ -3117,13 +3113,13 @@
         <tr r="H45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2133271711</v>
+        <v>#N/A Requesting Data...2313711055</v>
         <stp/>
         <stp>BDP|92010296815936747</stp>
         <tr r="D132" s="2"/>
       </tp>
       <tp>
-        <v>120</v>
+        <v>80.88</v>
         <stp/>
         <stp>BDP|1716388539457443821|22</stp>
         <stp>EEXXT3PA Index</stp>
@@ -3211,7 +3207,7 @@
         <tr r="P89" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2153219230</v>
+        <v>#N/A Requesting Data...2098632514</v>
         <stp/>
         <stp>BDP|141486019989176878</stp>
         <tr r="C77" s="2"/>
@@ -3233,13 +3229,13 @@
         <tr r="I142" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1831847441</v>
+        <v>#N/A Requesting Data...3722720547</v>
         <stp/>
         <stp>BDP|498236031780937674</stp>
         <tr r="O71" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2531762029</v>
+        <v>#N/A Requesting Data...2572099291</v>
         <stp/>
         <stp>BDP|626474072446054250</stp>
         <tr r="O48" s="2"/>
@@ -3253,7 +3249,7 @@
         <tr r="I128" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1748974774</v>
+        <v>#N/A Requesting Data...3818014743</v>
         <stp/>
         <stp>BDP|949597951093820562</stp>
         <tr r="C69" s="2"/>
@@ -3275,7 +3271,7 @@
         <tr r="I139" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3342009312</v>
+        <v>#N/A Requesting Data...3891281720</v>
         <stp/>
         <stp>BDP|527374345414391240</stp>
         <tr r="C99" s="2"/>
@@ -3289,7 +3285,7 @@
         <tr r="I38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...700958153</v>
+        <v>#N/A Requesting Data...3932901119</v>
         <stp/>
         <stp>BDP|445371574551055651</stp>
         <tr r="C111" s="2"/>
@@ -3319,7 +3315,7 @@
         <tr r="H125" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3943603718</v>
+        <v>#N/A Requesting Data...2604751992</v>
         <stp/>
         <stp>BDP|411030222906237860</stp>
         <tr r="O133" s="2"/>
@@ -3389,7 +3385,7 @@
         <tr r="H39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2796502951</v>
+        <v>#N/A Requesting Data...3855605096</v>
         <stp/>
         <stp>BDP|112394073414420858</stp>
         <tr r="C123" s="2"/>
@@ -3403,7 +3399,7 @@
         <tr r="I152" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4081307387</v>
+        <v>#N/A Requesting Data...2101501740</v>
         <stp/>
         <stp>BDP|280997264327962398</stp>
         <tr r="O149" s="2"/>
@@ -3475,7 +3471,7 @@
         <tr r="H49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...891362699</v>
+        <v>#N/A Requesting Data...2823759887</v>
         <stp/>
         <stp>BDP|599652034392309</stp>
         <tr r="D143" s="2"/>
@@ -3783,7 +3779,7 @@
   <dimension ref="A1:P152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4738,30 +4734,30 @@
       </c>
       <c r="C45">
         <f>_xll.BDP("EEXXT3PA Index","PX_LAST")</f>
-        <v>79.19</v>
+        <v>78.66</v>
       </c>
       <c r="D45">
         <f>_xll.BDP("EEXXT3PA Index","PX_VOLUME")</f>
-        <v>3268000</v>
+        <v>6536000</v>
       </c>
       <c r="H45">
         <f>_xll.BDP("EEXXT3PA Index","BID")</f>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I45">
         <f>_xll.BDP("EEXXT3PA Index","ASK")</f>
-        <v>120</v>
+        <v>80.88</v>
       </c>
       <c r="N45" t="s">
         <v>58</v>
       </c>
       <c r="O45" t="str">
         <f>_xll.BDP("EEXXT3PA Index","LAST_UPDATE_DT")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
       <c r="P45" t="str">
         <f>_xll.BDP("EEXXT3PA Index","TIME")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -4781,7 +4777,7 @@
       </c>
       <c r="C47">
         <f>_xll.BDP("EEX3CRT3 Index","PX_LAST")</f>
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="D47">
         <f>_xll.BDP("EEX3CRT3 Index","PX_VOLUME")</f>
@@ -4800,11 +4796,11 @@
       </c>
       <c r="O47" t="str">
         <f>_xll.BDP("EEX3CRT3 Index","LAST_UPDATE_DT")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
       <c r="P47" t="str">
         <f>_xll.BDP("EEX3CRT3 Index","TIME")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -4816,7 +4812,7 @@
       </c>
       <c r="C48">
         <f>_xll.BDP("EEX3MNT3 Index","PX_LAST")</f>
-        <v>79.3</v>
+        <v>78.17</v>
       </c>
       <c r="D48">
         <f>_xll.BDP("EEX3MNT3 Index","PX_VOLUME")</f>
@@ -4835,11 +4831,11 @@
       </c>
       <c r="O48" t="str">
         <f>_xll.BDP("EEX3MNT3 Index","LAST_UPDATE_DT")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
       <c r="P48" t="str">
         <f>_xll.BDP("EEX3MNT3 Index","TIME")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -4851,7 +4847,7 @@
       </c>
       <c r="C49">
         <f>_xll.BDP("EEX3MDT3 Index","PX_LAST")</f>
-        <v>78.91</v>
+        <v>78.5</v>
       </c>
       <c r="D49">
         <f>_xll.BDP("EEX3MDT3 Index","PX_VOLUME")</f>
@@ -4870,11 +4866,11 @@
       </c>
       <c r="O49" t="str">
         <f>_xll.BDP("EEX3MDT3 Index","LAST_UPDATE_DT")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
       <c r="P49" t="str">
         <f>_xll.BDP("EEX3MDT3 Index","TIME")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -4905,11 +4901,11 @@
       </c>
       <c r="O50" t="str">
         <f>_xll.BDP("EEX3SCCB Index","LAST_UPDATE_DT")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
       <c r="P50" t="str">
         <f>_xll.BDP("EEX3SCCB Index","TIME")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -4921,7 +4917,7 @@
       </c>
       <c r="C51">
         <f>_xll.BDP("EEX3TOTB Index","PX_LAST")</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D51">
         <f>_xll.BDP("EEX3TOTB Index","PX_VOLUME")</f>
@@ -4940,11 +4936,11 @@
       </c>
       <c r="O51" t="str">
         <f>_xll.BDP("EEX3TOTB Index","LAST_UPDATE_DT")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
       <c r="P51" t="str">
         <f>_xll.BDP("EEX3TOTB Index","TIME")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -4967,7 +4963,7 @@
       </c>
       <c r="C53">
         <f>_xll.BDP("EEX3BDT3 Index","PX_LAST")</f>
-        <v>5329500</v>
+        <v>4783000</v>
       </c>
       <c r="D53">
         <f>_xll.BDP("EEX3BDT3 Index","PX_VOLUME")</f>
@@ -4986,11 +4982,11 @@
       </c>
       <c r="O53" t="str">
         <f>_xll.BDP("EEX3BDT3 Index","LAST_UPDATE_DT")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
       <c r="P53" t="str">
         <f>_xll.BDP("EEX3BDT3 Index","TIME")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -5039,7 +5035,7 @@
       </c>
       <c r="C57">
         <f>_xll.BDP("EEX3PMDE Index","PX_LAST")</f>
-        <v>75.17</v>
+        <v>79.22</v>
       </c>
       <c r="D57">
         <f>_xll.BDP("EEX3PMDE Index","PX_VOLUME")</f>
@@ -5047,22 +5043,22 @@
       </c>
       <c r="H57">
         <f>_xll.BDP("EEX3PMDE Index","BID")</f>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I57">
         <f>_xll.BDP("EEX3PMDE Index","ASK")</f>
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="N57" t="s">
         <v>61</v>
       </c>
       <c r="O57" t="str">
         <f>_xll.BDP("EEX3PMDE Index","LAST_UPDATE_DT")</f>
-        <v>26.09.2025</v>
+        <v>10.10.2025</v>
       </c>
       <c r="P57" t="str">
         <f>_xll.BDP("EEX3PMDE Index","TIME")</f>
-        <v>26.09.2025</v>
+        <v>10.10.2025</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -5082,7 +5078,7 @@
       </c>
       <c r="C59">
         <f>_xll.BDP("EEX3CRDE Index","PX_LAST")</f>
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="D59">
         <f>_xll.BDP("EEX3CRDE Index","PX_VOLUME")</f>
@@ -5101,11 +5097,11 @@
       </c>
       <c r="O59" t="str">
         <f>_xll.BDP("EEX3CRDE Index","LAST_UPDATE_DT")</f>
-        <v>26.09.2025</v>
+        <v>10.10.2025</v>
       </c>
       <c r="P59" t="str">
         <f>_xll.BDP("EEX3CRDE Index","TIME")</f>
-        <v>26.09.2025</v>
+        <v>10.10.2025</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -5117,7 +5113,7 @@
       </c>
       <c r="C60">
         <f>_xll.BDP("EEX3MNDE Index","PX_LAST")</f>
-        <v>74.77</v>
+        <v>78.819999999999993</v>
       </c>
       <c r="D60">
         <f>_xll.BDP("EEX3MNDE Index","PX_VOLUME")</f>
@@ -5136,11 +5132,11 @@
       </c>
       <c r="O60" t="str">
         <f>_xll.BDP("EEX3MNDE Index","LAST_UPDATE_DT")</f>
-        <v>26.09.2025</v>
+        <v>10.10.2025</v>
       </c>
       <c r="P60" t="str">
         <f>_xll.BDP("EEX3MNDE Index","TIME")</f>
-        <v>26.09.2025</v>
+        <v>10.10.2025</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -5152,7 +5148,7 @@
       </c>
       <c r="C61">
         <f>_xll.BDP("EEX3MDDE Index","PX_LAST")</f>
-        <v>74.739999999999995</v>
+        <v>79.12</v>
       </c>
       <c r="D61">
         <f>_xll.BDP("EEX3MDDE Index","PX_VOLUME")</f>
@@ -5171,11 +5167,11 @@
       </c>
       <c r="O61" t="str">
         <f>_xll.BDP("EEX3MDDE Index","LAST_UPDATE_DT")</f>
-        <v>26.09.2025</v>
+        <v>10.10.2025</v>
       </c>
       <c r="P61" t="str">
         <f>_xll.BDP("EEX3MDDE Index","TIME")</f>
-        <v>26.09.2025</v>
+        <v>10.10.2025</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -5198,7 +5194,7 @@
       </c>
       <c r="C63">
         <f>_xll.BDP("EEX3BDDE Index","PX_LAST")</f>
-        <v>3513000</v>
+        <v>3102000</v>
       </c>
       <c r="D63">
         <f>_xll.BDP("EEX3BDDE Index","PX_VOLUME")</f>
@@ -5217,11 +5213,11 @@
       </c>
       <c r="O63" t="str">
         <f>_xll.BDP("EEX3BDDE Index","LAST_UPDATE_DT")</f>
-        <v>26.09.2025</v>
+        <v>10.10.2025</v>
       </c>
       <c r="P63" t="str">
         <f>_xll.BDP("EEX3BDDE Index","TIME")</f>
-        <v>26.09.2025</v>
+        <v>10.10.2025</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -5270,7 +5266,7 @@
       </c>
       <c r="C67">
         <f>_xll.BDP("EEX3EPPM Index","PX_LAST")</f>
-        <v>79.19</v>
+        <v>78.66</v>
       </c>
       <c r="D67">
         <f>_xll.BDP("EEX3EPPM Index","PX_VOLUME")</f>
@@ -5278,22 +5274,22 @@
       </c>
       <c r="H67">
         <f>_xll.BDP("EEX3EPPM Index","BID")</f>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I67">
         <f>_xll.BDP("EEX3EPPM Index","ASK")</f>
-        <v>120</v>
+        <v>80.88</v>
       </c>
       <c r="N67" t="s">
         <v>63</v>
       </c>
       <c r="O67" t="str">
         <f>_xll.BDP("EEX3EPPM Index","LAST_UPDATE_DT")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
       <c r="P67" t="str">
         <f>_xll.BDP("EEX3EPPM Index","TIME")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -5313,7 +5309,7 @@
       </c>
       <c r="C69">
         <f>_xll.BDP("EEX3EPCR Index","PX_LAST")</f>
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="D69">
         <f>_xll.BDP("EEX3EPCR Index","PX_VOLUME")</f>
@@ -5332,11 +5328,11 @@
       </c>
       <c r="O69" t="str">
         <f>_xll.BDP("EEX3EPCR Index","LAST_UPDATE_DT")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
       <c r="P69" t="str">
         <f>_xll.BDP("EEX3EPCR Index","TIME")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -5348,7 +5344,7 @@
       </c>
       <c r="C70">
         <f>_xll.BDP("EEX3MNEP Index","PX_LAST")</f>
-        <v>79.3</v>
+        <v>78.17</v>
       </c>
       <c r="D70">
         <f>_xll.BDP("EEX3MNEP Index","PX_VOLUME")</f>
@@ -5367,11 +5363,11 @@
       </c>
       <c r="O70" t="str">
         <f>_xll.BDP("EEX3MNEP Index","LAST_UPDATE_DT")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
       <c r="P70" t="str">
         <f>_xll.BDP("EEX3MNEP Index","TIME")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -5383,7 +5379,7 @@
       </c>
       <c r="C71">
         <f>_xll.BDP("EEX3MDEP Index","PX_LAST")</f>
-        <v>78.91</v>
+        <v>78.5</v>
       </c>
       <c r="D71">
         <f>_xll.BDP("EEX3MDEP Index","PX_VOLUME")</f>
@@ -5402,11 +5398,11 @@
       </c>
       <c r="O71" t="str">
         <f>_xll.BDP("EEX3MDEP Index","LAST_UPDATE_DT")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
       <c r="P71" t="str">
         <f>_xll.BDP("EEX3MDEP Index","TIME")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -5429,7 +5425,7 @@
       </c>
       <c r="C73">
         <f>_xll.BDP("EEX3BDEP Index","PX_LAST")</f>
-        <v>5329500</v>
+        <v>4783000</v>
       </c>
       <c r="D73">
         <f>_xll.BDP("EEX3BDEP Index","PX_VOLUME")</f>
@@ -5448,11 +5444,11 @@
       </c>
       <c r="O73" t="str">
         <f>_xll.BDP("EEX3BDEP Index","LAST_UPDATE_DT")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
       <c r="P73" t="str">
         <f>_xll.BDP("EEX3BDEP Index","TIME")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -5501,7 +5497,7 @@
       </c>
       <c r="C77">
         <f>_xll.BDP("EEX3PMEU Index","PX_LAST")</f>
-        <v>79.19</v>
+        <v>78.66</v>
       </c>
       <c r="D77">
         <f>_xll.BDP("EEX3PMEU Index","PX_VOLUME")</f>
@@ -5509,22 +5505,22 @@
       </c>
       <c r="H77">
         <f>_xll.BDP("EEX3PMEU Index","BID")</f>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I77">
         <f>_xll.BDP("EEX3PMEU Index","ASK")</f>
-        <v>120</v>
+        <v>80.88</v>
       </c>
       <c r="N77" t="s">
         <v>65</v>
       </c>
       <c r="O77" t="str">
         <f>_xll.BDP("EEX3PMEU Index","LAST_UPDATE_DT")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
       <c r="P77" t="str">
         <f>_xll.BDP("EEX3PMEU Index","TIME")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -5544,7 +5540,7 @@
       </c>
       <c r="C79">
         <f>_xll.BDP("EEX3CREU Index","PX_LAST")</f>
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="D79">
         <f>_xll.BDP("EEX3CREU Index","PX_VOLUME")</f>
@@ -5563,11 +5559,11 @@
       </c>
       <c r="O79" t="str">
         <f>_xll.BDP("EEX3CREU Index","LAST_UPDATE_DT")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
       <c r="P79" t="str">
         <f>_xll.BDP("EEX3CREU Index","TIME")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -5579,7 +5575,7 @@
       </c>
       <c r="C80">
         <f>_xll.BDP("EEX3MNEU Index","PX_LAST")</f>
-        <v>79.3</v>
+        <v>78.17</v>
       </c>
       <c r="D80">
         <f>_xll.BDP("EEX3MNEU Index","PX_VOLUME")</f>
@@ -5598,11 +5594,11 @@
       </c>
       <c r="O80" t="str">
         <f>_xll.BDP("EEX3MNEU Index","LAST_UPDATE_DT")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
       <c r="P80" t="str">
         <f>_xll.BDP("EEX3MNEU Index","TIME")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -5614,7 +5610,7 @@
       </c>
       <c r="C81">
         <f>_xll.BDP("EEX3MDEU Index","PX_LAST")</f>
-        <v>78.91</v>
+        <v>78.5</v>
       </c>
       <c r="D81">
         <f>_xll.BDP("EEX3MDEU Index","PX_VOLUME")</f>
@@ -5633,11 +5629,11 @@
       </c>
       <c r="O81" t="str">
         <f>_xll.BDP("EEX3MDEU Index","LAST_UPDATE_DT")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
       <c r="P81" t="str">
         <f>_xll.BDP("EEX3MDEU Index","TIME")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -5660,7 +5656,7 @@
       </c>
       <c r="C83">
         <f>_xll.BDP("EEX3BDEU Index","PX_LAST")</f>
-        <v>5329500</v>
+        <v>4783000</v>
       </c>
       <c r="D83">
         <f>_xll.BDP("EEX3BDEU Index","PX_VOLUME")</f>
@@ -5679,11 +5675,11 @@
       </c>
       <c r="O83" t="str">
         <f>_xll.BDP("EEX3BDEU Index","LAST_UPDATE_DT")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
       <c r="P83" t="str">
         <f>_xll.BDP("EEX3BDEU Index","TIME")</f>
-        <v>06.10.2025</v>
+        <v>13.10.2025</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -5963,30 +5959,30 @@
       </c>
       <c r="C97">
         <f>_xll.BDP("EEX3PMNI Index","PX_LAST")</f>
-        <v>62.89</v>
+        <v>77.39</v>
       </c>
       <c r="D97">
         <f>_xll.BDP("EEX3PMNI Index","PX_VOLUME")</f>
-        <v>926500</v>
-      </c>
-      <c r="H97" t="str">
+        <v>796500</v>
+      </c>
+      <c r="H97">
         <f>_xll.BDP("EEX3PMNI Index","BID")</f>
-        <v>#N/A Real Time</v>
-      </c>
-      <c r="I97" t="str">
+        <v>60</v>
+      </c>
+      <c r="I97">
         <f>_xll.BDP("EEX3PMNI Index","ASK")</f>
-        <v>#N/A Real Time</v>
+        <v>79.3</v>
       </c>
       <c r="N97" t="s">
         <v>69</v>
       </c>
       <c r="O97" t="str">
         <f>_xll.BDP("EEX3PMNI Index","LAST_UPDATE_DT")</f>
-        <v>02.10.2024</v>
+        <v>08.10.2025</v>
       </c>
       <c r="P97" t="str">
         <f>_xll.BDP("EEX3PMNI Index","TIME")</f>
-        <v>#N/A Real Time</v>
+        <v>08.10.2025</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -6006,7 +6002,7 @@
       </c>
       <c r="C99">
         <f>_xll.BDP("EEX3CRNI Index","PX_LAST")</f>
-        <v>2.4300000000000002</v>
+        <v>1.65</v>
       </c>
       <c r="D99">
         <f>_xll.BDP("EEX3CRNI Index","PX_VOLUME")</f>
@@ -6014,22 +6010,22 @@
       </c>
       <c r="H99" t="str">
         <f>_xll.BDP("EEX3CRNI Index","BID")</f>
-        <v>#N/A Real Time</v>
+        <v>#N/A N/A</v>
       </c>
       <c r="I99" t="str">
         <f>_xll.BDP("EEX3CRNI Index","ASK")</f>
-        <v>#N/A Real Time</v>
+        <v>#N/A N/A</v>
       </c>
       <c r="N99" t="s">
         <v>69</v>
       </c>
       <c r="O99" t="str">
         <f>_xll.BDP("EEX3CRNI Index","LAST_UPDATE_DT")</f>
-        <v>02.10.2024</v>
+        <v>08.10.2025</v>
       </c>
       <c r="P99" t="str">
         <f>_xll.BDP("EEX3CRNI Index","TIME")</f>
-        <v>#N/A Real Time</v>
+        <v>08.10.2025</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -6041,7 +6037,7 @@
       </c>
       <c r="C100">
         <f>_xll.BDP("EEX3MNNI Index","PX_LAST")</f>
-        <v>63.66</v>
+        <v>76.989999999999995</v>
       </c>
       <c r="D100">
         <f>_xll.BDP("EEX3MNNI Index","PX_VOLUME")</f>
@@ -6049,22 +6045,22 @@
       </c>
       <c r="H100" t="str">
         <f>_xll.BDP("EEX3MNNI Index","BID")</f>
-        <v>#N/A Real Time</v>
+        <v>#N/A N/A</v>
       </c>
       <c r="I100" t="str">
         <f>_xll.BDP("EEX3MNNI Index","ASK")</f>
-        <v>#N/A Real Time</v>
+        <v>#N/A N/A</v>
       </c>
       <c r="N100" t="s">
         <v>69</v>
       </c>
       <c r="O100" t="str">
         <f>_xll.BDP("EEX3MNNI Index","LAST_UPDATE_DT")</f>
-        <v>02.10.2024</v>
+        <v>08.10.2025</v>
       </c>
       <c r="P100" t="str">
         <f>_xll.BDP("EEX3MNNI Index","TIME")</f>
-        <v>#N/A Real Time</v>
+        <v>08.10.2025</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -6076,7 +6072,7 @@
       </c>
       <c r="C101">
         <f>_xll.BDP("EEX3MDNI Index","PX_LAST")</f>
-        <v>62.82</v>
+        <v>77.5</v>
       </c>
       <c r="D101">
         <f>_xll.BDP("EEX3MDNI Index","PX_VOLUME")</f>
@@ -6084,22 +6080,22 @@
       </c>
       <c r="H101" t="str">
         <f>_xll.BDP("EEX3MDNI Index","BID")</f>
-        <v>#N/A Real Time</v>
+        <v>#N/A N/A</v>
       </c>
       <c r="I101" t="str">
         <f>_xll.BDP("EEX3MDNI Index","ASK")</f>
-        <v>#N/A Real Time</v>
+        <v>#N/A N/A</v>
       </c>
       <c r="N101" t="s">
         <v>69</v>
       </c>
       <c r="O101" t="str">
         <f>_xll.BDP("EEX3MDNI Index","LAST_UPDATE_DT")</f>
-        <v>02.10.2024</v>
+        <v>08.10.2025</v>
       </c>
       <c r="P101" t="str">
         <f>_xll.BDP("EEX3MDNI Index","TIME")</f>
-        <v>#N/A Real Time</v>
+        <v>08.10.2025</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -6122,7 +6118,7 @@
       </c>
       <c r="C103">
         <f>_xll.BDP("EEX3BDNI Index","PX_LAST")</f>
-        <v>2247000</v>
+        <v>1312000</v>
       </c>
       <c r="D103">
         <f>_xll.BDP("EEX3BDNI Index","PX_VOLUME")</f>
@@ -6130,22 +6126,22 @@
       </c>
       <c r="H103" t="str">
         <f>_xll.BDP("EEX3BDNI Index","BID")</f>
-        <v>#N/A Real Time</v>
+        <v>#N/A N/A</v>
       </c>
       <c r="I103" t="str">
         <f>_xll.BDP("EEX3BDNI Index","ASK")</f>
-        <v>#N/A Real Time</v>
+        <v>#N/A N/A</v>
       </c>
       <c r="N103" t="s">
         <v>69</v>
       </c>
       <c r="O103" t="str">
         <f>_xll.BDP("EEX3BDNI Index","LAST_UPDATE_DT")</f>
-        <v>02.10.2024</v>
+        <v>08.10.2025</v>
       </c>
       <c r="P103" t="str">
         <f>_xll.BDP("EEX3BDNI Index","TIME")</f>
-        <v>#N/A Real Time</v>
+        <v>08.10.2025</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -7266,26 +7262,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A30:P30"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="A33:P33"/>
+    <mergeCell ref="A43:P43"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="A65:P65"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A95:P95"/>
+    <mergeCell ref="A105:P105"/>
     <mergeCell ref="A115:P115"/>
     <mergeCell ref="A116:P116"/>
     <mergeCell ref="A126:P126"/>
     <mergeCell ref="A137:P137"/>
     <mergeCell ref="A147:P147"/>
-    <mergeCell ref="A65:P65"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A95:P95"/>
-    <mergeCell ref="A105:P105"/>
-    <mergeCell ref="A30:P30"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="A33:P33"/>
-    <mergeCell ref="A43:P43"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A27:P27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
